--- a/Planilha_de_Negocios.xlsx
+++ b/Planilha_de_Negocios.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Helena\OneDrive\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Helena\Desktop\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C7F00A-86BA-4839-A0EF-C35E054B6D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D53E8D-2C0D-4CA7-8206-0A300F52F70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{B93EFE28-CC56-4C9F-AA0A-2D1B24DC53D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="6" xr2:uid="{B93EFE28-CC56-4C9F-AA0A-2D1B24DC53D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="1" r:id="rId1"/>
     <sheet name="Fevereiro" sheetId="3" r:id="rId2"/>
     <sheet name="Março" sheetId="4" r:id="rId3"/>
     <sheet name="Abril - Cyber" sheetId="5" r:id="rId4"/>
+    <sheet name="Maio - Cyber" sheetId="6" r:id="rId5"/>
+    <sheet name="Junho - Cyber" sheetId="7" r:id="rId6"/>
+    <sheet name="Julho - Cyber" sheetId="9" r:id="rId7"/>
+    <sheet name="Lucros do Período 2024" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -144,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="68">
   <si>
     <t>PLANILHA DE NEGÓCIOS</t>
   </si>
@@ -259,6 +263,96 @@
   <si>
     <t>Panfleto</t>
   </si>
+  <si>
+    <t>C. Visita</t>
+  </si>
+  <si>
+    <t>Caneca - R$ 10</t>
+  </si>
+  <si>
+    <t>Caneca - R$ 5</t>
+  </si>
+  <si>
+    <t>Camiseta</t>
+  </si>
+  <si>
+    <t>MAIO</t>
+  </si>
+  <si>
+    <t>Camiseta - R$ 5</t>
+  </si>
+  <si>
+    <t>Camiseta - R$ 10</t>
+  </si>
+  <si>
+    <t>JUNHO</t>
+  </si>
+  <si>
+    <t>GANHOS DO PERÍODO</t>
+  </si>
+  <si>
+    <t>JAN</t>
+  </si>
+  <si>
+    <t>FEV</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>ABR</t>
+  </si>
+  <si>
+    <t>MAI</t>
+  </si>
+  <si>
+    <t>JUN</t>
+  </si>
+  <si>
+    <t>JUL</t>
+  </si>
+  <si>
+    <t>AGO</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>NOV</t>
+  </si>
+  <si>
+    <t>DEZ</t>
+  </si>
+  <si>
+    <t>PRODUTOS</t>
+  </si>
+  <si>
+    <t>Caneca R$ 10</t>
+  </si>
+  <si>
+    <t>Caneca R$ 5</t>
+  </si>
+  <si>
+    <t>Camiseta R$ 10</t>
+  </si>
+  <si>
+    <t>Camiseta R$ 5</t>
+  </si>
+  <si>
+    <t>Cartão de Visita</t>
+  </si>
+  <si>
+    <t>A Receber</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>JULHO</t>
+  </si>
 </sst>
 </file>
 
@@ -267,7 +361,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,8 +478,30 @@
       <name val="Candara"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -544,8 +660,39 @@
         </stop>
       </gradientFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="4"/>
+        </stop>
+        <stop position="0.5">
+          <color theme="1"/>
+        </stop>
+        <stop position="1">
+          <color theme="4"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -636,12 +783,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -725,6 +947,51 @@
     <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="23" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="23" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="20" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="25" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="26" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -783,6 +1050,81 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="17" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="17" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="17" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="17" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2010,9 +2352,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.2463934820647419"/>
-          <c:y val="0.1413425925925926"/>
+          <c:y val="0.15523148148148147"/>
           <c:w val="0.71749540682414703"/>
-          <c:h val="0.85402777777777783"/>
+          <c:h val="0.74754629629629632"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2284,7 +2626,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2421,9 +2763,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2560,7 +2899,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2698,7 +3037,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2836,7 +3175,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3129,147 +3468,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Abril - Cyber'!$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Panfleto</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Abril - Cyber'!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>QTDE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Abril - Cyber'!$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FE8B-49EC-BD2E-C4FC931A4EAF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
@@ -3331,9 +3529,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.7222222222222221E-2"/>
-          <c:y val="0.1603685476815398"/>
+          <c:y val="0.20203521434820648"/>
           <c:w val="0.18421719160104988"/>
-          <c:h val="0.82048884514435694"/>
+          <c:h val="0.69228638086905814"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3366,6 +3564,2150 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Desempenho MAIO - 2024</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Maio - Cyber'!$A$4:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Logo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Caneca - R$ 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Caneca - R$ 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Taça</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Toalha</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Medida</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Adesivo</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ima</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Manutenção</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Panfleto</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>C. Visita</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Camiseta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Maio - Cyber'!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D928-42DD-9974-81C0288D301C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="670864784"/>
+        <c:axId val="670865264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="670864784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="670865264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="670865264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="670864784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Desempenho JUNHO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> 2024</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Junho - Cyber'!$A$4:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Logo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Adesivo</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C. Visita</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Camiseta - R$ 10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Camiseta - R$ 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Caneca - R$ 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Caneca - R$ 5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ima</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Manutenção</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Medida</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Panfleto</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Taça</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Toalha</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Tag</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Junho - Cyber'!$B$4:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4FB6-46D8-A793-EB7BD910456C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="1713961616"/>
+        <c:axId val="1713989936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1713961616"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1713989936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1713989936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1713961616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Desempenho JULHO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> 2024</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Julho - Cyber'!$A$4:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Logo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Adesivo</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C. Visita</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Camiseta - R$ 10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Camiseta - R$ 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Caneca - R$ 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Caneca - R$ 5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ima</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Manutenção</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Medida</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Panfleto</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Taça</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Toalha</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Tag</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Julho - Cyber'!$B$4:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A900-4D01-88EC-6D748DD5F8BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="1713961616"/>
+        <c:axId val="1713989936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1713961616"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1713989936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1713989936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1713961616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>GANHOS PERÍODO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> 2024</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Lucros do Período 2024'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>JAN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FEV</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ABR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MAI</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JUN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>JUL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AGO</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SET</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>OUT</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NOV</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DEZ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Lucros do Período 2024'!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC7F-4B68-9EB7-47859726C56D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="1606739312"/>
+        <c:axId val="1606736432"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1606739312"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1606736432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1606736432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1606739312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>VENDA POR</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> PRODUTO</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Lucros do Período 2024'!$D$2:$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Adesivo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Camiseta R$ 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Camiseta R$ 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Caneca R$ 10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Caneca R$ 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cartão de Visita</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ima</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Logo</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Manutenção</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Medida</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Panfleto</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Taça</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Toalha</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Tag</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Lucros do Período 2024'!$E$2:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B1C9-465C-9407-ADA96D076197}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="1713966416"/>
+        <c:axId val="1713974096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1713966416"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1713974096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1713974096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1713966416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -3572,6 +5914,138 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
+  <a:schemeClr val="accent4"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
+  <a:schemeClr val="accent4"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
   <cs:axisTitle>
@@ -5551,6 +8025,2486 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -5870,6 +10824,208 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9054ECF6-47B9-B891-7CC9-E880B7FAEF0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24E63511-7C01-44A3-8DF6-69AC4737CE68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43743BCB-8B1B-4252-A30A-B78D1015EDCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A49485BA-E59D-6B80-09BC-653393331E88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4223350-FE33-94C0-6B1A-7CA47D07B48B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -6170,7 +11326,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="H8" sqref="H8:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6181,18 +11337,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
     </row>
     <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -6207,18 +11363,18 @@
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
       <c r="J3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -6233,19 +11389,19 @@
       <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="61">
         <f>SUMIF(A4:A13,"Caneca",B4:B13)</f>
         <v>10</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="42">
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="63">
         <f>SUM(F4:I5)</f>
         <v>12</v>
       </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -6260,16 +11416,16 @@
       <c r="E5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="61">
         <f>SUMIF(A4:A13,"Toalha",B4:B13)</f>
         <v>2</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -6281,8 +11437,8 @@
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -6297,8 +11453,8 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="8"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -6310,17 +11466,17 @@
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="44">
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="65">
         <v>120</v>
       </c>
-      <c r="I8" s="44"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
+      <c r="I8" s="65"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -6332,11 +11488,11 @@
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -6443,7 +11599,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B11"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6459,29 +11615,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -6497,14 +11653,14 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -6521,18 +11677,18 @@
         <v>20</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="45" t="s">
+      <c r="G4" s="64"/>
+      <c r="H4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -6549,14 +11705,14 @@
         <v>20</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -6573,22 +11729,22 @@
         <v>10</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="64">
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>4</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="66">
         <f>SUMIF(A4:A11,H4,B4:B11)</f>
         <v>8</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
       <c r="P6" s="19" t="s">
         <v>5</v>
       </c>
@@ -6608,17 +11764,17 @@
         <v>10</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43">
+      <c r="F7" s="64"/>
+      <c r="G7" s="64">
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>2</v>
       </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
       <c r="P7" s="19" t="s">
         <v>13</v>
       </c>
@@ -6657,16 +11813,16 @@
         <v>10</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="49">
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="70">
         <f>SUM(D4:D11)</f>
         <v>150</v>
       </c>
-      <c r="J9" s="49"/>
+      <c r="J9" s="70"/>
       <c r="K9" s="18"/>
       <c r="P9" s="19" t="s">
         <v>11</v>
@@ -6687,11 +11843,11 @@
         <v>10</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6708,23 +11864,23 @@
         <f>10*B11</f>
         <v>50</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="45">
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="66">
         <f>SUM(B4:B11)</f>
         <v>18</v>
       </c>
-      <c r="J11" s="45"/>
+      <c r="J11" s="66"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
@@ -6875,7 +12031,7 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6892,29 +12048,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -6930,18 +12086,18 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="O3" s="52" t="s">
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="O3" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="53"/>
+      <c r="P3" s="74"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -6958,18 +12114,18 @@
         <v>60</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="45" t="s">
+      <c r="G4" s="64"/>
+      <c r="H4" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
       <c r="O4" s="21" t="s">
         <v>5</v>
       </c>
@@ -6992,14 +12148,14 @@
         <v>40</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
       <c r="O5" s="23" t="s">
         <v>25</v>
       </c>
@@ -7022,22 +12178,22 @@
         <v>100</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="64">
         <f>SUMIF(A4:A10,"Medidas",B4:B10)</f>
         <v>12</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="66">
         <f>SUMIF(A4:A10,H4,B4:B10)</f>
         <v>1</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
       <c r="O6" s="21" t="s">
         <v>19</v>
       </c>
@@ -7060,17 +12216,17 @@
         <v>10</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43">
+      <c r="F7" s="64"/>
+      <c r="G7" s="64">
         <f>SUMIF(A4:A10,"Taça",B4:B10)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
       <c r="O7" s="23" t="s">
         <v>11</v>
       </c>
@@ -7099,16 +12255,16 @@
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="12"/>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="50">
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="71">
         <f>SUM(D4:D10)</f>
         <v>220</v>
       </c>
-      <c r="J9" s="50"/>
+      <c r="J9" s="71"/>
       <c r="K9" s="18"/>
       <c r="P9" s="19" t="s">
         <v>11</v>
@@ -7120,11 +12276,11 @@
       <c r="C10" s="20"/>
       <c r="D10" s="27"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7132,27 +12288,27 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="51">
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="72">
         <f>SUM(B4:B8)</f>
         <v>39</v>
       </c>
-      <c r="J11" s="51"/>
+      <c r="J11" s="72"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="20"/>
       <c r="C12" s="8"/>
       <c r="D12" s="28"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -7383,10 +12539,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA027607-A441-43B3-9F59-BAF4D4BF8170}">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7404,29 +12560,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -7442,20 +12598,20 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="O3" s="56" t="s">
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="O3" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -7469,18 +12625,18 @@
         <v>50</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="45" t="s">
+      <c r="G4" s="64"/>
+      <c r="H4" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
       <c r="O4" s="33" t="s">
         <v>5</v>
       </c>
@@ -7499,64 +12655,56 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="25">
         <f>B5*P4</f>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
       <c r="O5" s="30" t="s">
         <v>25</v>
       </c>
       <c r="P5" s="32">
         <v>5</v>
-      </c>
-      <c r="Q5" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="R5" s="32">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
+      <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="25">
         <f>B6*P6</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="64">
         <f>SUMIF(A4:A10,"Medidas",B4:B10)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="66">
         <f>SUMIF(A4:A10,H4,B4:B10)</f>
-        <v>1</v>
-      </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
       <c r="O6" s="33" t="s">
         <v>19</v>
       </c>
@@ -7569,25 +12717,25 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="25">
         <f>B7*P7</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43">
+      <c r="F7" s="64"/>
+      <c r="G7" s="64">
         <f>SUMIF(A4:A10,"Taça",B4:B10)</f>
-        <v>1</v>
-      </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
       <c r="O7" s="30" t="s">
         <v>11</v>
       </c>
@@ -7600,12 +12748,12 @@
         <v>25</v>
       </c>
       <c r="B8" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="25">
         <f>B8*P5</f>
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E8" s="12"/>
       <c r="P8" s="19" t="s">
@@ -7617,24 +12765,24 @@
         <v>32</v>
       </c>
       <c r="B9" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="25">
         <f>B9*5</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="50">
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="71">
         <f>SUM(D4:D11)</f>
-        <v>310</v>
-      </c>
-      <c r="J9" s="50"/>
+        <v>250</v>
+      </c>
+      <c r="J9" s="71"/>
       <c r="K9" s="18"/>
       <c r="P9" s="19" t="s">
         <v>11</v>
@@ -7653,11 +12801,11 @@
         <v>5</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7671,34 +12819,27 @@
       <c r="D11" s="34">
         <v>100</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="51">
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="72">
         <f>SUM(B4:B11)</f>
-        <v>27</v>
-      </c>
-      <c r="J11" s="51"/>
+        <v>16</v>
+      </c>
+      <c r="J11" s="72"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="34">
-        <f>B12*R5</f>
-        <v>20</v>
-      </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="28"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -7751,7 +12892,7 @@
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="19" t="s">
         <v>32</v>
       </c>
       <c r="J15" s="8"/>
@@ -7776,7 +12917,7 @@
       <c r="F16" s="20"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="19" t="s">
         <v>5</v>
       </c>
       <c r="J16" s="8"/>
@@ -7796,12 +12937,12 @@
       <c r="C17" s="8"/>
       <c r="D17" s="28"/>
       <c r="E17" s="35">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="19" t="s">
         <v>34</v>
       </c>
       <c r="J17" s="8"/>
@@ -7824,7 +12965,7 @@
       <c r="F18" s="20"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="19" t="s">
         <v>30</v>
       </c>
       <c r="J18" s="8"/>
@@ -7847,7 +12988,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="19" t="s">
         <v>35</v>
       </c>
       <c r="J19" s="8"/>
@@ -7870,7 +13011,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="19" t="s">
         <v>25</v>
       </c>
       <c r="J20" s="8"/>
@@ -7890,8 +13031,8 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="8" t="s">
-        <v>37</v>
+      <c r="I21" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -7905,24 +13046,13 @@
       <c r="S21" s="8"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8" t="s">
+      <c r="I22" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="8"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I15:I23">
-    <sortCondition ref="I15:I23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I15:I22">
+    <sortCondition ref="I15:I22"/>
   </sortState>
   <mergeCells count="13">
     <mergeCell ref="F9:H10"/>
@@ -7941,11 +13071,1914 @@
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:J5" xr:uid="{EFDB1DE4-63DB-4F29-A62D-0BEC172F0B37}">
-      <formula1>$I$15:$I$23</formula1>
+      <formula1>$I$15:$I$22</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605946EE-4E34-406E-884B-9A44CFA3FD9D}">
+  <dimension ref="A1:S23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12:J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.28515625" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+    </row>
+    <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="41">
+        <f>B4*C20</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="86"/>
+      <c r="H4" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="92"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="46">
+        <v>6</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41">
+        <f>B5*10</f>
+        <v>60</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="38">
+        <v>5</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="41">
+        <f>B6*5</f>
+        <v>25</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="46">
+        <v>0</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="41">
+        <f>B7*5</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="64">
+        <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="66">
+        <f>SUMIF(A4:A15,H4,B4:B15)</f>
+        <v>3</v>
+      </c>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="38">
+        <v>3</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="41">
+        <f>B8*5</f>
+        <v>15</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64">
+        <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="46">
+        <v>5</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="41">
+        <f>B9*5</f>
+        <v>25</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="P9" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="38">
+        <v>9</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="41">
+        <f>B10*5</f>
+        <v>45</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="80">
+        <f>SUM(D4:D15)</f>
+        <v>390</v>
+      </c>
+      <c r="J10" s="81"/>
+      <c r="K10" s="18"/>
+      <c r="P10" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="46">
+        <v>0</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="42">
+        <f>B11*C22</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="38">
+        <v>1</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="42">
+        <v>150</v>
+      </c>
+      <c r="F12" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="72">
+        <f>SUM(B4:B15)</f>
+        <v>35</v>
+      </c>
+      <c r="J12" s="72"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="46">
+        <v>1</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="42">
+        <v>20</v>
+      </c>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="38">
+        <v>0</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="42">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="46">
+        <v>5</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="37">
+        <f>B15*10</f>
+        <v>50</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="43">
+        <v>0</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="44"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="I23" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="F10:H11"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="F12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="F4:G6"/>
+    <mergeCell ref="H4:J6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:J3"/>
+    <mergeCell ref="L3:M8"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="H7:J8"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:J6" xr:uid="{FF44085E-1C04-4ECF-B70C-29C4C7DECF28}">
+      <formula1>$A$4:$A$15</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A68652C-76EB-4B55-B870-038202B2ADEF}">
+  <dimension ref="A1:S23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+    </row>
+    <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="41">
+        <f>B4*C20</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="86"/>
+      <c r="H4" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="92"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="46">
+        <v>0</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41">
+        <f>B5*10</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="38">
+        <v>0</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="41">
+        <f>B6*5</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="46">
+        <v>9</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="41">
+        <f>B7*10</f>
+        <v>90</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="64">
+        <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="66">
+        <f>SUMIF(A4:A17,H4,B4:B17)</f>
+        <v>2</v>
+      </c>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="38">
+        <v>6</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="41">
+        <f>B8*5</f>
+        <v>30</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64">
+        <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="46">
+        <v>15</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="41">
+        <f>B9*10</f>
+        <v>150</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="P9" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="38">
+        <v>3</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="41">
+        <f>B10*5</f>
+        <v>15</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="80">
+        <f>SUM(D4:D17)</f>
+        <v>480</v>
+      </c>
+      <c r="J10" s="81"/>
+      <c r="K10" s="18"/>
+      <c r="P10" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="46">
+        <v>0</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="42">
+        <f>B11*C22</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="38">
+        <v>1</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="42">
+        <f>B12*150</f>
+        <v>150</v>
+      </c>
+      <c r="F12" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="72">
+        <f>SUM(B4:B17)</f>
+        <v>41</v>
+      </c>
+      <c r="J12" s="72"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="46">
+        <v>4</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="42">
+        <f>B13*5</f>
+        <v>20</v>
+      </c>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="38">
+        <v>0</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="42">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="46">
+        <v>0</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="37">
+        <f>B15*10</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="101"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="38">
+        <v>1</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="41">
+        <f>B16*5</f>
+        <v>5</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="100">
+        <v>0</v>
+      </c>
+      <c r="H16" s="100"/>
+      <c r="I16" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="46">
+        <v>2</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="41">
+        <f>B17*10</f>
+        <v>20</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="44"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="I23" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:B16">
+    <sortCondition ref="A4:A16"/>
+  </sortState>
+  <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:J3"/>
+    <mergeCell ref="F4:G6"/>
+    <mergeCell ref="H4:J6"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="H7:J8"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="F10:H11"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="F12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="G15:H15"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:J6" xr:uid="{8B3E2138-7F7E-4A6D-8305-90FC4044B8AA}">
+      <formula1>$A$4:$A$17</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D8 D6 D16" formula="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3395A235-ABE0-4668-B98B-924F2DA0C2C2}">
+  <dimension ref="A1:S23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+    </row>
+    <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="41">
+        <f>B4*50</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="86"/>
+      <c r="H4" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="92"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="46">
+        <v>2</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41">
+        <f>B5*10</f>
+        <v>20</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="38">
+        <v>1</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="41">
+        <f>B6*25</f>
+        <v>25</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="46">
+        <v>0</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="41">
+        <f>B7*10</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="64">
+        <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="66">
+        <f>SUMIF(A4:A17,H4,B4:B17)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="38">
+        <v>2</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="41">
+        <f>B8*5</f>
+        <v>10</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64">
+        <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="46">
+        <v>3</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="41">
+        <f>B9*10</f>
+        <v>30</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="P9" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="41">
+        <f>B10*5</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="80">
+        <f>SUM(D4:D17)</f>
+        <v>105</v>
+      </c>
+      <c r="J10" s="81"/>
+      <c r="K10" s="18"/>
+      <c r="P10" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="42">
+        <f>B11*C22</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="42">
+        <f>B12*150</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="72">
+        <f>SUM(B4:B17)</f>
+        <v>10</v>
+      </c>
+      <c r="J12" s="72"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="42">
+        <f>B13*5</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="42">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="37">
+        <f>B15*10</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="101"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="41">
+        <f>B16*5</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="100">
+        <v>20</v>
+      </c>
+      <c r="H16" s="100"/>
+      <c r="I16" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="46">
+        <v>2</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="41">
+        <f>B17*10</f>
+        <v>20</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="44"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="I23" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:J3"/>
+    <mergeCell ref="F4:G6"/>
+    <mergeCell ref="H4:J6"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="H7:J8"/>
+    <mergeCell ref="F10:H11"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="F12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="G15:H15"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:J6" xr:uid="{B6D84412-A609-49FA-A91A-AF54837B5C99}">
+      <formula1>$A$4:$A$17</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7B6F8F-80EF-45A4-8662-DC3F0B83DB0E}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="D1" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="51">
+        <f>Janeiro!H8</f>
+        <v>120</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="50">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="54">
+        <f>Fevereiro!I9</f>
+        <v>150</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="53">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="51">
+        <f>Março!I9</f>
+        <v>220</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="54">
+        <v>250</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="53">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="52">
+        <v>390</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="50">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="55">
+        <v>480</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="52">
+        <v>0</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="55">
+        <v>0</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="52">
+        <v>0</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="55">
+        <v>0</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="53">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="52">
+        <v>0</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="55">
+        <v>0</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="49">
+        <f>SUM(B2:B13)</f>
+        <v>1610</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="50">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="46">
+        <f>SUM(E2:E15)</f>
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D14">
+    <sortCondition ref="D2:D14"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Planilha_de_Negocios.xlsx
+++ b/Planilha_de_Negocios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Helena\Desktop\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5E86B2-67A7-4BF1-AD51-DF2A50ABC6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833C840C-55F4-4AB8-82EC-C8E74B0A6300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="6" xr2:uid="{B93EFE28-CC56-4C9F-AA0A-2D1B24DC53D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="7" xr2:uid="{B93EFE28-CC56-4C9F-AA0A-2D1B24DC53D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="Maio - Cyber" sheetId="6" r:id="rId5"/>
     <sheet name="Junho - Cyber" sheetId="7" r:id="rId6"/>
     <sheet name="Julho - Cyber" sheetId="9" r:id="rId7"/>
-    <sheet name="Lucros do Período 2024" sheetId="8" r:id="rId8"/>
+    <sheet name="Agosto - Cyber" sheetId="10" r:id="rId8"/>
+    <sheet name="Lucros do Período 2024" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -148,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="71">
   <si>
     <t>PLANILHA DE NEGÓCIOS</t>
   </si>
@@ -355,6 +356,12 @@
   </si>
   <si>
     <t>Imã</t>
+  </si>
+  <si>
+    <t>50 do bagulin</t>
+  </si>
+  <si>
+    <t>AGOSTO</t>
   </si>
 </sst>
 </file>
@@ -866,7 +873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1019,6 +1026,12 @@
     <xf numFmtId="44" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1028,10 +1041,7 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="12" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1046,16 +1056,10 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1121,6 +1125,9 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="4" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1128,6 +1135,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1471,6 +1482,444 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>VENDA POR</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> PRODUTO</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Lucros do Período 2024'!$D$2:$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Adesivo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Camiseta R$ 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Camiseta R$ 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Caneca R$ 10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Caneca R$ 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cartão de Visita</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ima</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Logo</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Manutenção</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Medida</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Panfleto</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Taça</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Toalha</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Tag</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Lucros do Período 2024'!$E$2:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B1C9-465C-9407-ADA96D076197}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="1713966416"/>
+        <c:axId val="1713974096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1713966416"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1713974096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1713974096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1713966416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -4741,16 +5190,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -4918,6 +5367,444 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Desempenho AGOSTO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> 2024</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Agosto - Cyber'!$A$4:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Logo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Adesivo</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C. Visita</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Camiseta - R$ 10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Camiseta - R$ 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Caneca - R$ 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Caneca - R$ 5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Imã</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Manutenção</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Medida</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Panfleto</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Taça</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Toalha</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Tag</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Agosto - Cyber'!$B$4:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9FA3-48EC-9B0A-AE92E892280E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="1713961616"/>
+        <c:axId val="1713989936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1713961616"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1713989936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1713989936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1713961616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -5176,7 +6063,7 @@
                   <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -5343,444 +6230,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="106"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="6"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-BR"/>
-              <a:t>VENDA POR</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" baseline="0"/>
-              <a:t> PRODUTO</a:t>
-            </a:r>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Lucros do Período 2024'!$D$2:$D$15</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>Adesivo</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Camiseta R$ 10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Camiseta R$ 5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Caneca R$ 10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Caneca R$ 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Cartão de Visita</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ima</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Logo</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Manutenção</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Medida</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Panfleto</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Taça</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Toalha</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Tag</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Lucros do Período 2024'!$E$2:$E$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B1C9-465C-9407-ADA96D076197}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="115"/>
-        <c:overlap val="-20"/>
-        <c:axId val="1713966416"/>
-        <c:axId val="1713974096"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1713966416"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1713974096"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1713974096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="t"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1713966416"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5818,6 +6267,12 @@
     <a:lumMod val="50000"/>
     <a:lumOff val="50000"/>
   </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
+  <a:schemeClr val="accent4"/>
 </cs:colorStyle>
 </file>
 
@@ -6062,8 +6517,42 @@
 </file>
 
 <file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -6074,6 +6563,502 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10980,6 +11965,49 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F20F629D-EFF8-40F1-A28B-14AC3B8CAEF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>142874</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -11658,13 +12686,13 @@
       <c r="C2" s="59"/>
       <c r="D2" s="59"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -11680,11 +12708,11 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
       <c r="K3" s="14"/>
       <c r="L3" s="62"/>
       <c r="M3" s="62"/>
@@ -11708,11 +12736,11 @@
         <v>21</v>
       </c>
       <c r="G4" s="64"/>
-      <c r="H4" s="66" t="s">
+      <c r="H4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
       <c r="K4" s="1"/>
       <c r="L4" s="62"/>
       <c r="M4" s="62"/>
@@ -11734,9 +12762,9 @@
       <c r="E5" s="12"/>
       <c r="F5" s="64"/>
       <c r="G5" s="64"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="1"/>
       <c r="L5" s="62"/>
       <c r="M5" s="62"/>
@@ -11763,12 +12791,12 @@
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>4</v>
       </c>
-      <c r="H6" s="66">
+      <c r="H6" s="68">
         <f>SUMIF(A4:A11,H4,B4:B11)</f>
         <v>8</v>
       </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
       <c r="K6" s="1"/>
       <c r="L6" s="62"/>
       <c r="M6" s="62"/>
@@ -11796,9 +12824,9 @@
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>2</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
       <c r="K7" s="1"/>
       <c r="L7" s="62"/>
       <c r="M7" s="62"/>
@@ -11840,16 +12868,16 @@
         <v>10</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="69" t="s">
+      <c r="F9" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="70">
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="67">
         <f>SUM(D4:D11)</f>
         <v>150</v>
       </c>
-      <c r="J9" s="70"/>
+      <c r="J9" s="67"/>
       <c r="K9" s="18"/>
       <c r="P9" s="19" t="s">
         <v>11</v>
@@ -11870,11 +12898,11 @@
         <v>10</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11896,18 +12924,18 @@
       </c>
       <c r="G11" s="64"/>
       <c r="H11" s="64"/>
-      <c r="I11" s="66">
+      <c r="I11" s="68">
         <f>SUM(B4:B11)</f>
         <v>18</v>
       </c>
-      <c r="J11" s="66"/>
+      <c r="J11" s="68"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="64"/>
       <c r="G12" s="64"/>
       <c r="H12" s="64"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
@@ -12028,11 +13056,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="L3:M7"/>
-    <mergeCell ref="F9:H10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="H4:J5"/>
-    <mergeCell ref="H6:J7"/>
     <mergeCell ref="F11:H12"/>
     <mergeCell ref="I11:J12"/>
     <mergeCell ref="F2:J3"/>
@@ -12040,6 +13063,11 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F4:G5"/>
     <mergeCell ref="F6:G7"/>
+    <mergeCell ref="L3:M7"/>
+    <mergeCell ref="F9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="H4:J5"/>
+    <mergeCell ref="H6:J7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4" xr:uid="{5D443FD3-8CE9-4AAE-8305-8CB39A6BEDA1}">
@@ -12084,20 +13112,20 @@
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -12113,18 +13141,18 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
       <c r="K3" s="14"/>
       <c r="L3" s="62"/>
       <c r="M3" s="62"/>
-      <c r="O3" s="73" t="s">
+      <c r="O3" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="74"/>
+      <c r="P3" s="75"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -12145,11 +13173,11 @@
         <v>21</v>
       </c>
       <c r="G4" s="64"/>
-      <c r="H4" s="66" t="s">
+      <c r="H4" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
       <c r="K4" s="1"/>
       <c r="L4" s="62"/>
       <c r="M4" s="62"/>
@@ -12177,9 +13205,9 @@
       <c r="E5" s="12"/>
       <c r="F5" s="64"/>
       <c r="G5" s="64"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="1"/>
       <c r="L5" s="62"/>
       <c r="M5" s="62"/>
@@ -12212,12 +13240,12 @@
         <f>SUMIF(A4:A10,"Medidas",B4:B10)</f>
         <v>12</v>
       </c>
-      <c r="H6" s="66">
+      <c r="H6" s="68">
         <f>SUMIF(A4:A10,H4,B4:B10)</f>
         <v>1</v>
       </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
       <c r="K6" s="1"/>
       <c r="L6" s="62"/>
       <c r="M6" s="62"/>
@@ -12248,9 +13276,9 @@
         <f>SUMIF(A4:A10,"Taça",B4:B10)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
       <c r="K7" s="1"/>
       <c r="L7" s="62"/>
       <c r="M7" s="62"/>
@@ -12282,16 +13310,16 @@
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="12"/>
-      <c r="F9" s="69" t="s">
+      <c r="F9" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="71">
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="72">
         <f>SUM(D4:D10)</f>
         <v>220</v>
       </c>
-      <c r="J9" s="71"/>
+      <c r="J9" s="72"/>
       <c r="K9" s="18"/>
       <c r="P9" s="19" t="s">
         <v>11</v>
@@ -12303,11 +13331,11 @@
       <c r="C10" s="20"/>
       <c r="D10" s="27"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12320,11 +13348,11 @@
       </c>
       <c r="G11" s="64"/>
       <c r="H11" s="64"/>
-      <c r="I11" s="72">
+      <c r="I11" s="73">
         <f>SUM(B4:B8)</f>
         <v>39</v>
       </c>
-      <c r="J11" s="72"/>
+      <c r="J11" s="73"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
@@ -12334,8 +13362,8 @@
       <c r="F12" s="64"/>
       <c r="G12" s="64"/>
       <c r="H12" s="64"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -12538,6 +13566,11 @@
     <sortCondition ref="I15:I19"/>
   </sortState>
   <mergeCells count="13">
+    <mergeCell ref="F9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="F11:H12"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="O3:P3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:J3"/>
@@ -12546,11 +13579,6 @@
     <mergeCell ref="H4:J5"/>
     <mergeCell ref="F6:G7"/>
     <mergeCell ref="H6:J7"/>
-    <mergeCell ref="F9:H10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="F11:H12"/>
-    <mergeCell ref="I11:J12"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:J5" xr:uid="{1712CE09-04EB-4B0D-B24B-941F4E27AD59}">
@@ -12596,20 +13624,20 @@
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -12625,20 +13653,20 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
       <c r="K3" s="14"/>
       <c r="L3" s="62"/>
       <c r="M3" s="62"/>
-      <c r="O3" s="77" t="s">
+      <c r="O3" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -12656,11 +13684,11 @@
         <v>21</v>
       </c>
       <c r="G4" s="64"/>
-      <c r="H4" s="66" t="s">
+      <c r="H4" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
       <c r="K4" s="1"/>
       <c r="L4" s="62"/>
       <c r="M4" s="62"/>
@@ -12692,9 +13720,9 @@
       <c r="E5" s="12"/>
       <c r="F5" s="64"/>
       <c r="G5" s="64"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="1"/>
       <c r="L5" s="62"/>
       <c r="M5" s="62"/>
@@ -12723,12 +13751,12 @@
         <f>SUMIF(A4:A10,"Medidas",B4:B10)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="66">
+      <c r="H6" s="68">
         <f>SUMIF(A4:A10,H4,B4:B10)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
       <c r="K6" s="1"/>
       <c r="L6" s="62"/>
       <c r="M6" s="62"/>
@@ -12757,9 +13785,9 @@
         <f>SUMIF(A4:A10,"Taça",B4:B10)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
       <c r="K7" s="1"/>
       <c r="L7" s="62"/>
       <c r="M7" s="62"/>
@@ -12800,16 +13828,16 @@
         <v>10</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="69" t="s">
+      <c r="F9" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="71">
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="72">
         <f>SUM(D4:D11)</f>
         <v>250</v>
       </c>
-      <c r="J9" s="71"/>
+      <c r="J9" s="72"/>
       <c r="K9" s="18"/>
       <c r="P9" s="19" t="s">
         <v>11</v>
@@ -12828,11 +13856,11 @@
         <v>5</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12851,11 +13879,11 @@
       </c>
       <c r="G11" s="64"/>
       <c r="H11" s="64"/>
-      <c r="I11" s="72">
+      <c r="I11" s="73">
         <f>SUM(B4:B11)</f>
         <v>16</v>
       </c>
-      <c r="J11" s="72"/>
+      <c r="J11" s="73"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
@@ -12865,8 +13893,8 @@
       <c r="F12" s="64"/>
       <c r="G12" s="64"/>
       <c r="H12" s="64"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -13082,11 +14110,6 @@
     <sortCondition ref="I15:I22"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="F9:H10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="F11:H12"/>
-    <mergeCell ref="I11:J12"/>
-    <mergeCell ref="O3:R3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:J3"/>
@@ -13095,6 +14118,11 @@
     <mergeCell ref="H4:J5"/>
     <mergeCell ref="F6:G7"/>
     <mergeCell ref="H6:J7"/>
+    <mergeCell ref="F9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="F11:H12"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="O3:R3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:J5" xr:uid="{EFDB1DE4-63DB-4F29-A62D-0BEC172F0B37}">
@@ -13130,29 +14158,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -13168,11 +14196,11 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
       <c r="K3" s="14"/>
       <c r="L3" s="62"/>
       <c r="M3" s="62"/>
@@ -13190,15 +14218,15 @@
         <v>0</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="85" t="s">
+      <c r="F4" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="86"/>
-      <c r="H4" s="91" t="s">
+      <c r="G4" s="85"/>
+      <c r="H4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="92"/>
-      <c r="J4" s="93"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="92"/>
       <c r="K4" s="1"/>
       <c r="L4" s="62"/>
       <c r="M4" s="62"/>
@@ -13216,11 +14244,11 @@
         <v>60</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="96"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="95"/>
       <c r="K5" s="1"/>
       <c r="L5" s="62"/>
       <c r="M5" s="62"/>
@@ -13238,11 +14266,11 @@
         <v>25</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="99"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="98"/>
       <c r="K6" s="1"/>
       <c r="L6" s="62"/>
       <c r="M6" s="62"/>
@@ -13267,12 +14295,12 @@
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="66">
+      <c r="H7" s="68">
         <f>SUMIF(A4:A15,H4,B4:B15)</f>
         <v>3</v>
       </c>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
       <c r="K7" s="1"/>
       <c r="L7" s="62"/>
       <c r="M7" s="62"/>
@@ -13295,9 +14323,9 @@
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
       <c r="K8" s="1"/>
       <c r="L8" s="62"/>
       <c r="M8" s="62"/>
@@ -13332,16 +14360,16 @@
         <v>45</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="79" t="s">
+      <c r="F10" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="80">
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="79">
         <f>SUM(D4:D15)</f>
         <v>390</v>
       </c>
-      <c r="J10" s="81"/>
+      <c r="J10" s="80"/>
       <c r="K10" s="18"/>
       <c r="P10" s="19" t="s">
         <v>11</v>
@@ -13360,11 +14388,11 @@
         <v>0</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="83"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="82"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13378,16 +14406,16 @@
       <c r="D12" s="42">
         <v>150</v>
       </c>
-      <c r="F12" s="84" t="s">
+      <c r="F12" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="72">
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="73">
         <f>SUM(B4:B15)</f>
         <v>35</v>
       </c>
-      <c r="J12" s="72"/>
+      <c r="J12" s="73"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="46" t="s">
@@ -13400,11 +14428,11 @@
       <c r="D13" s="42">
         <v>20</v>
       </c>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -13632,18 +14660,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:J3"/>
+    <mergeCell ref="L3:M8"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="H7:J8"/>
     <mergeCell ref="F10:H11"/>
     <mergeCell ref="I10:J11"/>
     <mergeCell ref="F12:H13"/>
     <mergeCell ref="I12:J13"/>
     <mergeCell ref="F4:G6"/>
     <mergeCell ref="H4:J6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:J3"/>
-    <mergeCell ref="L3:M8"/>
-    <mergeCell ref="F7:G8"/>
-    <mergeCell ref="H7:J8"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:J6" xr:uid="{FF44085E-1C04-4ECF-B70C-29C4C7DECF28}">
@@ -13679,29 +14707,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -13717,11 +14745,11 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
       <c r="K3" s="14"/>
       <c r="L3" s="47"/>
       <c r="M3" s="47"/>
@@ -13739,15 +14767,15 @@
         <v>0</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="85" t="s">
+      <c r="F4" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="86"/>
-      <c r="H4" s="91" t="s">
+      <c r="G4" s="85"/>
+      <c r="H4" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="92"/>
-      <c r="J4" s="93"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="92"/>
       <c r="K4" s="1"/>
       <c r="L4" s="47"/>
       <c r="M4" s="47"/>
@@ -13765,11 +14793,11 @@
         <v>0</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="96"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="95"/>
       <c r="K5" s="1"/>
       <c r="L5" s="47"/>
       <c r="M5" s="47"/>
@@ -13787,11 +14815,11 @@
         <v>0</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="99"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="98"/>
       <c r="K6" s="1"/>
       <c r="L6" s="47"/>
       <c r="M6" s="47"/>
@@ -13816,12 +14844,12 @@
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="66">
+      <c r="H7" s="68">
         <f>SUMIF(A4:A17,H4,B4:B17)</f>
         <v>2</v>
       </c>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
       <c r="K7" s="1"/>
       <c r="L7" s="47"/>
       <c r="M7" s="47"/>
@@ -13844,9 +14872,9 @@
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
       <c r="K8" s="1"/>
       <c r="L8" s="47"/>
       <c r="M8" s="47"/>
@@ -13881,16 +14909,16 @@
         <v>15</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="79" t="s">
+      <c r="F10" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="80">
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="79">
         <f>SUM(D4:D17)</f>
         <v>480</v>
       </c>
-      <c r="J10" s="81"/>
+      <c r="J10" s="80"/>
       <c r="K10" s="18"/>
       <c r="P10" s="19" t="s">
         <v>11</v>
@@ -13909,11 +14937,11 @@
         <v>0</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="83"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="82"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13928,16 +14956,16 @@
         <f>B12*150</f>
         <v>150</v>
       </c>
-      <c r="F12" s="84" t="s">
+      <c r="F12" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="72">
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="73">
         <f>SUM(B4:B17)</f>
         <v>41</v>
       </c>
-      <c r="J12" s="72"/>
+      <c r="J12" s="73"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="46" t="s">
@@ -13951,11 +14979,11 @@
         <f>B13*5</f>
         <v>20</v>
       </c>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -14194,11 +15222,6 @@
     <sortCondition ref="A4:A16"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:J3"/>
-    <mergeCell ref="F4:G6"/>
-    <mergeCell ref="H4:J6"/>
     <mergeCell ref="F7:G8"/>
     <mergeCell ref="H7:J8"/>
     <mergeCell ref="G16:H16"/>
@@ -14207,6 +15230,11 @@
     <mergeCell ref="F12:H13"/>
     <mergeCell ref="I12:J13"/>
     <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:J3"/>
+    <mergeCell ref="F4:G6"/>
+    <mergeCell ref="H4:J6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:J6" xr:uid="{8B3E2138-7F7E-4A6D-8305-90FC4044B8AA}">
@@ -14226,8 +15254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3395A235-ABE0-4668-B98B-924F2DA0C2C2}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14245,29 +15273,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -14283,11 +15311,11 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
       <c r="K3" s="14"/>
       <c r="L3" s="47"/>
       <c r="M3" s="47"/>
@@ -14305,15 +15333,15 @@
         <v>0</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="85" t="s">
+      <c r="F4" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="86"/>
-      <c r="H4" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="92"/>
-      <c r="J4" s="93"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="91"/>
+      <c r="J4" s="92"/>
       <c r="K4" s="1"/>
       <c r="L4" s="47"/>
       <c r="M4" s="47"/>
@@ -14331,11 +15359,11 @@
         <v>20</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="96"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="95"/>
       <c r="K5" s="1"/>
       <c r="L5" s="47"/>
       <c r="M5" s="47"/>
@@ -14353,11 +15381,11 @@
         <v>25</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="99"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="98"/>
       <c r="K6" s="1"/>
       <c r="L6" s="47"/>
       <c r="M6" s="47"/>
@@ -14382,12 +15410,12 @@
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="66">
+      <c r="H7" s="68">
         <f>SUMIF(A4:A17,H4,B4:B17)</f>
-        <v>4</v>
-      </c>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
+        <v>2</v>
+      </c>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
       <c r="K7" s="1"/>
       <c r="L7" s="47"/>
       <c r="M7" s="47"/>
@@ -14410,9 +15438,9 @@
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
       <c r="K8" s="1"/>
       <c r="L8" s="47"/>
       <c r="M8" s="47"/>
@@ -14422,12 +15450,12 @@
         <v>39</v>
       </c>
       <c r="B9" s="46">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C9" s="39"/>
       <c r="D9" s="41">
         <f>B9*10</f>
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="E9" s="12"/>
       <c r="P9" s="19" t="s">
@@ -14439,24 +15467,24 @@
         <v>40</v>
       </c>
       <c r="B10" s="38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="38"/>
       <c r="D10" s="41">
         <f>B10*5</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="79" t="s">
+      <c r="F10" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="80">
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="79">
         <f>SUM(D4:D17)</f>
-        <v>295</v>
-      </c>
-      <c r="J10" s="81"/>
+        <v>420</v>
+      </c>
+      <c r="J10" s="80"/>
       <c r="K10" s="18"/>
       <c r="P10" s="19" t="s">
         <v>11</v>
@@ -14475,11 +15503,11 @@
         <v>0</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="83"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="82"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14487,23 +15515,22 @@
         <v>35</v>
       </c>
       <c r="B12" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="42">
-        <f>B12*150</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="72">
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="73">
         <f>SUM(B4:B17)</f>
-        <v>31</v>
-      </c>
-      <c r="J12" s="72"/>
+        <v>40</v>
+      </c>
+      <c r="J12" s="73"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="46" t="s">
@@ -14517,11 +15544,11 @@
         <f>B13*5</f>
         <v>0</v>
       </c>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -14595,7 +15622,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="20"/>
       <c r="G16" s="100">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="H16" s="100"/>
       <c r="I16" s="19" t="s">
@@ -14783,11 +15810,538 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FFC0C1-D11B-4240-9543-C529E6B5D835}">
+  <dimension ref="A1:S23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+    </row>
+    <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="84" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="85"/>
+      <c r="H4" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="91"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="46">
+        <v>0</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="38">
+        <v>0</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="46">
+        <v>1</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="41">
+        <f>B7*10</f>
+        <v>10</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="64">
+        <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="68">
+        <f>SUMIF(A4:A17,H4,B4:B17)</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="38">
+        <v>0</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64">
+        <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="46">
+        <v>1</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="41">
+        <f>B9*10</f>
+        <v>10</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="P9" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="38">
+        <v>0</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="79">
+        <f>SUM(D4:D17)</f>
+        <v>20</v>
+      </c>
+      <c r="J10" s="80"/>
+      <c r="K10" s="18"/>
+      <c r="P10" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="46">
+        <v>0</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="38">
+        <v>0</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="104"/>
+      <c r="F12" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="73">
+        <f>SUM(B4:B17)</f>
+        <v>2</v>
+      </c>
+      <c r="J12" s="73"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="46">
+        <v>0</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="42"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="38">
+        <v>0</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="46">
+        <v>0</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="101"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="38">
+        <v>0</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="100">
+        <v>50</v>
+      </c>
+      <c r="H16" s="100"/>
+      <c r="I16" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="46">
+        <v>0</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="41"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="44"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="I23" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:J3"/>
+    <mergeCell ref="F4:G6"/>
+    <mergeCell ref="H4:J6"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="H7:J8"/>
+    <mergeCell ref="F10:H11"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="F12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="G15:H15"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:J6" xr:uid="{C08CDEAD-E78B-42A7-988E-564DC875EEFF}">
+      <formula1>$A$4:$A$17</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7B6F8F-80EF-45A4-8662-DC3F0B83DB0E}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14902,7 +16456,7 @@
         <v>53</v>
       </c>
       <c r="B8" s="52">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="D8" s="50" t="s">
         <v>34</v>
@@ -14987,7 +16541,7 @@
       </c>
       <c r="B14" s="49">
         <f>SUM(B2:B13)</f>
-        <v>1610</v>
+        <v>2030</v>
       </c>
       <c r="D14" s="50" t="s">
         <v>11</v>

--- a/Planilha_de_Negocios.xlsx
+++ b/Planilha_de_Negocios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Helena\Desktop\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833C840C-55F4-4AB8-82EC-C8E74B0A6300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816E1F21-98A9-49DC-9B5E-8340520E5FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="7" xr2:uid="{B93EFE28-CC56-4C9F-AA0A-2D1B24DC53D6}"/>
   </bookViews>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="70">
   <si>
     <t>PLANILHA DE NEGÓCIOS</t>
   </si>
@@ -356,9 +356,6 @@
   </si>
   <si>
     <t>Imã</t>
-  </si>
-  <si>
-    <t>50 do bagulin</t>
   </si>
   <si>
     <t>AGOSTO</t>
@@ -1002,6 +999,7 @@
     <xf numFmtId="0" fontId="1" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1026,12 +1024,6 @@
     <xf numFmtId="44" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1041,7 +1033,10 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="12" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1056,10 +1051,16 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1125,9 +1126,6 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="4" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1137,10 +1135,7 @@
     <xf numFmtId="0" fontId="1" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="44" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -5622,16 +5617,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -12392,18 +12387,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -12418,18 +12413,18 @@
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
       <c r="J3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -12444,19 +12439,19 @@
       <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="61">
+      <c r="F4" s="62">
         <f>SUMIF(A4:A13,"Caneca",B4:B13)</f>
         <v>10</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="63">
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="64">
         <f>SUM(F4:I5)</f>
         <v>12</v>
       </c>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -12471,16 +12466,16 @@
       <c r="E5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="61">
+      <c r="F5" s="62">
         <f>SUMIF(A4:A13,"Toalha",B4:B13)</f>
         <v>2</v>
       </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -12492,8 +12487,8 @@
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -12508,8 +12503,8 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="8"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -12521,17 +12516,17 @@
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="E8" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="65">
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66">
         <v>120</v>
       </c>
-      <c r="I8" s="65"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
+      <c r="I8" s="66"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -12543,11 +12538,11 @@
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -12670,29 +12665,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -12708,14 +12703,14 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -12732,18 +12727,18 @@
         <v>20</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="64"/>
-      <c r="H4" s="68" t="s">
+      <c r="G4" s="65"/>
+      <c r="H4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -12760,14 +12755,14 @@
         <v>20</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -12784,22 +12779,22 @@
         <v>10</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="64">
+      <c r="G6" s="65">
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>4</v>
       </c>
-      <c r="H6" s="68">
+      <c r="H6" s="67">
         <f>SUMIF(A4:A11,H4,B4:B11)</f>
         <v>8</v>
       </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
       <c r="P6" s="19" t="s">
         <v>5</v>
       </c>
@@ -12819,17 +12814,17 @@
         <v>10</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64">
+      <c r="F7" s="65"/>
+      <c r="G7" s="65">
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>2</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
       <c r="P7" s="19" t="s">
         <v>13</v>
       </c>
@@ -12868,16 +12863,16 @@
         <v>10</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="66" t="s">
+      <c r="F9" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="67">
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="71">
         <f>SUM(D4:D11)</f>
         <v>150</v>
       </c>
-      <c r="J9" s="67"/>
+      <c r="J9" s="71"/>
       <c r="K9" s="18"/>
       <c r="P9" s="19" t="s">
         <v>11</v>
@@ -12898,11 +12893,11 @@
         <v>10</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12919,23 +12914,23 @@
         <f>10*B11</f>
         <v>50</v>
       </c>
-      <c r="F11" s="64" t="s">
+      <c r="F11" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="68">
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="67">
         <f>SUM(B4:B11)</f>
         <v>18</v>
       </c>
-      <c r="J11" s="68"/>
+      <c r="J11" s="67"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
@@ -13056,6 +13051,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="L3:M7"/>
+    <mergeCell ref="F9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="H4:J5"/>
+    <mergeCell ref="H6:J7"/>
     <mergeCell ref="F11:H12"/>
     <mergeCell ref="I11:J12"/>
     <mergeCell ref="F2:J3"/>
@@ -13063,11 +13063,6 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F4:G5"/>
     <mergeCell ref="F6:G7"/>
-    <mergeCell ref="L3:M7"/>
-    <mergeCell ref="F9:H10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="H4:J5"/>
-    <mergeCell ref="H6:J7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4" xr:uid="{5D443FD3-8CE9-4AAE-8305-8CB39A6BEDA1}">
@@ -13103,29 +13098,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -13141,14 +13136,14 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
       <c r="O3" s="74" t="s">
         <v>24</v>
       </c>
@@ -13169,18 +13164,18 @@
         <v>60</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="64"/>
-      <c r="H4" s="68" t="s">
+      <c r="G4" s="65"/>
+      <c r="H4" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
       <c r="O4" s="21" t="s">
         <v>5</v>
       </c>
@@ -13203,14 +13198,14 @@
         <v>40</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
       <c r="O5" s="23" t="s">
         <v>25</v>
       </c>
@@ -13233,22 +13228,22 @@
         <v>100</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="64">
+      <c r="G6" s="65">
         <f>SUMIF(A4:A10,"Medidas",B4:B10)</f>
         <v>12</v>
       </c>
-      <c r="H6" s="68">
+      <c r="H6" s="67">
         <f>SUMIF(A4:A10,H4,B4:B10)</f>
         <v>1</v>
       </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
       <c r="O6" s="21" t="s">
         <v>19</v>
       </c>
@@ -13271,17 +13266,17 @@
         <v>10</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64">
+      <c r="F7" s="65"/>
+      <c r="G7" s="65">
         <f>SUMIF(A4:A10,"Taça",B4:B10)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
       <c r="O7" s="23" t="s">
         <v>11</v>
       </c>
@@ -13310,11 +13305,11 @@
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="12"/>
-      <c r="F9" s="66" t="s">
+      <c r="F9" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
       <c r="I9" s="72">
         <f>SUM(D4:D10)</f>
         <v>220</v>
@@ -13331,9 +13326,9 @@
       <c r="C10" s="20"/>
       <c r="D10" s="27"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
       <c r="I10" s="72"/>
       <c r="J10" s="72"/>
       <c r="K10" s="18"/>
@@ -13343,11 +13338,11 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="F11" s="64" t="s">
+      <c r="F11" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
       <c r="I11" s="73">
         <f>SUM(B4:B8)</f>
         <v>39</v>
@@ -13359,9 +13354,9 @@
       <c r="B12" s="20"/>
       <c r="C12" s="8"/>
       <c r="D12" s="28"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
       <c r="I12" s="73"/>
       <c r="J12" s="73"/>
     </row>
@@ -13566,11 +13561,6 @@
     <sortCondition ref="I15:I19"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="F9:H10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="F11:H12"/>
-    <mergeCell ref="I11:J12"/>
-    <mergeCell ref="O3:P3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:J3"/>
@@ -13579,6 +13569,11 @@
     <mergeCell ref="H4:J5"/>
     <mergeCell ref="F6:G7"/>
     <mergeCell ref="H6:J7"/>
+    <mergeCell ref="F9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="F11:H12"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:J5" xr:uid="{1712CE09-04EB-4B0D-B24B-941F4E27AD59}">
@@ -13615,12 +13610,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13631,13 +13626,13 @@
       <c r="C2" s="77"/>
       <c r="D2" s="77"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -13653,20 +13648,20 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="O3" s="76" t="s">
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="O3" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -13680,18 +13675,18 @@
         <v>50</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="64"/>
-      <c r="H4" s="68" t="s">
+      <c r="G4" s="65"/>
+      <c r="H4" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
       <c r="O4" s="33" t="s">
         <v>5</v>
       </c>
@@ -13718,14 +13713,14 @@
         <v>60</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
       <c r="O5" s="30" t="s">
         <v>25</v>
       </c>
@@ -13744,22 +13739,22 @@
         <v>0</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="64">
+      <c r="G6" s="65">
         <f>SUMIF(A4:A10,"Medidas",B4:B10)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="68">
+      <c r="H6" s="67">
         <f>SUMIF(A4:A10,H4,B4:B10)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
       <c r="O6" s="33" t="s">
         <v>19</v>
       </c>
@@ -13780,17 +13775,17 @@
         <v>10</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64">
+      <c r="F7" s="65"/>
+      <c r="G7" s="65">
         <f>SUMIF(A4:A10,"Taça",B4:B10)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
       <c r="O7" s="30" t="s">
         <v>11</v>
       </c>
@@ -13828,11 +13823,11 @@
         <v>10</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="66" t="s">
+      <c r="F9" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
       <c r="I9" s="72">
         <f>SUM(D4:D11)</f>
         <v>250</v>
@@ -13856,9 +13851,9 @@
         <v>5</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
       <c r="I10" s="72"/>
       <c r="J10" s="72"/>
       <c r="K10" s="18"/>
@@ -13874,11 +13869,11 @@
       <c r="D11" s="34">
         <v>100</v>
       </c>
-      <c r="F11" s="64" t="s">
+      <c r="F11" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
       <c r="I11" s="73">
         <f>SUM(B4:B11)</f>
         <v>16</v>
@@ -13890,9 +13885,9 @@
       <c r="B12" s="20"/>
       <c r="C12" s="8"/>
       <c r="D12" s="28"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
       <c r="I12" s="73"/>
       <c r="J12" s="73"/>
     </row>
@@ -14110,6 +14105,11 @@
     <sortCondition ref="I15:I22"/>
   </sortState>
   <mergeCells count="13">
+    <mergeCell ref="F9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="F11:H12"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="O3:R3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:J3"/>
@@ -14118,11 +14118,6 @@
     <mergeCell ref="H4:J5"/>
     <mergeCell ref="F6:G7"/>
     <mergeCell ref="H6:J7"/>
-    <mergeCell ref="F9:H10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="F11:H12"/>
-    <mergeCell ref="I11:J12"/>
-    <mergeCell ref="O3:R3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:J5" xr:uid="{EFDB1DE4-63DB-4F29-A62D-0BEC172F0B37}">
@@ -14158,12 +14153,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14174,13 +14169,13 @@
       <c r="C2" s="77"/>
       <c r="D2" s="77"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -14196,14 +14191,14 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -14218,18 +14213,18 @@
         <v>0</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="84" t="s">
+      <c r="F4" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="85"/>
-      <c r="H4" s="90" t="s">
+      <c r="G4" s="87"/>
+      <c r="H4" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="91"/>
-      <c r="J4" s="92"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="94"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
@@ -14244,14 +14239,14 @@
         <v>60</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="95"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="97"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
@@ -14266,14 +14261,14 @@
         <v>25</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="98"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="100"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
@@ -14288,22 +14283,22 @@
         <v>0</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="64">
+      <c r="G7" s="65">
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="67">
         <f>SUMIF(A4:A15,H4,B4:B15)</f>
         <v>3</v>
       </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
@@ -14318,17 +14313,17 @@
         <v>15</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64">
+      <c r="F8" s="65"/>
+      <c r="G8" s="65">
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="46" t="s">
@@ -14360,16 +14355,16 @@
         <v>45</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="78" t="s">
+      <c r="F10" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="79">
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="81">
         <f>SUM(D4:D15)</f>
         <v>390</v>
       </c>
-      <c r="J10" s="80"/>
+      <c r="J10" s="82"/>
       <c r="K10" s="18"/>
       <c r="P10" s="19" t="s">
         <v>11</v>
@@ -14388,11 +14383,11 @@
         <v>0</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="82"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="84"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14406,11 +14401,11 @@
       <c r="D12" s="42">
         <v>150</v>
       </c>
-      <c r="F12" s="83" t="s">
+      <c r="F12" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
       <c r="I12" s="73">
         <f>SUM(B4:B15)</f>
         <v>35</v>
@@ -14428,9 +14423,9 @@
       <c r="D13" s="42">
         <v>20</v>
       </c>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
       <c r="I13" s="73"/>
       <c r="J13" s="73"/>
     </row>
@@ -14660,18 +14655,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F10:H11"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="F12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="F4:G6"/>
+    <mergeCell ref="H4:J6"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:J3"/>
     <mergeCell ref="L3:M8"/>
     <mergeCell ref="F7:G8"/>
     <mergeCell ref="H7:J8"/>
-    <mergeCell ref="F10:H11"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="F12:H13"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="F4:G6"/>
-    <mergeCell ref="H4:J6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:J6" xr:uid="{FF44085E-1C04-4ECF-B70C-29C4C7DECF28}">
@@ -14707,12 +14702,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14723,13 +14718,13 @@
       <c r="C2" s="77"/>
       <c r="D2" s="77"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -14745,11 +14740,11 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
       <c r="K3" s="14"/>
       <c r="L3" s="47"/>
       <c r="M3" s="47"/>
@@ -14767,15 +14762,15 @@
         <v>0</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="84" t="s">
+      <c r="F4" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="85"/>
-      <c r="H4" s="90" t="s">
+      <c r="G4" s="87"/>
+      <c r="H4" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="91"/>
-      <c r="J4" s="92"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="94"/>
       <c r="K4" s="1"/>
       <c r="L4" s="47"/>
       <c r="M4" s="47"/>
@@ -14793,11 +14788,11 @@
         <v>0</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="95"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="97"/>
       <c r="K5" s="1"/>
       <c r="L5" s="47"/>
       <c r="M5" s="47"/>
@@ -14815,11 +14810,11 @@
         <v>0</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="98"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="100"/>
       <c r="K6" s="1"/>
       <c r="L6" s="47"/>
       <c r="M6" s="47"/>
@@ -14837,19 +14832,19 @@
         <v>90</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="64">
+      <c r="G7" s="65">
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="67">
         <f>SUMIF(A4:A17,H4,B4:B17)</f>
         <v>2</v>
       </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
       <c r="K7" s="1"/>
       <c r="L7" s="47"/>
       <c r="M7" s="47"/>
@@ -14867,14 +14862,14 @@
         <v>30</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64">
+      <c r="F8" s="65"/>
+      <c r="G8" s="65">
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
       <c r="K8" s="1"/>
       <c r="L8" s="47"/>
       <c r="M8" s="47"/>
@@ -14909,16 +14904,16 @@
         <v>15</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="78" t="s">
+      <c r="F10" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="79">
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="81">
         <f>SUM(D4:D17)</f>
         <v>480</v>
       </c>
-      <c r="J10" s="80"/>
+      <c r="J10" s="82"/>
       <c r="K10" s="18"/>
       <c r="P10" s="19" t="s">
         <v>11</v>
@@ -14937,11 +14932,11 @@
         <v>0</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="82"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="84"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14956,11 +14951,11 @@
         <f>B12*150</f>
         <v>150</v>
       </c>
-      <c r="F12" s="83" t="s">
+      <c r="F12" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
       <c r="I12" s="73">
         <f>SUM(B4:B17)</f>
         <v>41</v>
@@ -14979,9 +14974,9 @@
         <f>B13*5</f>
         <v>20</v>
       </c>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
       <c r="I13" s="73"/>
       <c r="J13" s="73"/>
     </row>
@@ -15026,10 +15021,10 @@
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="101" t="s">
+      <c r="G15" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="101"/>
+      <c r="H15" s="102"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -15056,10 +15051,10 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="100">
+      <c r="G16" s="101">
         <v>0</v>
       </c>
-      <c r="H16" s="100"/>
+      <c r="H16" s="101"/>
       <c r="I16" s="19" t="s">
         <v>32</v>
       </c>
@@ -15222,6 +15217,11 @@
     <sortCondition ref="A4:A16"/>
   </sortState>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:J3"/>
+    <mergeCell ref="F4:G6"/>
+    <mergeCell ref="H4:J6"/>
     <mergeCell ref="F7:G8"/>
     <mergeCell ref="H7:J8"/>
     <mergeCell ref="G16:H16"/>
@@ -15230,11 +15230,6 @@
     <mergeCell ref="F12:H13"/>
     <mergeCell ref="I12:J13"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:J3"/>
-    <mergeCell ref="F4:G6"/>
-    <mergeCell ref="H4:J6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:J6" xr:uid="{8B3E2138-7F7E-4A6D-8305-90FC4044B8AA}">
@@ -15255,7 +15250,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15273,12 +15268,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15289,13 +15284,13 @@
       <c r="C2" s="77"/>
       <c r="D2" s="77"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -15311,11 +15306,11 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
       <c r="K3" s="14"/>
       <c r="L3" s="47"/>
       <c r="M3" s="47"/>
@@ -15333,15 +15328,15 @@
         <v>0</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="84" t="s">
+      <c r="F4" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="85"/>
-      <c r="H4" s="90" t="s">
+      <c r="G4" s="87"/>
+      <c r="H4" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="91"/>
-      <c r="J4" s="92"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="94"/>
       <c r="K4" s="1"/>
       <c r="L4" s="47"/>
       <c r="M4" s="47"/>
@@ -15359,11 +15354,11 @@
         <v>20</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="95"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="97"/>
       <c r="K5" s="1"/>
       <c r="L5" s="47"/>
       <c r="M5" s="47"/>
@@ -15381,11 +15376,11 @@
         <v>25</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="98"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="100"/>
       <c r="K6" s="1"/>
       <c r="L6" s="47"/>
       <c r="M6" s="47"/>
@@ -15403,19 +15398,19 @@
         <v>60</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="64">
+      <c r="G7" s="65">
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="67">
         <f>SUMIF(A4:A17,H4,B4:B17)</f>
         <v>2</v>
       </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
       <c r="K7" s="1"/>
       <c r="L7" s="47"/>
       <c r="M7" s="47"/>
@@ -15433,14 +15428,14 @@
         <v>10</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64">
+      <c r="F8" s="65"/>
+      <c r="G8" s="65">
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
       <c r="K8" s="1"/>
       <c r="L8" s="47"/>
       <c r="M8" s="47"/>
@@ -15475,16 +15470,16 @@
         <v>25</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="78" t="s">
+      <c r="F10" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="79">
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="81">
         <f>SUM(D4:D17)</f>
         <v>420</v>
       </c>
-      <c r="J10" s="80"/>
+      <c r="J10" s="82"/>
       <c r="K10" s="18"/>
       <c r="P10" s="19" t="s">
         <v>11</v>
@@ -15503,11 +15498,11 @@
         <v>0</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="82"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="84"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15521,11 +15516,11 @@
       <c r="D12" s="42">
         <v>50</v>
       </c>
-      <c r="F12" s="83" t="s">
+      <c r="F12" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
       <c r="I12" s="73">
         <f>SUM(B4:B17)</f>
         <v>40</v>
@@ -15544,9 +15539,9 @@
         <f>B13*5</f>
         <v>0</v>
       </c>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
       <c r="I13" s="73"/>
       <c r="J13" s="73"/>
     </row>
@@ -15591,10 +15586,10 @@
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="101" t="s">
+      <c r="G15" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="101"/>
+      <c r="H15" s="102"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -15621,10 +15616,10 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="100">
+      <c r="G16" s="101">
         <v>0</v>
       </c>
-      <c r="H16" s="100"/>
+      <c r="H16" s="101"/>
       <c r="I16" s="19" t="s">
         <v>32</v>
       </c>
@@ -15814,7 +15809,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:J6"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15824,7 +15819,7 @@
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="3.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.85546875" customWidth="1"/>
     <col min="13" max="13" width="4.5703125" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -15832,29 +15827,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
       <c r="D2" s="77"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -15870,11 +15865,11 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
       <c r="K3" s="14"/>
       <c r="L3" s="47"/>
       <c r="M3" s="47"/>
@@ -15887,17 +15882,17 @@
         <v>0</v>
       </c>
       <c r="C4" s="26"/>
-      <c r="D4" s="103"/>
+      <c r="D4" s="104"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="84" t="s">
+      <c r="F4" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="85"/>
-      <c r="H4" s="90" t="s">
+      <c r="G4" s="87"/>
+      <c r="H4" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="91"/>
-      <c r="J4" s="92"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="94"/>
       <c r="K4" s="1"/>
       <c r="L4" s="47"/>
       <c r="M4" s="47"/>
@@ -15910,13 +15905,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
+      <c r="D5" s="104"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="95"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="97"/>
       <c r="K5" s="1"/>
       <c r="L5" s="47"/>
       <c r="M5" s="47"/>
@@ -15929,13 +15924,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="38"/>
-      <c r="D6" s="103"/>
+      <c r="D6" s="104"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="98"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="100"/>
       <c r="K6" s="1"/>
       <c r="L6" s="47"/>
       <c r="M6" s="47"/>
@@ -15945,27 +15940,27 @@
         <v>44</v>
       </c>
       <c r="B7" s="46">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C7" s="39"/>
-      <c r="D7" s="41">
+      <c r="D7" s="104">
         <f>B7*10</f>
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="64">
+      <c r="G7" s="65">
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="67">
         <f>SUMIF(A4:A17,H4,B4:B17)</f>
-        <v>1</v>
-      </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
+        <v>9</v>
+      </c>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
       <c r="K7" s="1"/>
       <c r="L7" s="47"/>
       <c r="M7" s="47"/>
@@ -15978,16 +15973,16 @@
         <v>0</v>
       </c>
       <c r="C8" s="38"/>
-      <c r="D8" s="103"/>
+      <c r="D8" s="104"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64">
+      <c r="F8" s="65"/>
+      <c r="G8" s="65">
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
       <c r="K8" s="1"/>
       <c r="L8" s="47"/>
       <c r="M8" s="47"/>
@@ -15997,12 +15992,12 @@
         <v>39</v>
       </c>
       <c r="B9" s="46">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C9" s="39"/>
-      <c r="D9" s="41">
+      <c r="D9" s="104">
         <f>B9*10</f>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E9" s="12"/>
       <c r="P9" s="19" t="s">
@@ -16014,21 +16009,24 @@
         <v>40</v>
       </c>
       <c r="B10" s="38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" s="38"/>
-      <c r="D10" s="103"/>
+      <c r="D10" s="104">
+        <f>B10*5</f>
+        <v>10</v>
+      </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="78" t="s">
+      <c r="F10" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="79">
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="81">
         <f>SUM(D4:D17)</f>
-        <v>20</v>
-      </c>
-      <c r="J10" s="80"/>
+        <v>200</v>
+      </c>
+      <c r="J10" s="82"/>
       <c r="K10" s="18"/>
       <c r="P10" s="19" t="s">
         <v>11</v>
@@ -16042,13 +16040,13 @@
         <v>0</v>
       </c>
       <c r="C11" s="39"/>
-      <c r="D11" s="42"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="82"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="84"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16059,15 +16057,15 @@
         <v>0</v>
       </c>
       <c r="C12" s="38"/>
-      <c r="D12" s="104"/>
-      <c r="F12" s="83" t="s">
+      <c r="D12" s="37"/>
+      <c r="F12" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
       <c r="I12" s="73">
         <f>SUM(B4:B17)</f>
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="J12" s="73"/>
     </row>
@@ -16079,10 +16077,10 @@
         <v>0</v>
       </c>
       <c r="C13" s="39"/>
-      <c r="D13" s="42"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
+      <c r="D13" s="37"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
       <c r="I13" s="73"/>
       <c r="J13" s="73"/>
     </row>
@@ -16094,7 +16092,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="38"/>
-      <c r="D14" s="104"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -16122,10 +16120,10 @@
       <c r="D15" s="37"/>
       <c r="E15" s="8"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="101" t="s">
+      <c r="G15" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="101"/>
+      <c r="H15" s="102"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -16146,13 +16144,13 @@
         <v>0</v>
       </c>
       <c r="C16" s="38"/>
-      <c r="D16" s="103"/>
+      <c r="D16" s="104"/>
       <c r="E16" s="8"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="100">
-        <v>50</v>
-      </c>
-      <c r="H16" s="100"/>
+      <c r="G16" s="101">
+        <v>90</v>
+      </c>
+      <c r="H16" s="101"/>
       <c r="I16" s="19" t="s">
         <v>32</v>
       </c>
@@ -16175,7 +16173,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="46"/>
-      <c r="D17" s="41"/>
+      <c r="D17" s="104"/>
       <c r="F17" s="20"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -16199,9 +16197,7 @@
       <c r="C18" s="8"/>
       <c r="D18" s="28"/>
       <c r="F18" s="28"/>
-      <c r="G18" s="28" t="s">
-        <v>69</v>
-      </c>
+      <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
       <c r="J18" s="8"/>
@@ -16238,15 +16234,16 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="45"/>
       <c r="E20" s="45"/>
       <c r="F20" s="14"/>
       <c r="G20" s="44"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="19" t="s">
-        <v>35</v>
+      <c r="I20" s="58">
+        <f>I18-I19</f>
+        <v>0</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -16325,7 +16322,7 @@
     <mergeCell ref="I12:J13"/>
     <mergeCell ref="G15:H15"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:J6" xr:uid="{C08CDEAD-E78B-42A7-988E-564DC875EEFF}">
       <formula1>$A$4:$A$17</formula1>
     </dataValidation>
@@ -16341,7 +16338,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16352,10 +16349,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="102"/>
+      <c r="B1" s="103"/>
       <c r="D1" s="53" t="s">
         <v>59</v>
       </c>

--- a/Planilha_de_Negocios.xlsx
+++ b/Planilha_de_Negocios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Helena\Desktop\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816E1F21-98A9-49DC-9B5E-8340520E5FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1BD49E-DAA0-4062-8461-68213AAABDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="7" xr2:uid="{B93EFE28-CC56-4C9F-AA0A-2D1B24DC53D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="8" xr2:uid="{B93EFE28-CC56-4C9F-AA0A-2D1B24DC53D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <sheet name="Junho - Cyber" sheetId="7" r:id="rId6"/>
     <sheet name="Julho - Cyber" sheetId="9" r:id="rId7"/>
     <sheet name="Agosto - Cyber" sheetId="10" r:id="rId8"/>
-    <sheet name="Lucros do Período 2024" sheetId="8" r:id="rId9"/>
+    <sheet name="Setembro - Cyber" sheetId="11" r:id="rId9"/>
+    <sheet name="Lucros do Período 2024" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -149,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="73">
   <si>
     <t>PLANILHA DE NEGÓCIOS</t>
   </si>
@@ -359,6 +360,15 @@
   </si>
   <si>
     <t>AGOSTO</t>
+  </si>
+  <si>
+    <t>Quadros</t>
+  </si>
+  <si>
+    <t>Quadros - Mont.</t>
+  </si>
+  <si>
+    <t>SETEMBRO</t>
   </si>
 </sst>
 </file>
@@ -1000,6 +1010,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1135,7 +1146,6 @@
     <xf numFmtId="0" fontId="1" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1524,6 +1534,432 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>GANHOS PERÍODO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> 2024</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Lucros do Período 2024'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>JAN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FEV</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ABR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MAI</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JUN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>JUL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AGO</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SET</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>OUT</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NOV</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DEZ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Lucros do Período 2024'!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC7F-4B68-9EB7-47859726C56D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="1606739312"/>
+        <c:axId val="1606736432"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1606739312"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1606736432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1606736432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1606739312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -5553,9 +5989,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Agosto - Cyber'!$A$4:$A$17</c:f>
+              <c:f>'Agosto - Cyber'!$A$4:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>Logo</c:v>
                 </c:pt>
@@ -5597,45 +6033,51 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Tag</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Quadros</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Quadros - Mont.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Agosto - Cyber'!$B$4:$B$17</c:f>
+              <c:f>'Agosto - Cyber'!$B$4:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -5647,7 +6089,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5806,10 +6254,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="106"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="6"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -5840,7 +6288,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>GANHOS PERÍODO</a:t>
+              <a:t>Desempenho SETEMBRO</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="pt-BR" baseline="0"/>
@@ -5899,21 +6347,21 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent4">
+                  <a:schemeClr val="accent1">
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
+                  <a:schemeClr val="accent1">
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
+                  <a:schemeClr val="accent1">
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -5991,96 +6439,78 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Lucros do Período 2024'!$A$2:$A$13</c:f>
+              <c:f>'Setembro - Cyber'!$A$4:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>JAN</c:v>
+                  <c:v>Logo</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FEV</c:v>
+                  <c:v>Adesivo</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MAR</c:v>
+                  <c:v>C. Visita</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>ABR</c:v>
+                  <c:v>Camiseta - R$ 10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>MAI</c:v>
+                  <c:v>Camiseta - R$ 5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>JUN</c:v>
+                  <c:v>Caneca - R$ 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>JUL</c:v>
+                  <c:v>Caneca - R$ 5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>AGO</c:v>
+                  <c:v>Imã</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>SET</c:v>
+                  <c:v>Manutenção</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>OUT</c:v>
+                  <c:v>Medida</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>NOV</c:v>
+                  <c:v>Panfleto</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>DEZ</c:v>
+                  <c:v>Taça</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Toalha</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Tag</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Quadros</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Quadros - Mont.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Lucros do Período 2024'!$B$2:$B$13</c:f>
+              <c:f>'Setembro - Cyber'!$B$4:$B$19</c:f>
               <c:numCache>
-                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DC7F-4B68-9EB7-47859726C56D}"/>
+              <c16:uniqueId val="{00000000-5620-4476-9B3F-00504F857CC8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6094,11 +6524,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="1606739312"/>
-        <c:axId val="1606736432"/>
+        <c:axId val="1713961616"/>
+        <c:axId val="1713989936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1606739312"/>
+        <c:axId val="1713961616"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -6140,7 +6570,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1606736432"/>
+        <c:crossAx val="1713989936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6148,17 +6578,17 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1606736432"/>
+        <c:axId val="1713989936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="t"/>
-        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1606739312"/>
+        <c:crossAx val="1713961616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6266,6 +6696,12 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
+  <a:schemeClr val="accent4"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
 </cs:colorStyle>
@@ -6552,8 +6988,42 @@
 </file>
 
 <file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -7054,6 +7524,502 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11588,6 +12554,83 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAB81257-DA8C-4ADC-823A-7F024D4B4AC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A49485BA-E59D-6B80-09BC-653393331E88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4223350-FE33-94C0-6B1A-7CA47D07B48B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12003,27 +13046,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A49485BA-E59D-6B80-09BC-653393331E88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50A2C3F1-5279-4852-AB76-27D12C16852A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -12032,42 +13077,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>52386</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4223350-FE33-94C0-6B1A-7CA47D07B48B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12387,18 +13396,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
     </row>
     <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -12413,18 +13422,18 @@
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
       <c r="J3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -12439,19 +13448,19 @@
       <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="62">
+      <c r="F4" s="63">
         <f>SUMIF(A4:A13,"Caneca",B4:B13)</f>
         <v>10</v>
       </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="64">
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="65">
         <f>SUM(F4:I5)</f>
         <v>12</v>
       </c>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -12466,16 +13475,16 @@
       <c r="E5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="62">
+      <c r="F5" s="63">
         <f>SUMIF(A4:A13,"Toalha",B4:B13)</f>
         <v>2</v>
       </c>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -12487,8 +13496,8 @@
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -12503,8 +13512,8 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="8"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -12516,17 +13525,17 @@
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="E8" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="66">
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="67">
         <v>120</v>
       </c>
-      <c r="I8" s="66"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
+      <c r="I8" s="67"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -12538,11 +13547,11 @@
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -12641,6 +13650,250 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7B6F8F-80EF-45A4-8662-DC3F0B83DB0E}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="104" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="104"/>
+      <c r="D1" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="51">
+        <f>Janeiro!H8</f>
+        <v>120</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="50">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="54">
+        <f>Fevereiro!I9</f>
+        <v>150</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="53">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="51">
+        <f>Março!I9</f>
+        <v>220</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="54">
+        <v>250</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="53">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="52">
+        <v>390</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="50">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="55">
+        <v>480</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="52">
+        <v>420</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="55">
+        <v>575</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="52">
+        <v>0</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="55">
+        <v>0</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="53">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="52">
+        <v>0</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="55">
+        <v>0</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="49">
+        <f>SUM(B2:B13)</f>
+        <v>2605</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="50">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="46">
+        <f>SUM(E2:E15)</f>
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D14">
+    <sortCondition ref="D2:D14"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12665,29 +13918,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -12703,14 +13956,14 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -12727,18 +13980,18 @@
         <v>20</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="65"/>
-      <c r="H4" s="67" t="s">
+      <c r="G4" s="66"/>
+      <c r="H4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -12755,14 +14008,14 @@
         <v>20</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -12779,22 +14032,22 @@
         <v>10</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="65">
+      <c r="G6" s="66">
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>4</v>
       </c>
-      <c r="H6" s="67">
+      <c r="H6" s="68">
         <f>SUMIF(A4:A11,H4,B4:B11)</f>
         <v>8</v>
       </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
       <c r="P6" s="19" t="s">
         <v>5</v>
       </c>
@@ -12814,17 +14067,17 @@
         <v>10</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65">
+      <c r="F7" s="66"/>
+      <c r="G7" s="66">
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>2</v>
       </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
       <c r="P7" s="19" t="s">
         <v>13</v>
       </c>
@@ -12863,16 +14116,16 @@
         <v>10</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="70" t="s">
+      <c r="F9" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="71">
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="72">
         <f>SUM(D4:D11)</f>
         <v>150</v>
       </c>
-      <c r="J9" s="71"/>
+      <c r="J9" s="72"/>
       <c r="K9" s="18"/>
       <c r="P9" s="19" t="s">
         <v>11</v>
@@ -12893,11 +14146,11 @@
         <v>10</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12914,23 +14167,23 @@
         <f>10*B11</f>
         <v>50</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="67">
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="68">
         <f>SUM(B4:B11)</f>
         <v>18</v>
       </c>
-      <c r="J11" s="67"/>
+      <c r="J11" s="68"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
@@ -13098,29 +14351,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -13136,18 +14389,18 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="O3" s="74" t="s">
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="O3" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="75"/>
+      <c r="P3" s="76"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -13164,18 +14417,18 @@
         <v>60</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="65"/>
-      <c r="H4" s="67" t="s">
+      <c r="G4" s="66"/>
+      <c r="H4" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
       <c r="O4" s="21" t="s">
         <v>5</v>
       </c>
@@ -13198,14 +14451,14 @@
         <v>40</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
       <c r="O5" s="23" t="s">
         <v>25</v>
       </c>
@@ -13228,22 +14481,22 @@
         <v>100</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="65">
+      <c r="G6" s="66">
         <f>SUMIF(A4:A10,"Medidas",B4:B10)</f>
         <v>12</v>
       </c>
-      <c r="H6" s="67">
+      <c r="H6" s="68">
         <f>SUMIF(A4:A10,H4,B4:B10)</f>
         <v>1</v>
       </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
       <c r="O6" s="21" t="s">
         <v>19</v>
       </c>
@@ -13266,17 +14519,17 @@
         <v>10</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65">
+      <c r="F7" s="66"/>
+      <c r="G7" s="66">
         <f>SUMIF(A4:A10,"Taça",B4:B10)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
       <c r="O7" s="23" t="s">
         <v>11</v>
       </c>
@@ -13305,16 +14558,16 @@
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="12"/>
-      <c r="F9" s="70" t="s">
+      <c r="F9" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="72">
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="73">
         <f>SUM(D4:D10)</f>
         <v>220</v>
       </c>
-      <c r="J9" s="72"/>
+      <c r="J9" s="73"/>
       <c r="K9" s="18"/>
       <c r="P9" s="19" t="s">
         <v>11</v>
@@ -13326,11 +14579,11 @@
       <c r="C10" s="20"/>
       <c r="D10" s="27"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13338,27 +14591,27 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="73">
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="74">
         <f>SUM(B4:B8)</f>
         <v>39</v>
       </c>
-      <c r="J11" s="73"/>
+      <c r="J11" s="74"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="20"/>
       <c r="C12" s="8"/>
       <c r="D12" s="28"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -13610,29 +14863,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -13648,20 +14901,20 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="O3" s="78" t="s">
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="O3" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -13675,18 +14928,18 @@
         <v>50</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="65"/>
-      <c r="H4" s="67" t="s">
+      <c r="G4" s="66"/>
+      <c r="H4" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
       <c r="O4" s="33" t="s">
         <v>5</v>
       </c>
@@ -13713,14 +14966,14 @@
         <v>60</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
       <c r="O5" s="30" t="s">
         <v>25</v>
       </c>
@@ -13739,22 +14992,22 @@
         <v>0</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="65">
+      <c r="G6" s="66">
         <f>SUMIF(A4:A10,"Medidas",B4:B10)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="67">
+      <c r="H6" s="68">
         <f>SUMIF(A4:A10,H4,B4:B10)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
       <c r="O6" s="33" t="s">
         <v>19</v>
       </c>
@@ -13775,17 +15028,17 @@
         <v>10</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65">
+      <c r="F7" s="66"/>
+      <c r="G7" s="66">
         <f>SUMIF(A4:A10,"Taça",B4:B10)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
       <c r="O7" s="30" t="s">
         <v>11</v>
       </c>
@@ -13823,16 +15076,16 @@
         <v>10</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="70" t="s">
+      <c r="F9" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="72">
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="73">
         <f>SUM(D4:D11)</f>
         <v>250</v>
       </c>
-      <c r="J9" s="72"/>
+      <c r="J9" s="73"/>
       <c r="K9" s="18"/>
       <c r="P9" s="19" t="s">
         <v>11</v>
@@ -13851,11 +15104,11 @@
         <v>5</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13869,27 +15122,27 @@
       <c r="D11" s="34">
         <v>100</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="73">
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="74">
         <f>SUM(B4:B11)</f>
         <v>16</v>
       </c>
-      <c r="J11" s="73"/>
+      <c r="J11" s="74"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="20"/>
       <c r="C12" s="8"/>
       <c r="D12" s="28"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -14153,29 +15406,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -14191,14 +15444,14 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -14213,18 +15466,18 @@
         <v>0</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="86" t="s">
+      <c r="F4" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="92" t="s">
+      <c r="G4" s="88"/>
+      <c r="H4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="93"/>
-      <c r="J4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="95"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
@@ -14239,14 +15492,14 @@
         <v>60</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="97"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="98"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
@@ -14261,14 +15514,14 @@
         <v>25</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="100"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="101"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
@@ -14283,22 +15536,22 @@
         <v>0</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="65">
+      <c r="G7" s="66">
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="67">
+      <c r="H7" s="68">
         <f>SUMIF(A4:A15,H4,B4:B15)</f>
         <v>3</v>
       </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
@@ -14313,17 +15566,17 @@
         <v>15</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65">
+      <c r="F8" s="66"/>
+      <c r="G8" s="66">
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="46" t="s">
@@ -14355,16 +15608,16 @@
         <v>45</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="80" t="s">
+      <c r="F10" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="81">
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="82">
         <f>SUM(D4:D15)</f>
         <v>390</v>
       </c>
-      <c r="J10" s="82"/>
+      <c r="J10" s="83"/>
       <c r="K10" s="18"/>
       <c r="P10" s="19" t="s">
         <v>11</v>
@@ -14383,11 +15636,11 @@
         <v>0</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="84"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="85"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14401,16 +15654,16 @@
       <c r="D12" s="42">
         <v>150</v>
       </c>
-      <c r="F12" s="85" t="s">
+      <c r="F12" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="73">
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="74">
         <f>SUM(B4:B15)</f>
         <v>35</v>
       </c>
-      <c r="J12" s="73"/>
+      <c r="J12" s="74"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="46" t="s">
@@ -14423,11 +15676,11 @@
       <c r="D13" s="42">
         <v>20</v>
       </c>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -14702,29 +15955,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -14740,11 +15993,11 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
       <c r="K3" s="14"/>
       <c r="L3" s="47"/>
       <c r="M3" s="47"/>
@@ -14762,15 +16015,15 @@
         <v>0</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="86" t="s">
+      <c r="F4" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="92" t="s">
+      <c r="G4" s="88"/>
+      <c r="H4" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="93"/>
-      <c r="J4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="95"/>
       <c r="K4" s="1"/>
       <c r="L4" s="47"/>
       <c r="M4" s="47"/>
@@ -14788,11 +16041,11 @@
         <v>0</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="97"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="98"/>
       <c r="K5" s="1"/>
       <c r="L5" s="47"/>
       <c r="M5" s="47"/>
@@ -14810,11 +16063,11 @@
         <v>0</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="100"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="101"/>
       <c r="K6" s="1"/>
       <c r="L6" s="47"/>
       <c r="M6" s="47"/>
@@ -14832,19 +16085,19 @@
         <v>90</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="65">
+      <c r="G7" s="66">
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="67">
+      <c r="H7" s="68">
         <f>SUMIF(A4:A17,H4,B4:B17)</f>
         <v>2</v>
       </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
       <c r="K7" s="1"/>
       <c r="L7" s="47"/>
       <c r="M7" s="47"/>
@@ -14862,14 +16115,14 @@
         <v>30</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65">
+      <c r="F8" s="66"/>
+      <c r="G8" s="66">
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
       <c r="K8" s="1"/>
       <c r="L8" s="47"/>
       <c r="M8" s="47"/>
@@ -14904,16 +16157,16 @@
         <v>15</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="80" t="s">
+      <c r="F10" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="81">
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="82">
         <f>SUM(D4:D17)</f>
         <v>480</v>
       </c>
-      <c r="J10" s="82"/>
+      <c r="J10" s="83"/>
       <c r="K10" s="18"/>
       <c r="P10" s="19" t="s">
         <v>11</v>
@@ -14932,11 +16185,11 @@
         <v>0</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="84"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="85"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14951,16 +16204,16 @@
         <f>B12*150</f>
         <v>150</v>
       </c>
-      <c r="F12" s="85" t="s">
+      <c r="F12" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="73">
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="74">
         <f>SUM(B4:B17)</f>
         <v>41</v>
       </c>
-      <c r="J12" s="73"/>
+      <c r="J12" s="74"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="46" t="s">
@@ -14974,11 +16227,11 @@
         <f>B13*5</f>
         <v>20</v>
       </c>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -15021,10 +16274,10 @@
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="102" t="s">
+      <c r="G15" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="102"/>
+      <c r="H15" s="103"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -15051,10 +16304,10 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="101">
+      <c r="G16" s="102">
         <v>0</v>
       </c>
-      <c r="H16" s="101"/>
+      <c r="H16" s="102"/>
       <c r="I16" s="19" t="s">
         <v>32</v>
       </c>
@@ -15268,29 +16521,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -15306,11 +16559,11 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
       <c r="K3" s="14"/>
       <c r="L3" s="47"/>
       <c r="M3" s="47"/>
@@ -15328,15 +16581,15 @@
         <v>0</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="86" t="s">
+      <c r="F4" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="92" t="s">
+      <c r="G4" s="88"/>
+      <c r="H4" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="93"/>
-      <c r="J4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="95"/>
       <c r="K4" s="1"/>
       <c r="L4" s="47"/>
       <c r="M4" s="47"/>
@@ -15354,11 +16607,11 @@
         <v>20</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="97"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="98"/>
       <c r="K5" s="1"/>
       <c r="L5" s="47"/>
       <c r="M5" s="47"/>
@@ -15376,11 +16629,11 @@
         <v>25</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="100"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="101"/>
       <c r="K6" s="1"/>
       <c r="L6" s="47"/>
       <c r="M6" s="47"/>
@@ -15398,19 +16651,19 @@
         <v>60</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="65">
+      <c r="G7" s="66">
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="67">
+      <c r="H7" s="68">
         <f>SUMIF(A4:A17,H4,B4:B17)</f>
         <v>2</v>
       </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
       <c r="K7" s="1"/>
       <c r="L7" s="47"/>
       <c r="M7" s="47"/>
@@ -15428,14 +16681,14 @@
         <v>10</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65">
+      <c r="F8" s="66"/>
+      <c r="G8" s="66">
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
       <c r="K8" s="1"/>
       <c r="L8" s="47"/>
       <c r="M8" s="47"/>
@@ -15470,16 +16723,16 @@
         <v>25</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="80" t="s">
+      <c r="F10" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="81">
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="82">
         <f>SUM(D4:D17)</f>
         <v>420</v>
       </c>
-      <c r="J10" s="82"/>
+      <c r="J10" s="83"/>
       <c r="K10" s="18"/>
       <c r="P10" s="19" t="s">
         <v>11</v>
@@ -15498,11 +16751,11 @@
         <v>0</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="84"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="85"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15516,16 +16769,16 @@
       <c r="D12" s="42">
         <v>50</v>
       </c>
-      <c r="F12" s="85" t="s">
+      <c r="F12" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="73">
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="74">
         <f>SUM(B4:B17)</f>
         <v>40</v>
       </c>
-      <c r="J12" s="73"/>
+      <c r="J12" s="74"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="46" t="s">
@@ -15539,11 +16792,11 @@
         <f>B13*5</f>
         <v>0</v>
       </c>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -15586,10 +16839,10 @@
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="102" t="s">
+      <c r="G15" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="102"/>
+      <c r="H15" s="103"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -15616,10 +16869,10 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="101">
+      <c r="G16" s="102">
         <v>0</v>
       </c>
-      <c r="H16" s="101"/>
+      <c r="H16" s="102"/>
       <c r="I16" s="19" t="s">
         <v>32</v>
       </c>
@@ -15808,8 +17061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FFC0C1-D11B-4240-9543-C529E6B5D835}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15827,29 +17080,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -15865,11 +17118,11 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
       <c r="K3" s="14"/>
       <c r="L3" s="47"/>
       <c r="M3" s="47"/>
@@ -15879,20 +17132,22 @@
         <v>30</v>
       </c>
       <c r="B4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="26"/>
-      <c r="D4" s="104"/>
+      <c r="D4" s="59">
+        <v>50</v>
+      </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="86" t="s">
+      <c r="F4" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="93"/>
-      <c r="J4" s="94"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="94"/>
+      <c r="J4" s="95"/>
       <c r="K4" s="1"/>
       <c r="L4" s="47"/>
       <c r="M4" s="47"/>
@@ -15902,16 +17157,19 @@
         <v>32</v>
       </c>
       <c r="B5" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="40"/>
-      <c r="D5" s="104"/>
+      <c r="D5" s="59">
+        <f>B5*5</f>
+        <v>5</v>
+      </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="97"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="98"/>
       <c r="K5" s="1"/>
       <c r="L5" s="47"/>
       <c r="M5" s="47"/>
@@ -15924,13 +17182,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="38"/>
-      <c r="D6" s="104"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="100"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="101"/>
       <c r="K6" s="1"/>
       <c r="L6" s="47"/>
       <c r="M6" s="47"/>
@@ -15940,27 +17198,27 @@
         <v>44</v>
       </c>
       <c r="B7" s="46">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="39"/>
-      <c r="D7" s="104">
+      <c r="D7" s="59">
         <f>B7*10</f>
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="65">
+      <c r="G7" s="66">
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="67">
-        <f>SUMIF(A4:A17,H4,B4:B17)</f>
-        <v>9</v>
-      </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
+      <c r="H7" s="68">
+        <f>SUMIF(A4:A19,H4,B4:B19)</f>
+        <v>6</v>
+      </c>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
       <c r="K7" s="1"/>
       <c r="L7" s="47"/>
       <c r="M7" s="47"/>
@@ -15973,16 +17231,16 @@
         <v>0</v>
       </c>
       <c r="C8" s="38"/>
-      <c r="D8" s="104"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65">
+      <c r="F8" s="66"/>
+      <c r="G8" s="66">
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
       <c r="K8" s="1"/>
       <c r="L8" s="47"/>
       <c r="M8" s="47"/>
@@ -15992,12 +17250,12 @@
         <v>39</v>
       </c>
       <c r="B9" s="46">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C9" s="39"/>
-      <c r="D9" s="104">
+      <c r="D9" s="59">
         <f>B9*10</f>
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E9" s="12"/>
       <c r="P9" s="19" t="s">
@@ -16009,24 +17267,24 @@
         <v>40</v>
       </c>
       <c r="B10" s="38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="38"/>
-      <c r="D10" s="104">
+      <c r="D10" s="59">
         <f>B10*5</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="80" t="s">
+      <c r="F10" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="81">
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="82">
         <f>SUM(D4:D17)</f>
-        <v>200</v>
-      </c>
-      <c r="J10" s="82"/>
+        <v>575</v>
+      </c>
+      <c r="J10" s="83"/>
       <c r="K10" s="18"/>
       <c r="P10" s="19" t="s">
         <v>11</v>
@@ -16042,11 +17300,11 @@
       <c r="C11" s="39"/>
       <c r="D11" s="37"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="84"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="85"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16054,35 +17312,40 @@
         <v>35</v>
       </c>
       <c r="B12" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="38"/>
-      <c r="D12" s="37"/>
-      <c r="F12" s="85" t="s">
+      <c r="D12" s="37">
+        <v>120</v>
+      </c>
+      <c r="F12" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="73">
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="74">
         <f>SUM(B4:B17)</f>
-        <v>21</v>
-      </c>
-      <c r="J12" s="73"/>
+        <v>46</v>
+      </c>
+      <c r="J12" s="74"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C13" s="39"/>
-      <c r="D13" s="37"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
+      <c r="D13" s="37">
+        <f>B13*5</f>
+        <v>15</v>
+      </c>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -16120,10 +17383,10 @@
       <c r="D15" s="37"/>
       <c r="E15" s="8"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="102" t="s">
+      <c r="G15" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="102"/>
+      <c r="H15" s="103"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -16144,13 +17407,13 @@
         <v>0</v>
       </c>
       <c r="C16" s="38"/>
-      <c r="D16" s="104"/>
+      <c r="D16" s="59"/>
       <c r="E16" s="8"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="101">
-        <v>90</v>
-      </c>
-      <c r="H16" s="101"/>
+      <c r="G16" s="102">
+        <v>0</v>
+      </c>
+      <c r="H16" s="102"/>
       <c r="I16" s="19" t="s">
         <v>32</v>
       </c>
@@ -16170,10 +17433,13 @@
         <v>66</v>
       </c>
       <c r="B17" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="46"/>
-      <c r="D17" s="104"/>
+      <c r="D17" s="59">
+        <f>B17*10</f>
+        <v>10</v>
+      </c>
       <c r="F17" s="20"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -16192,10 +17458,17 @@
       <c r="S17" s="8"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="28"/>
+      <c r="A18" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="38">
+        <v>6</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="59">
+        <f>B18*5</f>
+        <v>30</v>
+      </c>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -16212,10 +17485,17 @@
       <c r="S18" s="8"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="28"/>
+      <c r="A19" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="46">
+        <v>5</v>
+      </c>
+      <c r="C19" s="46"/>
+      <c r="D19" s="59">
+        <f>B19*10</f>
+        <v>50</v>
+      </c>
       <c r="E19" s="8"/>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
@@ -16322,9 +17602,9 @@
     <mergeCell ref="I12:J13"/>
     <mergeCell ref="G15:H15"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:J6" xr:uid="{C08CDEAD-E78B-42A7-988E-564DC875EEFF}">
-      <formula1>$A$4:$A$17</formula1>
+      <formula1>$A$4:$A$18</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -16334,245 +17614,507 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7B6F8F-80EF-45A4-8662-DC3F0B83DB0E}">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95ECF128-5189-43C1-BDE1-B3CE13E9EDE7}">
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="103"/>
-      <c r="D1" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="53" t="s">
+    <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+    </row>
+    <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="51">
-        <f>Janeiro!H8</f>
-        <v>120</v>
-      </c>
-      <c r="D2" s="50" t="s">
+      <c r="C3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="88"/>
+      <c r="H4" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="94"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="50">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="54">
-        <f>Fevereiro!I9</f>
-        <v>150</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="53">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="51">
-        <f>Março!I9</f>
-        <v>220</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="50">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="54">
-        <v>250</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="53">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="52">
-        <v>390</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="50">
+      <c r="B5" s="46"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="46"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="66">
+        <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="68">
+        <f>SUMIF(A4:A19,H4,B4:B19)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66">
+        <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="12"/>
+      <c r="P9" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="82">
+        <f>SUM(D4:D17)</f>
+        <v>15</v>
+      </c>
+      <c r="J10" s="83"/>
+      <c r="K10" s="18"/>
+      <c r="P10" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="55">
-        <v>480</v>
-      </c>
-      <c r="D7" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="53">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="37"/>
+      <c r="F12" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="74">
+        <f>SUM(B4:B17)</f>
+        <v>2</v>
+      </c>
+      <c r="J12" s="74"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="46">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="52">
-        <v>420</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="50">
+      <c r="C13" s="39"/>
+      <c r="D13" s="37">
+        <f>B13*5</f>
+        <v>5</v>
+      </c>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="103" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="103"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="102">
+        <v>15</v>
+      </c>
+      <c r="H16" s="102"/>
+      <c r="I16" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="46">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="55">
+      <c r="C17" s="46"/>
+      <c r="D17" s="59">
+        <f>B17*10</f>
+        <v>10</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="59"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="58">
+        <f>I18-I19</f>
         <v>0</v>
       </c>
-      <c r="D9" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="52">
-        <v>0</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="55">
-        <v>0</v>
-      </c>
-      <c r="D11" s="53" t="s">
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="44"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="53">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="52">
-        <v>0</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="55">
-        <v>0</v>
-      </c>
-      <c r="D13" s="53" t="s">
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="49">
-        <f>SUM(B2:B13)</f>
-        <v>2030</v>
-      </c>
-      <c r="D14" s="50" t="s">
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="I23" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="50">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="46">
-        <f>SUM(E2:E15)</f>
-        <v>165</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D14">
-    <sortCondition ref="D2:D14"/>
-  </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+  <mergeCells count="13">
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:J3"/>
+    <mergeCell ref="F4:G6"/>
+    <mergeCell ref="H4:J6"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="H7:J8"/>
+    <mergeCell ref="F10:H11"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="F12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="G15:H15"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:J6" xr:uid="{5D6BEB5A-6C5B-4E25-95EA-AD933D5CC0B3}">
+      <formula1>$A$4:$A$18</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Planilha_de_Negocios.xlsx
+++ b/Planilha_de_Negocios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Helena\Desktop\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1BD49E-DAA0-4062-8461-68213AAABDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C23A6D-E20C-4CAC-B461-8399E711577B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="8" xr2:uid="{B93EFE28-CC56-4C9F-AA0A-2D1B24DC53D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="9" xr2:uid="{B93EFE28-CC56-4C9F-AA0A-2D1B24DC53D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="1" r:id="rId1"/>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="74">
   <si>
     <t>PLANILHA DE NEGÓCIOS</t>
   </si>
@@ -369,6 +369,9 @@
   </si>
   <si>
     <t>SETEMBRO</t>
+  </si>
+  <si>
+    <t>LUCRO</t>
   </si>
 </sst>
 </file>
@@ -709,7 +712,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -862,25 +865,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -980,7 +970,6 @@
     <xf numFmtId="44" fontId="4" fillId="23" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="20" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1011,6 +1000,16 @@
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="20" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6499,11 +6498,23 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="9">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13382,10 +13393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84C8A8B-32DB-4395-8814-E90995FF0991}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:I9"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13396,18 +13407,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -13422,18 +13433,18 @@
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
       <c r="J3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -13448,19 +13459,19 @@
       <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="66">
         <f>SUMIF(A4:A13,"Caneca",B4:B13)</f>
         <v>10</v>
       </c>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="65">
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="68">
         <f>SUM(F4:I5)</f>
         <v>12</v>
       </c>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -13475,16 +13486,16 @@
       <c r="E5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="63">
+      <c r="F5" s="66">
         <f>SUMIF(A4:A13,"Toalha",B4:B13)</f>
         <v>2</v>
       </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -13496,8 +13507,8 @@
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -13512,8 +13523,8 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="8"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -13525,17 +13536,17 @@
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="67">
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="70">
         <v>120</v>
       </c>
-      <c r="I8" s="67"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
+      <c r="I8" s="70"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -13547,11 +13558,11 @@
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -13628,6 +13639,15 @@
       <c r="F15" s="8">
         <f>SUMIF(A5:A14,"Toalha",B5:B14)</f>
         <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="60">
+        <f>120/30</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -13657,7 +13677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7B6F8F-80EF-45A4-8662-DC3F0B83DB0E}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -13669,217 +13689,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="D1" s="53" t="s">
+      <c r="B1" s="107"/>
+      <c r="D1" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="52" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="50">
         <f>Janeiro!H8</f>
         <v>120</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="50">
+      <c r="E2" s="49">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="54">
+      <c r="B3" s="53">
         <f>Fevereiro!I9</f>
         <v>150</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="53" t="s">
+      <c r="C3" s="47"/>
+      <c r="D3" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="52">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="51">
+      <c r="B4" s="50">
         <f>Março!I9</f>
         <v>220</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="49">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="54">
+      <c r="B5" s="53">
         <v>250</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="52">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="52">
+      <c r="B6" s="51">
         <v>390</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="49">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="55">
+      <c r="B7" s="54">
         <v>480</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="52">
+      <c r="B8" s="51">
         <v>420</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="50">
+      <c r="E8" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="55">
+      <c r="B9" s="54">
         <v>575</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="52">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="52">
+      <c r="B10" s="51">
         <v>0</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="49">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="55">
+      <c r="B11" s="54">
         <v>0</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="52">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="52">
+      <c r="B12" s="51">
         <v>0</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="50">
+      <c r="E12" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="55">
+      <c r="B13" s="54">
         <v>0</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="53">
+      <c r="E13" s="52">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="48">
         <f>SUM(B2:B13)</f>
         <v>2605</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="50">
+      <c r="E14" s="49">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="56">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="45">
         <f>SUM(E2:E15)</f>
         <v>165</v>
       </c>
@@ -13902,7 +13922,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13918,29 +13938,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -13956,14 +13976,14 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -13980,18 +14000,18 @@
         <v>20</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="68" t="s">
+      <c r="G4" s="69"/>
+      <c r="H4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -14008,14 +14028,14 @@
         <v>20</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -14032,22 +14052,22 @@
         <v>10</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="66">
+      <c r="G6" s="69">
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>4</v>
       </c>
-      <c r="H6" s="68">
+      <c r="H6" s="71">
         <f>SUMIF(A4:A11,H4,B4:B11)</f>
         <v>8</v>
       </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
       <c r="P6" s="19" t="s">
         <v>5</v>
       </c>
@@ -14067,17 +14087,17 @@
         <v>10</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66">
+      <c r="F7" s="69"/>
+      <c r="G7" s="69">
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>2</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
       <c r="P7" s="19" t="s">
         <v>13</v>
       </c>
@@ -14116,16 +14136,16 @@
         <v>10</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="72">
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="75">
         <f>SUM(D4:D11)</f>
         <v>150</v>
       </c>
-      <c r="J9" s="72"/>
+      <c r="J9" s="75"/>
       <c r="K9" s="18"/>
       <c r="P9" s="19" t="s">
         <v>11</v>
@@ -14146,11 +14166,11 @@
         <v>10</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14167,23 +14187,23 @@
         <f>10*B11</f>
         <v>50</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="68">
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="71">
         <f>SUM(B4:B11)</f>
         <v>18</v>
       </c>
-      <c r="J11" s="68"/>
+      <c r="J11" s="71"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
@@ -14264,8 +14284,13 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="F19" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="60">
+        <f>150/30</f>
+        <v>5</v>
+      </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -14334,7 +14359,7 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14351,29 +14376,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -14389,18 +14414,18 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="O3" s="75" t="s">
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="O3" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="76"/>
+      <c r="P3" s="79"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -14417,18 +14442,18 @@
         <v>60</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="68" t="s">
+      <c r="G4" s="69"/>
+      <c r="H4" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
       <c r="O4" s="21" t="s">
         <v>5</v>
       </c>
@@ -14451,14 +14476,14 @@
         <v>40</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
       <c r="O5" s="23" t="s">
         <v>25</v>
       </c>
@@ -14481,22 +14506,22 @@
         <v>100</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="66">
+      <c r="G6" s="69">
         <f>SUMIF(A4:A10,"Medidas",B4:B10)</f>
         <v>12</v>
       </c>
-      <c r="H6" s="68">
+      <c r="H6" s="71">
         <f>SUMIF(A4:A10,H4,B4:B10)</f>
         <v>1</v>
       </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
       <c r="O6" s="21" t="s">
         <v>19</v>
       </c>
@@ -14519,17 +14544,17 @@
         <v>10</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66">
+      <c r="F7" s="69"/>
+      <c r="G7" s="69">
         <f>SUMIF(A4:A10,"Taça",B4:B10)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
       <c r="O7" s="23" t="s">
         <v>11</v>
       </c>
@@ -14558,16 +14583,16 @@
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="12"/>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="73">
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="76">
         <f>SUM(D4:D10)</f>
         <v>220</v>
       </c>
-      <c r="J9" s="73"/>
+      <c r="J9" s="76"/>
       <c r="K9" s="18"/>
       <c r="P9" s="19" t="s">
         <v>11</v>
@@ -14579,11 +14604,11 @@
       <c r="C10" s="20"/>
       <c r="D10" s="27"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14591,27 +14616,27 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="74">
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="77">
         <f>SUM(B4:B8)</f>
         <v>39</v>
       </c>
-      <c r="J11" s="74"/>
+      <c r="J11" s="77"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="20"/>
       <c r="C12" s="8"/>
       <c r="D12" s="28"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -14682,8 +14707,13 @@
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="8"/>
+      <c r="D16" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="60">
+        <f>220/30</f>
+        <v>7.333333333333333</v>
+      </c>
       <c r="F16" s="20"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -14845,7 +14875,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F14" sqref="F14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14863,29 +14893,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -14901,20 +14931,20 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="O3" s="79" t="s">
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="O3" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -14928,18 +14958,18 @@
         <v>50</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="68" t="s">
+      <c r="G4" s="69"/>
+      <c r="H4" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
       <c r="O4" s="33" t="s">
         <v>5</v>
       </c>
@@ -14966,14 +14996,14 @@
         <v>60</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
       <c r="O5" s="30" t="s">
         <v>25</v>
       </c>
@@ -14992,22 +15022,22 @@
         <v>0</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="66">
+      <c r="G6" s="69">
         <f>SUMIF(A4:A10,"Medidas",B4:B10)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="68">
+      <c r="H6" s="71">
         <f>SUMIF(A4:A10,H4,B4:B10)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
       <c r="O6" s="33" t="s">
         <v>19</v>
       </c>
@@ -15028,17 +15058,17 @@
         <v>10</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66">
+      <c r="F7" s="69"/>
+      <c r="G7" s="69">
         <f>SUMIF(A4:A10,"Taça",B4:B10)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
       <c r="O7" s="30" t="s">
         <v>11</v>
       </c>
@@ -15076,16 +15106,16 @@
         <v>10</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="73">
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="76">
         <f>SUM(D4:D11)</f>
         <v>250</v>
       </c>
-      <c r="J9" s="73"/>
+      <c r="J9" s="76"/>
       <c r="K9" s="18"/>
       <c r="P9" s="19" t="s">
         <v>11</v>
@@ -15104,11 +15134,11 @@
         <v>5</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15122,27 +15152,27 @@
       <c r="D11" s="34">
         <v>100</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="74">
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="77">
         <f>SUM(B4:B11)</f>
         <v>16</v>
       </c>
-      <c r="J11" s="74"/>
+      <c r="J11" s="77"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="20"/>
       <c r="C12" s="8"/>
       <c r="D12" s="28"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -15171,8 +15201,13 @@
       <c r="C14" s="8"/>
       <c r="D14" s="28"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="F14" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="60">
+        <f>250/30</f>
+        <v>8.3333333333333339</v>
+      </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -15388,7 +15423,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G15" sqref="G15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15398,7 +15433,7 @@
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.28515625" customWidth="1"/>
     <col min="13" max="13" width="4.5703125" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -15406,29 +15441,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -15444,14 +15479,14 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -15466,24 +15501,24 @@
         <v>0</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="87" t="s">
+      <c r="F4" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="88"/>
-      <c r="H4" s="93" t="s">
+      <c r="G4" s="91"/>
+      <c r="H4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="94"/>
-      <c r="J4" s="95"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="98"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="45">
         <v>6</v>
       </c>
       <c r="C5" s="40"/>
@@ -15492,14 +15527,14 @@
         <v>60</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="98"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="101"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
@@ -15514,20 +15549,20 @@
         <v>25</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="101"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="104"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="45">
         <v>0</v>
       </c>
       <c r="C7" s="39"/>
@@ -15536,22 +15571,22 @@
         <v>0</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="66">
+      <c r="G7" s="69">
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="71">
         <f>SUMIF(A4:A15,H4,B4:B15)</f>
         <v>3</v>
       </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
@@ -15566,23 +15601,23 @@
         <v>15</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66">
+      <c r="F8" s="69"/>
+      <c r="G8" s="69">
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="45">
         <v>5</v>
       </c>
       <c r="C9" s="39"/>
@@ -15608,26 +15643,26 @@
         <v>45</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="81" t="s">
+      <c r="F10" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="82">
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="85">
         <f>SUM(D4:D15)</f>
         <v>390</v>
       </c>
-      <c r="J10" s="83"/>
+      <c r="J10" s="86"/>
       <c r="K10" s="18"/>
       <c r="P10" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="45">
         <v>0</v>
       </c>
       <c r="C11" s="39"/>
@@ -15636,11 +15671,11 @@
         <v>0</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="85"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="88"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15654,33 +15689,33 @@
       <c r="D12" s="42">
         <v>150</v>
       </c>
-      <c r="F12" s="86" t="s">
+      <c r="F12" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="74">
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="77">
         <f>SUM(B4:B15)</f>
         <v>35</v>
       </c>
-      <c r="J12" s="74"/>
+      <c r="J12" s="77"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="45">
         <v>1</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="42">
         <v>20</v>
       </c>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -15710,21 +15745,26 @@
       <c r="S14" s="8"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15" s="45">
         <v>5</v>
       </c>
-      <c r="C15" s="46"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="37">
         <f>B15*10</f>
         <v>50</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="8"/>
+      <c r="G15" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="60">
+        <f>390/30</f>
+        <v>13</v>
+      </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -15746,9 +15786,7 @@
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="19" t="s">
-        <v>32</v>
-      </c>
+      <c r="I16" s="19"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -15765,15 +15803,13 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="28"/>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="61" t="s">
         <v>33</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="19" t="s">
-        <v>5</v>
-      </c>
+      <c r="I17" s="19"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
@@ -15790,15 +15826,13 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="28"/>
-      <c r="E18" s="43">
+      <c r="E18" s="62">
         <v>0</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="19" t="s">
-        <v>34</v>
-      </c>
+      <c r="I18" s="19"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
@@ -15819,9 +15853,6 @@
       <c r="F19" s="20"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="19" t="s">
-        <v>30</v>
-      </c>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
@@ -15835,16 +15866,14 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
       <c r="F20" s="14"/>
-      <c r="G20" s="44"/>
+      <c r="G20" s="43"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="19" t="s">
-        <v>35</v>
-      </c>
+      <c r="I20" s="19"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
@@ -15859,9 +15888,9 @@
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="44"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="44"/>
+      <c r="E21" s="43"/>
       <c r="H21" s="8"/>
       <c r="I21" s="19" t="s">
         <v>25</v>
@@ -15879,9 +15908,9 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
       <c r="H22" s="8"/>
       <c r="I22" s="19" t="s">
         <v>19</v>
@@ -15899,7 +15928,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
-      <c r="C23" s="44"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="I23" s="19" t="s">
@@ -15937,7 +15966,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G18" sqref="G18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15947,7 +15976,7 @@
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="3.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.85546875" customWidth="1"/>
     <col min="13" max="13" width="4.5703125" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -15955,29 +15984,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -15993,14 +16022,14 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -16015,24 +16044,24 @@
         <v>0</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="87" t="s">
+      <c r="F4" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="88"/>
-      <c r="H4" s="93" t="s">
+      <c r="G4" s="91"/>
+      <c r="H4" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="94"/>
-      <c r="J4" s="95"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="98"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="45">
         <v>0</v>
       </c>
       <c r="C5" s="40"/>
@@ -16041,14 +16070,14 @@
         <v>0</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="98"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="101"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
@@ -16063,20 +16092,20 @@
         <v>0</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="101"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="104"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="45">
         <v>9</v>
       </c>
       <c r="C7" s="39"/>
@@ -16085,22 +16114,22 @@
         <v>90</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="66">
+      <c r="G7" s="69">
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="71">
         <f>SUMIF(A4:A17,H4,B4:B17)</f>
         <v>2</v>
       </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
@@ -16115,23 +16144,23 @@
         <v>30</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66">
+      <c r="F8" s="69"/>
+      <c r="G8" s="69">
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="45">
         <v>15</v>
       </c>
       <c r="C9" s="39"/>
@@ -16157,26 +16186,26 @@
         <v>15</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="81" t="s">
+      <c r="F10" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="82">
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="85">
         <f>SUM(D4:D17)</f>
         <v>480</v>
       </c>
-      <c r="J10" s="83"/>
+      <c r="J10" s="86"/>
       <c r="K10" s="18"/>
       <c r="P10" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="45">
         <v>0</v>
       </c>
       <c r="C11" s="39"/>
@@ -16185,11 +16214,11 @@
         <v>0</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="85"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="88"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16204,22 +16233,22 @@
         <f>B12*150</f>
         <v>150</v>
       </c>
-      <c r="F12" s="86" t="s">
+      <c r="F12" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="74">
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="77">
         <f>SUM(B4:B17)</f>
         <v>41</v>
       </c>
-      <c r="J12" s="74"/>
+      <c r="J12" s="77"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="45">
         <v>4</v>
       </c>
       <c r="C13" s="39"/>
@@ -16227,11 +16256,11 @@
         <f>B13*5</f>
         <v>20</v>
       </c>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -16261,23 +16290,23 @@
       <c r="S14" s="8"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15" s="45">
         <v>0</v>
       </c>
-      <c r="C15" s="46"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="37">
         <f>B15*10</f>
         <v>0</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="103" t="s">
+      <c r="G15" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="103"/>
+      <c r="H15" s="106"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -16304,10 +16333,10 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="102">
+      <c r="G16" s="105">
         <v>0</v>
       </c>
-      <c r="H16" s="102"/>
+      <c r="H16" s="105"/>
       <c r="I16" s="19" t="s">
         <v>32</v>
       </c>
@@ -16323,13 +16352,13 @@
       <c r="S16" s="8"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="46">
+      <c r="B17" s="45">
         <v>2</v>
       </c>
-      <c r="C17" s="46"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="41">
         <f>B17*10</f>
         <v>20</v>
@@ -16357,8 +16386,13 @@
       <c r="C18" s="8"/>
       <c r="D18" s="28"/>
       <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
+      <c r="G18" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="60">
+        <f>480/30</f>
+        <v>16</v>
+      </c>
       <c r="I18" s="28"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -16374,7 +16408,7 @@
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="56"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="28"/>
       <c r="E19" s="8"/>
       <c r="F19" s="28"/>
@@ -16394,12 +16428,12 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
       <c r="F20" s="14"/>
-      <c r="G20" s="44"/>
+      <c r="G20" s="43"/>
       <c r="H20" s="8"/>
       <c r="I20" s="19" t="s">
         <v>35</v>
@@ -16418,9 +16452,9 @@
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="44"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="44"/>
+      <c r="E21" s="43"/>
       <c r="H21" s="8"/>
       <c r="I21" s="19" t="s">
         <v>25</v>
@@ -16438,9 +16472,9 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
       <c r="H22" s="8"/>
       <c r="I22" s="19" t="s">
         <v>19</v>
@@ -16458,7 +16492,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
-      <c r="C23" s="44"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="I23" s="19" t="s">
@@ -16503,7 +16537,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G18" sqref="G18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16513,7 +16547,7 @@
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="3.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.85546875" customWidth="1"/>
     <col min="13" max="13" width="4.5703125" customWidth="1"/>
     <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -16521,29 +16555,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -16559,14 +16593,14 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -16581,24 +16615,24 @@
         <v>0</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="87" t="s">
+      <c r="F4" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="88"/>
-      <c r="H4" s="93" t="s">
+      <c r="G4" s="91"/>
+      <c r="H4" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="94"/>
-      <c r="J4" s="95"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="98"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="45">
         <v>2</v>
       </c>
       <c r="C5" s="40"/>
@@ -16607,14 +16641,14 @@
         <v>20</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="98"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="101"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
@@ -16629,20 +16663,20 @@
         <v>25</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="101"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="104"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="45">
         <v>6</v>
       </c>
       <c r="C7" s="39"/>
@@ -16651,22 +16685,22 @@
         <v>60</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="66">
+      <c r="G7" s="69">
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="71">
         <f>SUMIF(A4:A17,H4,B4:B17)</f>
         <v>2</v>
       </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
@@ -16681,23 +16715,23 @@
         <v>10</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66">
+      <c r="F8" s="69"/>
+      <c r="G8" s="69">
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="45">
         <v>18</v>
       </c>
       <c r="C9" s="39"/>
@@ -16723,26 +16757,26 @@
         <v>25</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="81" t="s">
+      <c r="F10" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="82">
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="85">
         <f>SUM(D4:D17)</f>
         <v>420</v>
       </c>
-      <c r="J10" s="83"/>
+      <c r="J10" s="86"/>
       <c r="K10" s="18"/>
       <c r="P10" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="45">
         <v>0</v>
       </c>
       <c r="C11" s="39"/>
@@ -16751,11 +16785,11 @@
         <v>0</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="85"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="88"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16769,22 +16803,22 @@
       <c r="D12" s="42">
         <v>50</v>
       </c>
-      <c r="F12" s="86" t="s">
+      <c r="F12" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="74">
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="77">
         <f>SUM(B4:B17)</f>
         <v>40</v>
       </c>
-      <c r="J12" s="74"/>
+      <c r="J12" s="77"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="45">
         <v>0</v>
       </c>
       <c r="C13" s="39"/>
@@ -16792,11 +16826,11 @@
         <f>B13*5</f>
         <v>0</v>
       </c>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -16826,23 +16860,23 @@
       <c r="S14" s="8"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15" s="45">
         <v>0</v>
       </c>
-      <c r="C15" s="46"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="37">
         <f>B15*10</f>
         <v>0</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="103" t="s">
+      <c r="G15" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="103"/>
+      <c r="H15" s="106"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -16869,10 +16903,10 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="102">
+      <c r="G16" s="105">
         <v>0</v>
       </c>
-      <c r="H16" s="102"/>
+      <c r="H16" s="105"/>
       <c r="I16" s="19" t="s">
         <v>32</v>
       </c>
@@ -16888,13 +16922,13 @@
       <c r="S16" s="8"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="46">
+      <c r="B17" s="45">
         <v>5</v>
       </c>
-      <c r="C17" s="46"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="41">
         <f>B17*10</f>
         <v>50</v>
@@ -16922,8 +16956,13 @@
       <c r="C18" s="8"/>
       <c r="D18" s="28"/>
       <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
+      <c r="G18" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="60">
+        <f>420/30</f>
+        <v>14</v>
+      </c>
       <c r="I18" s="28"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -16939,7 +16978,7 @@
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="56"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="28"/>
       <c r="E19" s="8"/>
       <c r="F19" s="28"/>
@@ -16959,12 +16998,12 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
       <c r="F20" s="14"/>
-      <c r="G20" s="44"/>
+      <c r="G20" s="43"/>
       <c r="H20" s="8"/>
       <c r="I20" s="19" t="s">
         <v>35</v>
@@ -16983,9 +17022,9 @@
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="44"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="44"/>
+      <c r="E21" s="43"/>
       <c r="H21" s="8"/>
       <c r="I21" s="19" t="s">
         <v>25</v>
@@ -17003,9 +17042,9 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
       <c r="H22" s="8"/>
       <c r="I22" s="19" t="s">
         <v>19</v>
@@ -17023,7 +17062,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
-      <c r="C23" s="44"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="I23" s="19" t="s">
@@ -17062,7 +17101,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G18" sqref="G18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17072,6 +17111,7 @@
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.85546875" customWidth="1"/>
     <col min="13" max="13" width="4.5703125" customWidth="1"/>
@@ -17080,29 +17120,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -17118,14 +17158,14 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -17135,44 +17175,44 @@
         <v>1</v>
       </c>
       <c r="C4" s="26"/>
-      <c r="D4" s="59">
+      <c r="D4" s="58">
         <v>50</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="87" t="s">
+      <c r="F4" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="88"/>
-      <c r="H4" s="93" t="s">
+      <c r="G4" s="91"/>
+      <c r="H4" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="94"/>
-      <c r="J4" s="95"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="98"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="45">
         <v>1</v>
       </c>
       <c r="C5" s="40"/>
-      <c r="D5" s="59">
+      <c r="D5" s="58">
         <f>B5*5</f>
         <v>5</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="98"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="101"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
@@ -17182,46 +17222,46 @@
         <v>0</v>
       </c>
       <c r="C6" s="38"/>
-      <c r="D6" s="59"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="101"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="104"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="45">
         <v>11</v>
       </c>
       <c r="C7" s="39"/>
-      <c r="D7" s="59">
+      <c r="D7" s="58">
         <f>B7*10</f>
         <v>110</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="66">
+      <c r="G7" s="69">
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="71">
         <f>SUMIF(A4:A19,H4,B4:B19)</f>
         <v>6</v>
       </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
@@ -17231,29 +17271,29 @@
         <v>0</v>
       </c>
       <c r="C8" s="38"/>
-      <c r="D8" s="59"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66">
+      <c r="F8" s="69"/>
+      <c r="G8" s="69">
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="45">
         <v>25</v>
       </c>
       <c r="C9" s="39"/>
-      <c r="D9" s="59">
+      <c r="D9" s="58">
         <f>B9*10</f>
         <v>250</v>
       </c>
@@ -17270,41 +17310,41 @@
         <v>3</v>
       </c>
       <c r="C10" s="38"/>
-      <c r="D10" s="59">
+      <c r="D10" s="58">
         <f>B10*5</f>
         <v>15</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="81" t="s">
+      <c r="F10" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="82">
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="85">
         <f>SUM(D4:D17)</f>
         <v>575</v>
       </c>
-      <c r="J10" s="83"/>
+      <c r="J10" s="86"/>
       <c r="K10" s="18"/>
       <c r="P10" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="45">
         <v>0</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="37"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="85"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="88"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17318,22 +17358,22 @@
       <c r="D12" s="37">
         <v>120</v>
       </c>
-      <c r="F12" s="86" t="s">
+      <c r="F12" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="74">
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="77">
         <f>SUM(B4:B17)</f>
         <v>46</v>
       </c>
-      <c r="J12" s="74"/>
+      <c r="J12" s="77"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="45">
         <v>3</v>
       </c>
       <c r="C13" s="39"/>
@@ -17341,11 +17381,11 @@
         <f>B13*5</f>
         <v>15</v>
       </c>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -17373,20 +17413,20 @@
       <c r="S14" s="8"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15" s="45">
         <v>0</v>
       </c>
-      <c r="C15" s="46"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="37"/>
       <c r="E15" s="8"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="103" t="s">
+      <c r="G15" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="103"/>
+      <c r="H15" s="106"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -17407,13 +17447,13 @@
         <v>0</v>
       </c>
       <c r="C16" s="38"/>
-      <c r="D16" s="59"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="8"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="102">
+      <c r="G16" s="105">
         <v>0</v>
       </c>
-      <c r="H16" s="102"/>
+      <c r="H16" s="105"/>
       <c r="I16" s="19" t="s">
         <v>32</v>
       </c>
@@ -17429,14 +17469,14 @@
       <c r="S16" s="8"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="46">
+      <c r="B17" s="45">
         <v>1</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="59">
+      <c r="C17" s="45"/>
+      <c r="D17" s="58">
         <f>B17*10</f>
         <v>10</v>
       </c>
@@ -17465,13 +17505,18 @@
         <v>6</v>
       </c>
       <c r="C18" s="38"/>
-      <c r="D18" s="59">
+      <c r="D18" s="58">
         <f>B18*5</f>
         <v>30</v>
       </c>
       <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
+      <c r="G18" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="60">
+        <f>575/30</f>
+        <v>19.166666666666668</v>
+      </c>
       <c r="I18" s="28"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -17485,14 +17530,14 @@
       <c r="S18" s="8"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="46">
+      <c r="B19" s="45">
         <v>5</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="59">
+      <c r="C19" s="45"/>
+      <c r="D19" s="58">
         <f>B19*10</f>
         <v>50</v>
       </c>
@@ -17516,12 +17561,12 @@
       <c r="A20" s="8"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
       <c r="F20" s="14"/>
-      <c r="G20" s="44"/>
+      <c r="G20" s="43"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="58">
+      <c r="I20" s="57">
         <f>I18-I19</f>
         <v>0</v>
       </c>
@@ -17539,9 +17584,9 @@
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="44"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="44"/>
+      <c r="E21" s="43"/>
       <c r="H21" s="8"/>
       <c r="I21" s="19" t="s">
         <v>25</v>
@@ -17559,9 +17604,9 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
       <c r="H22" s="8"/>
       <c r="I22" s="19" t="s">
         <v>19</v>
@@ -17579,7 +17624,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
-      <c r="C23" s="44"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="I23" s="19" t="s">
@@ -17617,8 +17662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95ECF128-5189-43C1-BDE1-B3CE13E9EDE7}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17628,6 +17673,7 @@
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.85546875" customWidth="1"/>
     <col min="13" max="13" width="4.5703125" customWidth="1"/>
@@ -17636,29 +17682,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -17674,14 +17720,14 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -17689,37 +17735,37 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="26"/>
-      <c r="D4" s="59"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="87" t="s">
+      <c r="F4" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="88"/>
-      <c r="H4" s="93" t="s">
+      <c r="G4" s="91"/>
+      <c r="H4" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="94"/>
-      <c r="J4" s="95"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="98"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="40"/>
-      <c r="D5" s="59"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="98"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="101"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
@@ -17727,41 +17773,46 @@
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
-      <c r="D6" s="59"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="101"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="104"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="46"/>
+      <c r="B7" s="45">
+        <v>2</v>
+      </c>
       <c r="C7" s="39"/>
-      <c r="D7" s="59"/>
+      <c r="D7" s="58">
+        <f>B7*10</f>
+        <v>20</v>
+      </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="66">
+      <c r="G7" s="69">
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="71">
         <f>SUMIF(A4:A19,H4,B4:B19)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
@@ -17769,27 +17820,32 @@
       </c>
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
-      <c r="D8" s="59"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66">
+      <c r="F8" s="69"/>
+      <c r="G8" s="69">
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="46"/>
+      <c r="B9" s="45">
+        <v>1</v>
+      </c>
       <c r="C9" s="39"/>
-      <c r="D9" s="59"/>
+      <c r="D9" s="58">
+        <f>B9*10</f>
+        <v>10</v>
+      </c>
       <c r="E9" s="12"/>
       <c r="P9" s="19" t="s">
         <v>19</v>
@@ -17801,36 +17857,41 @@
       </c>
       <c r="B10" s="38"/>
       <c r="C10" s="38"/>
-      <c r="D10" s="59"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="81" t="s">
+      <c r="F10" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="82">
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="85">
         <f>SUM(D4:D17)</f>
-        <v>15</v>
-      </c>
-      <c r="J10" s="83"/>
+        <v>90</v>
+      </c>
+      <c r="J10" s="86"/>
       <c r="K10" s="18"/>
       <c r="P10" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="46"/>
+      <c r="B11" s="45">
+        <v>1</v>
+      </c>
       <c r="C11" s="39"/>
-      <c r="D11" s="37"/>
+      <c r="D11" s="37">
+        <f>B11*5</f>
+        <v>5</v>
+      </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="85"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="88"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17840,22 +17901,22 @@
       <c r="B12" s="38"/>
       <c r="C12" s="38"/>
       <c r="D12" s="37"/>
-      <c r="F12" s="86" t="s">
+      <c r="F12" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="74">
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="77">
         <f>SUM(B4:B17)</f>
-        <v>2</v>
-      </c>
-      <c r="J12" s="74"/>
+        <v>10</v>
+      </c>
+      <c r="J12" s="77"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="45">
         <v>1</v>
       </c>
       <c r="C13" s="39"/>
@@ -17863,11 +17924,11 @@
         <f>B13*5</f>
         <v>5</v>
       </c>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -17893,18 +17954,18 @@
       <c r="S14" s="8"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="37"/>
       <c r="E15" s="8"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="103" t="s">
+      <c r="G15" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="103"/>
+      <c r="H15" s="106"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -17921,15 +17982,20 @@
       <c r="A16" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="38"/>
+      <c r="B16" s="38">
+        <v>2</v>
+      </c>
       <c r="C16" s="38"/>
-      <c r="D16" s="59"/>
+      <c r="D16" s="58">
+        <f>B16*10</f>
+        <v>20</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="102">
-        <v>15</v>
-      </c>
-      <c r="H16" s="102"/>
+      <c r="G16" s="105">
+        <v>0</v>
+      </c>
+      <c r="H16" s="105"/>
       <c r="I16" s="19" t="s">
         <v>32</v>
       </c>
@@ -17945,16 +18011,16 @@
       <c r="S16" s="8"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="46">
-        <v>1</v>
-      </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="59">
+      <c r="B17" s="45">
+        <v>3</v>
+      </c>
+      <c r="C17" s="45"/>
+      <c r="D17" s="58">
         <f>B17*10</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="8"/>
@@ -17979,10 +18045,15 @@
       </c>
       <c r="B18" s="38"/>
       <c r="C18" s="38"/>
-      <c r="D18" s="59"/>
+      <c r="D18" s="58"/>
       <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
+      <c r="G18" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="60">
+        <f>I10/30</f>
+        <v>3</v>
+      </c>
       <c r="I18" s="28"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -17996,12 +18067,12 @@
       <c r="S18" s="8"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="59"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="8"/>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
@@ -18022,12 +18093,12 @@
       <c r="A20" s="8"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
       <c r="F20" s="14"/>
-      <c r="G20" s="44"/>
+      <c r="G20" s="43"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="58">
+      <c r="I20" s="57">
         <f>I18-I19</f>
         <v>0</v>
       </c>
@@ -18045,9 +18116,9 @@
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="44"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="44"/>
+      <c r="E21" s="43"/>
       <c r="H21" s="8"/>
       <c r="I21" s="19" t="s">
         <v>25</v>
@@ -18065,9 +18136,9 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
       <c r="H22" s="8"/>
       <c r="I22" s="19" t="s">
         <v>19</v>
@@ -18085,7 +18156,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
-      <c r="C23" s="44"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="I23" s="19" t="s">

--- a/Planilha_de_Negocios.xlsx
+++ b/Planilha_de_Negocios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Helena\Desktop\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C23A6D-E20C-4CAC-B461-8399E711577B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C59638-0F9A-4F95-95AD-0B11AD868A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="9" xr2:uid="{B93EFE28-CC56-4C9F-AA0A-2D1B24DC53D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="8" xr2:uid="{B93EFE28-CC56-4C9F-AA0A-2D1B24DC53D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="1" r:id="rId1"/>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="78">
   <si>
     <t>PLANILHA DE NEGÓCIOS</t>
   </si>
@@ -373,6 +373,18 @@
   <si>
     <t>LUCRO</t>
   </si>
+  <si>
+    <t>Chinelo</t>
+  </si>
+  <si>
+    <t>Almofada</t>
+  </si>
+  <si>
+    <t>Chaveiro</t>
+  </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
@@ -381,7 +393,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,6 +528,21 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -870,7 +897,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1010,6 +1037,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="20" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1034,6 +1064,12 @@
     <xf numFmtId="44" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1043,10 +1079,7 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="12" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1061,16 +1094,10 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1134,6 +1161,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1794,7 +1824,7 @@
                   <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>575</c:v>
+                  <c:v>655</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -6438,9 +6468,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Setembro - Cyber'!$A$4:$A$19</c:f>
+              <c:f>'Setembro - Cyber'!$A$4:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Logo</c:v>
                 </c:pt>
@@ -6488,33 +6518,81 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>Quadros - Mont.</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Chinelo</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Almofada</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Chaveiro</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Setembro - Cyber'!$B$4:$B$19</c:f>
+              <c:f>'Setembro - Cyber'!$B$4:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>3</c:v>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12589,14 +12667,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
@@ -12626,13 +12704,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>52386</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -13396,7 +13474,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="K3" sqref="K3:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13407,18 +13485,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
     </row>
     <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -13433,18 +13511,18 @@
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
       <c r="J3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -13459,19 +13537,19 @@
       <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="66">
+      <c r="F4" s="69">
         <f>SUMIF(A4:A13,"Caneca",B4:B13)</f>
         <v>10</v>
       </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="68">
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="71">
         <f>SUM(F4:I5)</f>
         <v>12</v>
       </c>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -13486,16 +13564,16 @@
       <c r="E5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="66">
+      <c r="F5" s="69">
         <f>SUMIF(A4:A13,"Toalha",B4:B13)</f>
         <v>2</v>
       </c>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -13507,8 +13585,8 @@
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -13523,8 +13601,8 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="8"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -13536,17 +13614,17 @@
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="69" t="s">
+      <c r="E8" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="70">
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="73">
         <v>120</v>
       </c>
-      <c r="I8" s="70"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
+      <c r="I8" s="73"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -13558,11 +13636,11 @@
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -13675,24 +13753,24 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7B6F8F-80EF-45A4-8662-DC3F0B83DB0E}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.5703125" customWidth="1"/>
+    <col min="3" max="3" width="1.5703125" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="107"/>
+      <c r="B1" s="110"/>
       <c r="D1" s="52" t="s">
         <v>59</v>
       </c>
@@ -13807,7 +13885,7 @@
         <v>54</v>
       </c>
       <c r="B9" s="54">
-        <v>575</v>
+        <v>655</v>
       </c>
       <c r="D9" s="52" t="s">
         <v>30</v>
@@ -13878,7 +13956,7 @@
       </c>
       <c r="B14" s="48">
         <f>SUM(B2:B13)</f>
-        <v>2605</v>
+        <v>2685</v>
       </c>
       <c r="D14" s="49" t="s">
         <v>11</v>
@@ -13902,6 +13980,11 @@
       <c r="E16" s="45">
         <f>SUM(E2:E15)</f>
         <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N21" s="65" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -13922,7 +14005,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="L3" sqref="L3:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13938,29 +14021,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -13976,14 +14059,14 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -14000,18 +14083,18 @@
         <v>20</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="71" t="s">
+      <c r="G4" s="72"/>
+      <c r="H4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -14028,14 +14111,14 @@
         <v>20</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -14052,22 +14135,22 @@
         <v>10</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="69">
+      <c r="G6" s="72">
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>4</v>
       </c>
-      <c r="H6" s="71">
+      <c r="H6" s="76">
         <f>SUMIF(A4:A11,H4,B4:B11)</f>
         <v>8</v>
       </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
       <c r="P6" s="19" t="s">
         <v>5</v>
       </c>
@@ -14087,17 +14170,17 @@
         <v>10</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69">
+      <c r="F7" s="72"/>
+      <c r="G7" s="72">
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>2</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
       <c r="P7" s="19" t="s">
         <v>13</v>
       </c>
@@ -14187,23 +14270,23 @@
         <f>10*B11</f>
         <v>50</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="71">
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="76">
         <f>SUM(B4:B11)</f>
         <v>18</v>
       </c>
-      <c r="J11" s="71"/>
+      <c r="J11" s="76"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
@@ -14329,11 +14412,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="L3:M7"/>
-    <mergeCell ref="F9:H10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="H4:J5"/>
-    <mergeCell ref="H6:J7"/>
     <mergeCell ref="F11:H12"/>
     <mergeCell ref="I11:J12"/>
     <mergeCell ref="F2:J3"/>
@@ -14341,6 +14419,11 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F4:G5"/>
     <mergeCell ref="F6:G7"/>
+    <mergeCell ref="L3:M7"/>
+    <mergeCell ref="F9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="H4:J5"/>
+    <mergeCell ref="H6:J7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4" xr:uid="{5D443FD3-8CE9-4AAE-8305-8CB39A6BEDA1}">
@@ -14359,7 +14442,7 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H6" sqref="H6:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14376,29 +14459,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -14414,18 +14497,18 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="O3" s="78" t="s">
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="O3" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="79"/>
+      <c r="P3" s="83"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -14442,18 +14525,18 @@
         <v>60</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="71" t="s">
+      <c r="G4" s="72"/>
+      <c r="H4" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
       <c r="O4" s="21" t="s">
         <v>5</v>
       </c>
@@ -14476,14 +14559,14 @@
         <v>40</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
       <c r="O5" s="23" t="s">
         <v>25</v>
       </c>
@@ -14506,22 +14589,22 @@
         <v>100</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="69">
+      <c r="G6" s="72">
         <f>SUMIF(A4:A10,"Medidas",B4:B10)</f>
         <v>12</v>
       </c>
-      <c r="H6" s="71">
+      <c r="H6" s="76">
         <f>SUMIF(A4:A10,H4,B4:B10)</f>
         <v>1</v>
       </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
       <c r="O6" s="21" t="s">
         <v>19</v>
       </c>
@@ -14544,17 +14627,17 @@
         <v>10</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69">
+      <c r="F7" s="72"/>
+      <c r="G7" s="72">
         <f>SUMIF(A4:A10,"Taça",B4:B10)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
       <c r="O7" s="23" t="s">
         <v>11</v>
       </c>
@@ -14588,11 +14671,11 @@
       </c>
       <c r="G9" s="74"/>
       <c r="H9" s="74"/>
-      <c r="I9" s="76">
+      <c r="I9" s="80">
         <f>SUM(D4:D10)</f>
         <v>220</v>
       </c>
-      <c r="J9" s="76"/>
+      <c r="J9" s="80"/>
       <c r="K9" s="18"/>
       <c r="P9" s="19" t="s">
         <v>11</v>
@@ -14607,8 +14690,8 @@
       <c r="F10" s="74"/>
       <c r="G10" s="74"/>
       <c r="H10" s="74"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14616,27 +14699,27 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="77">
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="81">
         <f>SUM(B4:B8)</f>
         <v>39</v>
       </c>
-      <c r="J11" s="77"/>
+      <c r="J11" s="81"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="20"/>
       <c r="C12" s="8"/>
       <c r="D12" s="28"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -14844,6 +14927,11 @@
     <sortCondition ref="I15:I19"/>
   </sortState>
   <mergeCells count="13">
+    <mergeCell ref="F9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="F11:H12"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="O3:P3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:J3"/>
@@ -14852,11 +14940,6 @@
     <mergeCell ref="H4:J5"/>
     <mergeCell ref="F6:G7"/>
     <mergeCell ref="H6:J7"/>
-    <mergeCell ref="F9:H10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="F11:H12"/>
-    <mergeCell ref="I11:J12"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:J5" xr:uid="{1712CE09-04EB-4B0D-B24B-941F4E27AD59}">
@@ -14875,7 +14958,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:G14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14893,29 +14976,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -14931,20 +15014,20 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="O3" s="82" t="s">
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="O3" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -14958,18 +15041,18 @@
         <v>50</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="71" t="s">
+      <c r="G4" s="72"/>
+      <c r="H4" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
       <c r="O4" s="33" t="s">
         <v>5</v>
       </c>
@@ -14996,14 +15079,14 @@
         <v>60</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
       <c r="O5" s="30" t="s">
         <v>25</v>
       </c>
@@ -15022,22 +15105,22 @@
         <v>0</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="69">
+      <c r="G6" s="72">
         <f>SUMIF(A4:A10,"Medidas",B4:B10)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="71">
+      <c r="H6" s="76">
         <f>SUMIF(A4:A10,H4,B4:B10)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
       <c r="O6" s="33" t="s">
         <v>19</v>
       </c>
@@ -15058,17 +15141,17 @@
         <v>10</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69">
+      <c r="F7" s="72"/>
+      <c r="G7" s="72">
         <f>SUMIF(A4:A10,"Taça",B4:B10)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
       <c r="O7" s="30" t="s">
         <v>11</v>
       </c>
@@ -15111,11 +15194,11 @@
       </c>
       <c r="G9" s="74"/>
       <c r="H9" s="74"/>
-      <c r="I9" s="76">
+      <c r="I9" s="80">
         <f>SUM(D4:D11)</f>
         <v>250</v>
       </c>
-      <c r="J9" s="76"/>
+      <c r="J9" s="80"/>
       <c r="K9" s="18"/>
       <c r="P9" s="19" t="s">
         <v>11</v>
@@ -15137,8 +15220,8 @@
       <c r="F10" s="74"/>
       <c r="G10" s="74"/>
       <c r="H10" s="74"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15152,27 +15235,27 @@
       <c r="D11" s="34">
         <v>100</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="77">
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="81">
         <f>SUM(B4:B11)</f>
         <v>16</v>
       </c>
-      <c r="J11" s="77"/>
+      <c r="J11" s="81"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="20"/>
       <c r="C12" s="8"/>
       <c r="D12" s="28"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -15393,11 +15476,6 @@
     <sortCondition ref="I15:I22"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="F9:H10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="F11:H12"/>
-    <mergeCell ref="I11:J12"/>
-    <mergeCell ref="O3:R3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:J3"/>
@@ -15406,6 +15484,11 @@
     <mergeCell ref="H4:J5"/>
     <mergeCell ref="F6:G7"/>
     <mergeCell ref="H6:J7"/>
+    <mergeCell ref="F9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="F11:H12"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="O3:R3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:J5" xr:uid="{EFDB1DE4-63DB-4F29-A62D-0BEC172F0B37}">
@@ -15423,7 +15506,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:H15"/>
+      <selection activeCell="I10" sqref="I10:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15441,29 +15524,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -15479,14 +15562,14 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -15501,18 +15584,18 @@
         <v>0</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="90" t="s">
+      <c r="F4" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="91"/>
-      <c r="H4" s="96" t="s">
+      <c r="G4" s="93"/>
+      <c r="H4" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="97"/>
-      <c r="J4" s="98"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="100"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
@@ -15527,14 +15610,14 @@
         <v>60</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="101"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="103"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
@@ -15549,14 +15632,14 @@
         <v>25</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="104"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="106"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
@@ -15571,22 +15654,22 @@
         <v>0</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="69">
+      <c r="G7" s="72">
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="71">
+      <c r="H7" s="76">
         <f>SUMIF(A4:A15,H4,B4:B15)</f>
         <v>3</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
@@ -15601,17 +15684,17 @@
         <v>15</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69">
+      <c r="F8" s="72"/>
+      <c r="G8" s="72">
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
@@ -15643,16 +15726,16 @@
         <v>45</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="84" t="s">
+      <c r="F10" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="85">
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="87">
         <f>SUM(D4:D15)</f>
         <v>390</v>
       </c>
-      <c r="J10" s="86"/>
+      <c r="J10" s="88"/>
       <c r="K10" s="18"/>
       <c r="P10" s="19" t="s">
         <v>11</v>
@@ -15671,11 +15754,11 @@
         <v>0</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="88"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="90"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15689,16 +15772,16 @@
       <c r="D12" s="42">
         <v>150</v>
       </c>
-      <c r="F12" s="89" t="s">
+      <c r="F12" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="77">
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="81">
         <f>SUM(B4:B15)</f>
         <v>35</v>
       </c>
-      <c r="J12" s="77"/>
+      <c r="J12" s="81"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
@@ -15711,11 +15794,11 @@
       <c r="D13" s="42">
         <v>20</v>
       </c>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -15937,18 +16020,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:J3"/>
+    <mergeCell ref="L3:M8"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="H7:J8"/>
     <mergeCell ref="F10:H11"/>
     <mergeCell ref="I10:J11"/>
     <mergeCell ref="F12:H13"/>
     <mergeCell ref="I12:J13"/>
     <mergeCell ref="F4:G6"/>
     <mergeCell ref="H4:J6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:J3"/>
-    <mergeCell ref="L3:M8"/>
-    <mergeCell ref="F7:G8"/>
-    <mergeCell ref="H7:J8"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:J6" xr:uid="{FF44085E-1C04-4ECF-B70C-29C4C7DECF28}">
@@ -15966,7 +16049,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:H18"/>
+      <selection activeCell="I12" sqref="I12:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15984,29 +16067,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -16022,11 +16105,11 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
       <c r="K3" s="14"/>
       <c r="L3" s="46"/>
       <c r="M3" s="46"/>
@@ -16044,15 +16127,15 @@
         <v>0</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="90" t="s">
+      <c r="F4" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="91"/>
-      <c r="H4" s="96" t="s">
+      <c r="G4" s="93"/>
+      <c r="H4" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="97"/>
-      <c r="J4" s="98"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="100"/>
       <c r="K4" s="1"/>
       <c r="L4" s="46"/>
       <c r="M4" s="46"/>
@@ -16070,11 +16153,11 @@
         <v>0</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="101"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="103"/>
       <c r="K5" s="1"/>
       <c r="L5" s="46"/>
       <c r="M5" s="46"/>
@@ -16092,11 +16175,11 @@
         <v>0</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="104"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="106"/>
       <c r="K6" s="1"/>
       <c r="L6" s="46"/>
       <c r="M6" s="46"/>
@@ -16114,19 +16197,19 @@
         <v>90</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="69">
+      <c r="G7" s="72">
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="71">
+      <c r="H7" s="76">
         <f>SUMIF(A4:A17,H4,B4:B17)</f>
         <v>2</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
       <c r="K7" s="1"/>
       <c r="L7" s="46"/>
       <c r="M7" s="46"/>
@@ -16144,14 +16227,14 @@
         <v>30</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69">
+      <c r="F8" s="72"/>
+      <c r="G8" s="72">
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
       <c r="K8" s="1"/>
       <c r="L8" s="46"/>
       <c r="M8" s="46"/>
@@ -16186,16 +16269,16 @@
         <v>15</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="84" t="s">
+      <c r="F10" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="85">
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="87">
         <f>SUM(D4:D17)</f>
         <v>480</v>
       </c>
-      <c r="J10" s="86"/>
+      <c r="J10" s="88"/>
       <c r="K10" s="18"/>
       <c r="P10" s="19" t="s">
         <v>11</v>
@@ -16214,11 +16297,11 @@
         <v>0</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="88"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="90"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16233,16 +16316,16 @@
         <f>B12*150</f>
         <v>150</v>
       </c>
-      <c r="F12" s="89" t="s">
+      <c r="F12" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="77">
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="81">
         <f>SUM(B4:B17)</f>
         <v>41</v>
       </c>
-      <c r="J12" s="77"/>
+      <c r="J12" s="81"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
@@ -16256,11 +16339,11 @@
         <f>B13*5</f>
         <v>20</v>
       </c>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -16303,10 +16386,10 @@
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="106" t="s">
+      <c r="G15" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="106"/>
+      <c r="H15" s="109"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -16333,10 +16416,10 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="105">
+      <c r="G16" s="108">
         <v>0</v>
       </c>
-      <c r="H16" s="105"/>
+      <c r="H16" s="108"/>
       <c r="I16" s="19" t="s">
         <v>32</v>
       </c>
@@ -16504,11 +16587,6 @@
     <sortCondition ref="A4:A16"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:J3"/>
-    <mergeCell ref="F4:G6"/>
-    <mergeCell ref="H4:J6"/>
     <mergeCell ref="F7:G8"/>
     <mergeCell ref="H7:J8"/>
     <mergeCell ref="G16:H16"/>
@@ -16517,6 +16595,11 @@
     <mergeCell ref="F12:H13"/>
     <mergeCell ref="I12:J13"/>
     <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:J3"/>
+    <mergeCell ref="F4:G6"/>
+    <mergeCell ref="H4:J6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:J6" xr:uid="{8B3E2138-7F7E-4A6D-8305-90FC4044B8AA}">
@@ -16537,7 +16620,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:H18"/>
+      <selection activeCell="I10" sqref="I10:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16555,29 +16638,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -16593,11 +16676,11 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
       <c r="K3" s="14"/>
       <c r="L3" s="46"/>
       <c r="M3" s="46"/>
@@ -16615,15 +16698,15 @@
         <v>0</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="90" t="s">
+      <c r="F4" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="91"/>
-      <c r="H4" s="96" t="s">
+      <c r="G4" s="93"/>
+      <c r="H4" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="97"/>
-      <c r="J4" s="98"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="100"/>
       <c r="K4" s="1"/>
       <c r="L4" s="46"/>
       <c r="M4" s="46"/>
@@ -16641,11 +16724,11 @@
         <v>20</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="101"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="103"/>
       <c r="K5" s="1"/>
       <c r="L5" s="46"/>
       <c r="M5" s="46"/>
@@ -16663,11 +16746,11 @@
         <v>25</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="104"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="106"/>
       <c r="K6" s="1"/>
       <c r="L6" s="46"/>
       <c r="M6" s="46"/>
@@ -16685,19 +16768,19 @@
         <v>60</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="69">
+      <c r="G7" s="72">
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="71">
+      <c r="H7" s="76">
         <f>SUMIF(A4:A17,H4,B4:B17)</f>
         <v>2</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
       <c r="K7" s="1"/>
       <c r="L7" s="46"/>
       <c r="M7" s="46"/>
@@ -16715,14 +16798,14 @@
         <v>10</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69">
+      <c r="F8" s="72"/>
+      <c r="G8" s="72">
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
       <c r="K8" s="1"/>
       <c r="L8" s="46"/>
       <c r="M8" s="46"/>
@@ -16757,16 +16840,16 @@
         <v>25</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="84" t="s">
+      <c r="F10" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="85">
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="87">
         <f>SUM(D4:D17)</f>
         <v>420</v>
       </c>
-      <c r="J10" s="86"/>
+      <c r="J10" s="88"/>
       <c r="K10" s="18"/>
       <c r="P10" s="19" t="s">
         <v>11</v>
@@ -16785,11 +16868,11 @@
         <v>0</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="88"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="90"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16803,16 +16886,16 @@
       <c r="D12" s="42">
         <v>50</v>
       </c>
-      <c r="F12" s="89" t="s">
+      <c r="F12" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="77">
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="81">
         <f>SUM(B4:B17)</f>
         <v>40</v>
       </c>
-      <c r="J12" s="77"/>
+      <c r="J12" s="81"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
@@ -16826,11 +16909,11 @@
         <f>B13*5</f>
         <v>0</v>
       </c>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -16873,10 +16956,10 @@
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="106" t="s">
+      <c r="G15" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="106"/>
+      <c r="H15" s="109"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -16903,10 +16986,10 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="105">
+      <c r="G16" s="108">
         <v>0</v>
       </c>
-      <c r="H16" s="105"/>
+      <c r="H16" s="108"/>
       <c r="I16" s="19" t="s">
         <v>32</v>
       </c>
@@ -16960,7 +17043,7 @@
         <v>73</v>
       </c>
       <c r="H18" s="60">
-        <f>420/30</f>
+        <f>I10/30</f>
         <v>14</v>
       </c>
       <c r="I18" s="28"/>
@@ -17101,7 +17184,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:H18"/>
+      <selection activeCell="A5" sqref="A5:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17120,29 +17203,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -17158,11 +17241,11 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
       <c r="K3" s="14"/>
       <c r="L3" s="46"/>
       <c r="M3" s="46"/>
@@ -17179,15 +17262,15 @@
         <v>50</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="90" t="s">
+      <c r="F4" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="91"/>
-      <c r="H4" s="96" t="s">
+      <c r="G4" s="93"/>
+      <c r="H4" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="97"/>
-      <c r="J4" s="98"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="100"/>
       <c r="K4" s="1"/>
       <c r="L4" s="46"/>
       <c r="M4" s="46"/>
@@ -17205,11 +17288,11 @@
         <v>5</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="101"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="103"/>
       <c r="K5" s="1"/>
       <c r="L5" s="46"/>
       <c r="M5" s="46"/>
@@ -17224,11 +17307,11 @@
       <c r="C6" s="38"/>
       <c r="D6" s="58"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="104"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="106"/>
       <c r="K6" s="1"/>
       <c r="L6" s="46"/>
       <c r="M6" s="46"/>
@@ -17246,19 +17329,19 @@
         <v>110</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="69">
+      <c r="G7" s="72">
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="71">
+      <c r="H7" s="76">
         <f>SUMIF(A4:A19,H4,B4:B19)</f>
         <v>6</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
       <c r="K7" s="1"/>
       <c r="L7" s="46"/>
       <c r="M7" s="46"/>
@@ -17273,14 +17356,14 @@
       <c r="C8" s="38"/>
       <c r="D8" s="58"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69">
+      <c r="F8" s="72"/>
+      <c r="G8" s="72">
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
       <c r="K8" s="1"/>
       <c r="L8" s="46"/>
       <c r="M8" s="46"/>
@@ -17315,16 +17398,16 @@
         <v>15</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="84" t="s">
+      <c r="F10" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="85">
-        <f>SUM(D4:D17)</f>
-        <v>575</v>
-      </c>
-      <c r="J10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="87">
+        <f>SUM(D4:D19)</f>
+        <v>655</v>
+      </c>
+      <c r="J10" s="88"/>
       <c r="K10" s="18"/>
       <c r="P10" s="19" t="s">
         <v>11</v>
@@ -17340,11 +17423,11 @@
       <c r="C11" s="39"/>
       <c r="D11" s="37"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="88"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="90"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17358,16 +17441,16 @@
       <c r="D12" s="37">
         <v>120</v>
       </c>
-      <c r="F12" s="89" t="s">
+      <c r="F12" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="77">
-        <f>SUM(B4:B17)</f>
-        <v>46</v>
-      </c>
-      <c r="J12" s="77"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="81">
+        <f>SUM(B4:B19)</f>
+        <v>57</v>
+      </c>
+      <c r="J12" s="81"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
@@ -17381,11 +17464,11 @@
         <f>B13*5</f>
         <v>15</v>
       </c>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -17423,10 +17506,10 @@
       <c r="D15" s="37"/>
       <c r="E15" s="8"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="106" t="s">
+      <c r="G15" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="106"/>
+      <c r="H15" s="109"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -17450,10 +17533,10 @@
       <c r="D16" s="58"/>
       <c r="E16" s="8"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="105">
+      <c r="G16" s="108">
         <v>0</v>
       </c>
-      <c r="H16" s="105"/>
+      <c r="H16" s="108"/>
       <c r="I16" s="19" t="s">
         <v>32</v>
       </c>
@@ -17514,8 +17597,8 @@
         <v>73</v>
       </c>
       <c r="H18" s="60">
-        <f>575/30</f>
-        <v>19.166666666666668</v>
+        <f>I10/30</f>
+        <v>21.833333333333332</v>
       </c>
       <c r="I18" s="28"/>
       <c r="J18" s="8"/>
@@ -17660,10 +17743,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95ECF128-5189-43C1-BDE1-B3CE13E9EDE7}">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17682,29 +17765,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -17720,11 +17803,11 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
       <c r="K3" s="14"/>
       <c r="L3" s="46"/>
       <c r="M3" s="46"/>
@@ -17733,19 +17816,21 @@
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
       <c r="C4" s="26"/>
       <c r="D4" s="58"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="90" t="s">
+      <c r="F4" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="91"/>
-      <c r="H4" s="96" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="97"/>
-      <c r="J4" s="98"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="99"/>
+      <c r="J4" s="100"/>
       <c r="K4" s="1"/>
       <c r="L4" s="46"/>
       <c r="M4" s="46"/>
@@ -17754,15 +17839,17 @@
       <c r="A5" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="45"/>
+      <c r="B5" s="45">
+        <v>0</v>
+      </c>
       <c r="C5" s="40"/>
       <c r="D5" s="58"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="101"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="103"/>
       <c r="K5" s="1"/>
       <c r="L5" s="46"/>
       <c r="M5" s="46"/>
@@ -17771,15 +17858,17 @@
       <c r="A6" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="38">
+        <v>0</v>
+      </c>
       <c r="C6" s="38"/>
       <c r="D6" s="58"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="104"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="106"/>
       <c r="K6" s="1"/>
       <c r="L6" s="46"/>
       <c r="M6" s="46"/>
@@ -17797,19 +17886,19 @@
         <v>20</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="69">
+      <c r="G7" s="72">
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="71">
-        <f>SUMIF(A4:A19,H4,B4:B19)</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
+      <c r="H7" s="76">
+        <f>SUMIF(A4:A22,H4,B4:B22)</f>
+        <v>12</v>
+      </c>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
       <c r="K7" s="1"/>
       <c r="L7" s="46"/>
       <c r="M7" s="46"/>
@@ -17818,18 +17907,20 @@
       <c r="A8" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="38">
+        <v>0</v>
+      </c>
       <c r="C8" s="38"/>
       <c r="D8" s="58"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69">
+      <c r="F8" s="72"/>
+      <c r="G8" s="72">
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
       <c r="K8" s="1"/>
       <c r="L8" s="46"/>
       <c r="M8" s="46"/>
@@ -17839,12 +17930,12 @@
         <v>39</v>
       </c>
       <c r="B9" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="39"/>
       <c r="D9" s="58">
         <f>B9*10</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E9" s="12"/>
       <c r="P9" s="19" t="s">
@@ -17855,20 +17946,25 @@
       <c r="A10" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="38">
+        <v>1</v>
+      </c>
       <c r="C10" s="38"/>
-      <c r="D10" s="58"/>
+      <c r="D10" s="58">
+        <f>B10*5</f>
+        <v>5</v>
+      </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="84" t="s">
+      <c r="F10" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="85">
-        <f>SUM(D4:D17)</f>
-        <v>90</v>
-      </c>
-      <c r="J10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="87">
+        <f>SUM(D4:D22)</f>
+        <v>220</v>
+      </c>
+      <c r="J10" s="88"/>
       <c r="K10" s="18"/>
       <c r="P10" s="19" t="s">
         <v>11</v>
@@ -17887,54 +17983,58 @@
         <v>5</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="88"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="90"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="38"/>
+      <c r="B12" s="38">
+        <v>0</v>
+      </c>
       <c r="C12" s="38"/>
       <c r="D12" s="37"/>
-      <c r="F12" s="89" t="s">
+      <c r="F12" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="77">
-        <f>SUM(B4:B17)</f>
-        <v>10</v>
-      </c>
-      <c r="J12" s="77"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="81">
+        <f>SUM(B4:B22)</f>
+        <v>32</v>
+      </c>
+      <c r="J12" s="81"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="37">
         <f>B13*5</f>
-        <v>5</v>
-      </c>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
+        <v>20</v>
+      </c>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="38">
+        <v>0</v>
+      </c>
       <c r="C14" s="38"/>
       <c r="D14" s="37"/>
       <c r="E14" s="8"/>
@@ -17957,15 +18057,17 @@
       <c r="A15" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="45"/>
+      <c r="B15" s="45">
+        <v>0</v>
+      </c>
       <c r="C15" s="45"/>
       <c r="D15" s="37"/>
       <c r="E15" s="8"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="106" t="s">
+      <c r="G15" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="106"/>
+      <c r="H15" s="109"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -17983,19 +18085,19 @@
         <v>11</v>
       </c>
       <c r="B16" s="38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="58">
         <f>B16*10</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="105">
-        <v>0</v>
-      </c>
-      <c r="H16" s="105"/>
+      <c r="G16" s="108">
+        <v>10</v>
+      </c>
+      <c r="H16" s="108"/>
       <c r="I16" s="19" t="s">
         <v>32</v>
       </c>
@@ -18015,15 +18117,15 @@
         <v>66</v>
       </c>
       <c r="B17" s="45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="45"/>
       <c r="D17" s="58">
         <f>B17*10</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F17" s="20"/>
-      <c r="G17" s="8"/>
+      <c r="G17" s="63"/>
       <c r="H17" s="8"/>
       <c r="I17" s="19" t="s">
         <v>5</v>
@@ -18043,7 +18145,9 @@
       <c r="A18" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="38"/>
+      <c r="B18" s="38">
+        <v>0</v>
+      </c>
       <c r="C18" s="38"/>
       <c r="D18" s="58"/>
       <c r="F18" s="28"/>
@@ -18052,7 +18156,7 @@
       </c>
       <c r="H18" s="60">
         <f>I10/30</f>
-        <v>3</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="I18" s="28"/>
       <c r="J18" s="8"/>
@@ -18070,7 +18174,9 @@
       <c r="A19" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="45"/>
+      <c r="B19" s="45">
+        <v>0</v>
+      </c>
       <c r="C19" s="45"/>
       <c r="D19" s="58"/>
       <c r="E19" s="8"/>
@@ -18090,10 +18196,17 @@
       <c r="S19" s="8"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="44"/>
+      <c r="A20" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="38">
+        <v>1</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="58">
+        <f>B20*10</f>
+        <v>10</v>
+      </c>
       <c r="E20" s="44"/>
       <c r="F20" s="14"/>
       <c r="G20" s="43"/>
@@ -18114,10 +18227,17 @@
       <c r="S20" s="8"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="14"/>
+      <c r="A21" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="45">
+        <v>2</v>
+      </c>
+      <c r="C21" s="45"/>
+      <c r="D21" s="58">
+        <f>B21*5</f>
+        <v>10</v>
+      </c>
       <c r="E21" s="43"/>
       <c r="H21" s="8"/>
       <c r="I21" s="19" t="s">
@@ -18135,9 +18255,17 @@
       <c r="S21" s="8"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
+      <c r="A22" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="38">
+        <v>12</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="58">
+        <f>B22*5</f>
+        <v>60</v>
+      </c>
       <c r="E22" s="43"/>
       <c r="H22" s="8"/>
       <c r="I22" s="19" t="s">
@@ -18162,6 +18290,9 @@
       <c r="I23" s="19" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J25" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -18181,7 +18312,7 @@
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:J6" xr:uid="{5D6BEB5A-6C5B-4E25-95EA-AD933D5CC0B3}">
-      <formula1>$A$4:$A$18</formula1>
+      <formula1>$A$4:$A$22</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Planilha_de_Negocios.xlsx
+++ b/Planilha_de_Negocios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Helena\Desktop\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C59638-0F9A-4F95-95AD-0B11AD868A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79A026E-7459-4813-AEEC-F126E2B4516C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="8" xr2:uid="{B93EFE28-CC56-4C9F-AA0A-2D1B24DC53D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="9" xr2:uid="{B93EFE28-CC56-4C9F-AA0A-2D1B24DC53D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="Julho - Cyber" sheetId="9" r:id="rId7"/>
     <sheet name="Agosto - Cyber" sheetId="10" r:id="rId8"/>
     <sheet name="Setembro - Cyber" sheetId="11" r:id="rId9"/>
-    <sheet name="Lucros do Período 2024" sheetId="8" r:id="rId10"/>
+    <sheet name="Outubro - Cyber" sheetId="12" r:id="rId10"/>
+    <sheet name="Lucros do Período 2024" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -150,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="79">
   <si>
     <t>PLANILHA DE NEGÓCIOS</t>
   </si>
@@ -384,6 +385,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Caderneta</t>
   </si>
 </sst>
 </file>
@@ -897,7 +901,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1040,6 +1044,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1569,6 +1576,480 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Desempenho SETEMBRO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> 2024</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Outubro - Cyber'!$A$4:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Logo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Adesivo</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C. Visita</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Camiseta - R$ 10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Camiseta - R$ 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Caneca - R$ 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Caneca - R$ 5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Imã</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Manutenção</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Medida</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Panfleto</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Taça</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Toalha</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Tag</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Quadros</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Quadros - Mont.</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Chinelo</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Almofada</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Chaveiro</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Caderneta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Outubro - Cyber'!$B$4:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A2EC-43FD-A18B-EAD5E78F4711}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="1713961616"/>
+        <c:axId val="1713989936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1713961616"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1713989936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1713989936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1713961616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="106"/>
     </mc:Choice>
     <mc:Fallback>
@@ -1650,7 +2131,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.8533779734226141E-2"/>
+          <c:y val="0.13779522588238394"/>
+          <c:w val="0.89997015727364793"/>
+          <c:h val="0.8238605422758194"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -1827,7 +2318,7 @@
                   <c:v>655</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>385</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1988,7 +2479,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -6468,9 +6959,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Setembro - Cyber'!$A$4:$A$22</c:f>
+              <c:f>'Setembro - Cyber'!$A$4:$A$23</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>Logo</c:v>
                 </c:pt>
@@ -6527,16 +7018,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>Chaveiro</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Caderneta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Setembro - Cyber'!$B$4:$B$22</c:f>
+              <c:f>'Setembro - Cyber'!$B$4:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6553,7 +7047,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -6562,10 +7056,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -6577,13 +7071,13 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1</c:v>
@@ -6593,6 +7087,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6785,12 +7282,52 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
 </cs:colorStyle>
@@ -8604,6 +9141,502 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
   <cs:axisTitle>
@@ -12668,7 +13701,50 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7134C9CB-3660-4F18-A701-CF8ADD84DA03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
@@ -12704,13 +13780,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>47626</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>52386</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>352426</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -13474,7 +14550,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:L8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13485,18 +14561,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
     </row>
     <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -13511,18 +14587,18 @@
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
       <c r="J3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -13537,19 +14613,19 @@
       <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="69">
+      <c r="F4" s="70">
         <f>SUMIF(A4:A13,"Caneca",B4:B13)</f>
         <v>10</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="71">
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="72">
         <f>SUM(F4:I5)</f>
         <v>12</v>
       </c>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -13564,16 +14640,16 @@
       <c r="E5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="69">
+      <c r="F5" s="70">
         <f>SUMIF(A4:A13,"Toalha",B4:B13)</f>
         <v>2</v>
       </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -13585,8 +14661,8 @@
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -13601,8 +14677,8 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="8"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -13614,17 +14690,17 @@
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="72" t="s">
+      <c r="E8" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="73">
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="74">
         <v>120</v>
       </c>
-      <c r="I8" s="73"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
+      <c r="I8" s="74"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -13636,11 +14712,11 @@
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -13752,25 +14828,614 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF070A3E-E571-4812-987A-C4A1A7260529}">
+  <dimension ref="A1:S25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+    </row>
+    <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="94"/>
+      <c r="H4" s="99" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="100"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="58">
+        <f>B7*10</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="73">
+        <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="77">
+        <f>SUMIF(A4:A23,H4,B4:B23)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73">
+        <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="58">
+        <f>B9*10</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="P9" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="58">
+        <f>B10*5</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="88">
+        <f>SUM(D4:D23)</f>
+        <v>10</v>
+      </c>
+      <c r="J10" s="89"/>
+      <c r="K10" s="18"/>
+      <c r="P10" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="37">
+        <f>B11*5</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="37"/>
+      <c r="F12" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="82">
+        <f>SUM(B4:B22)</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="82"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="37">
+        <f>B13*5</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="110"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="58">
+        <f>B16*10</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="109">
+        <v>10</v>
+      </c>
+      <c r="H16" s="109"/>
+      <c r="I16" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="45"/>
+      <c r="D17" s="58">
+        <f>B17*10</f>
+        <v>10</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="58"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="60">
+        <f>I10/30</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I18" s="28"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="45"/>
+      <c r="D19" s="58">
+        <f>B19*10</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="58">
+        <f>B20*10</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="44"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="57">
+        <f>I18-I19</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="45"/>
+      <c r="D21" s="58">
+        <f>B21*5</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="43"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="58">
+        <f>B22*5</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="43"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="37">
+        <f>B23*5</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="I23" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J25" s="64"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="F10:H11"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="F12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:J3"/>
+    <mergeCell ref="F4:G6"/>
+    <mergeCell ref="H4:J6"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="H7:J8"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:J6" xr:uid="{0598E18A-59CC-4B94-AA94-DBED249E290B}">
+      <formula1>$A$4:$A$23</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7B6F8F-80EF-45A4-8662-DC3F0B83DB0E}">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="1.5703125" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="111"/>
       <c r="D1" s="52" t="s">
         <v>59</v>
       </c>
@@ -13899,7 +15564,7 @@
         <v>55</v>
       </c>
       <c r="B10" s="51">
-        <v>0</v>
+        <v>385</v>
       </c>
       <c r="D10" s="49" t="s">
         <v>35</v>
@@ -13956,7 +15621,7 @@
       </c>
       <c r="B14" s="48">
         <f>SUM(B2:B13)</f>
-        <v>2685</v>
+        <v>3070</v>
       </c>
       <c r="D14" s="49" t="s">
         <v>11</v>
@@ -14021,29 +15686,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -14059,14 +15724,14 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -14083,18 +15748,18 @@
         <v>20</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="76" t="s">
+      <c r="G4" s="73"/>
+      <c r="H4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -14111,14 +15776,14 @@
         <v>20</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -14135,22 +15800,22 @@
         <v>10</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="72" t="s">
+      <c r="F6" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="72">
+      <c r="G6" s="73">
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>4</v>
       </c>
-      <c r="H6" s="76">
+      <c r="H6" s="77">
         <f>SUMIF(A4:A11,H4,B4:B11)</f>
         <v>8</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
       <c r="P6" s="19" t="s">
         <v>5</v>
       </c>
@@ -14170,17 +15835,17 @@
         <v>10</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72">
+      <c r="F7" s="73"/>
+      <c r="G7" s="73">
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>2</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
       <c r="P7" s="19" t="s">
         <v>13</v>
       </c>
@@ -14219,16 +15884,16 @@
         <v>10</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="74" t="s">
+      <c r="F9" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="75">
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="76">
         <f>SUM(D4:D11)</f>
         <v>150</v>
       </c>
-      <c r="J9" s="75"/>
+      <c r="J9" s="76"/>
       <c r="K9" s="18"/>
       <c r="P9" s="19" t="s">
         <v>11</v>
@@ -14249,11 +15914,11 @@
         <v>10</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14270,23 +15935,23 @@
         <f>10*B11</f>
         <v>50</v>
       </c>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="76">
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="77">
         <f>SUM(B4:B11)</f>
         <v>18</v>
       </c>
-      <c r="J11" s="76"/>
+      <c r="J11" s="77"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
@@ -14459,29 +16124,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -14497,18 +16162,18 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="O3" s="82" t="s">
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="O3" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="83"/>
+      <c r="P3" s="84"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -14525,18 +16190,18 @@
         <v>60</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="76" t="s">
+      <c r="G4" s="73"/>
+      <c r="H4" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
       <c r="O4" s="21" t="s">
         <v>5</v>
       </c>
@@ -14559,14 +16224,14 @@
         <v>40</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
       <c r="O5" s="23" t="s">
         <v>25</v>
       </c>
@@ -14589,22 +16254,22 @@
         <v>100</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="72" t="s">
+      <c r="F6" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="72">
+      <c r="G6" s="73">
         <f>SUMIF(A4:A10,"Medidas",B4:B10)</f>
         <v>12</v>
       </c>
-      <c r="H6" s="76">
+      <c r="H6" s="77">
         <f>SUMIF(A4:A10,H4,B4:B10)</f>
         <v>1</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
       <c r="O6" s="21" t="s">
         <v>19</v>
       </c>
@@ -14627,17 +16292,17 @@
         <v>10</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72">
+      <c r="F7" s="73"/>
+      <c r="G7" s="73">
         <f>SUMIF(A4:A10,"Taça",B4:B10)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
       <c r="O7" s="23" t="s">
         <v>11</v>
       </c>
@@ -14666,16 +16331,16 @@
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="12"/>
-      <c r="F9" s="74" t="s">
+      <c r="F9" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="80">
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="81">
         <f>SUM(D4:D10)</f>
         <v>220</v>
       </c>
-      <c r="J9" s="80"/>
+      <c r="J9" s="81"/>
       <c r="K9" s="18"/>
       <c r="P9" s="19" t="s">
         <v>11</v>
@@ -14687,11 +16352,11 @@
       <c r="C10" s="20"/>
       <c r="D10" s="27"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14699,27 +16364,27 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="81">
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="82">
         <f>SUM(B4:B8)</f>
         <v>39</v>
       </c>
-      <c r="J11" s="81"/>
+      <c r="J11" s="82"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="20"/>
       <c r="C12" s="8"/>
       <c r="D12" s="28"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -14976,29 +16641,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -15014,20 +16679,20 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="O3" s="84" t="s">
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="O3" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -15041,18 +16706,18 @@
         <v>50</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="76" t="s">
+      <c r="G4" s="73"/>
+      <c r="H4" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
       <c r="O4" s="33" t="s">
         <v>5</v>
       </c>
@@ -15079,14 +16744,14 @@
         <v>60</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
       <c r="O5" s="30" t="s">
         <v>25</v>
       </c>
@@ -15105,22 +16770,22 @@
         <v>0</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="72" t="s">
+      <c r="F6" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="72">
+      <c r="G6" s="73">
         <f>SUMIF(A4:A10,"Medidas",B4:B10)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="76">
+      <c r="H6" s="77">
         <f>SUMIF(A4:A10,H4,B4:B10)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
       <c r="O6" s="33" t="s">
         <v>19</v>
       </c>
@@ -15141,17 +16806,17 @@
         <v>10</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72">
+      <c r="F7" s="73"/>
+      <c r="G7" s="73">
         <f>SUMIF(A4:A10,"Taça",B4:B10)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
       <c r="O7" s="30" t="s">
         <v>11</v>
       </c>
@@ -15189,16 +16854,16 @@
         <v>10</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="74" t="s">
+      <c r="F9" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="80">
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="81">
         <f>SUM(D4:D11)</f>
         <v>250</v>
       </c>
-      <c r="J9" s="80"/>
+      <c r="J9" s="81"/>
       <c r="K9" s="18"/>
       <c r="P9" s="19" t="s">
         <v>11</v>
@@ -15217,11 +16882,11 @@
         <v>5</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15235,27 +16900,27 @@
       <c r="D11" s="34">
         <v>100</v>
       </c>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="81">
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="82">
         <f>SUM(B4:B11)</f>
         <v>16</v>
       </c>
-      <c r="J11" s="81"/>
+      <c r="J11" s="82"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="20"/>
       <c r="C12" s="8"/>
       <c r="D12" s="28"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -15524,29 +17189,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -15562,14 +17227,14 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -15584,18 +17249,18 @@
         <v>0</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="92" t="s">
+      <c r="F4" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="93"/>
-      <c r="H4" s="98" t="s">
+      <c r="G4" s="94"/>
+      <c r="H4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="99"/>
-      <c r="J4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="101"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
@@ -15610,14 +17275,14 @@
         <v>60</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="103"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="104"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
@@ -15632,14 +17297,14 @@
         <v>25</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="106"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="107"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
@@ -15654,22 +17319,22 @@
         <v>0</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="72" t="s">
+      <c r="F7" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="72">
+      <c r="G7" s="73">
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="76">
+      <c r="H7" s="77">
         <f>SUMIF(A4:A15,H4,B4:B15)</f>
         <v>3</v>
       </c>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
@@ -15684,17 +17349,17 @@
         <v>15</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72">
+      <c r="F8" s="73"/>
+      <c r="G8" s="73">
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
@@ -15726,16 +17391,16 @@
         <v>45</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="86" t="s">
+      <c r="F10" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="87">
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="88">
         <f>SUM(D4:D15)</f>
         <v>390</v>
       </c>
-      <c r="J10" s="88"/>
+      <c r="J10" s="89"/>
       <c r="K10" s="18"/>
       <c r="P10" s="19" t="s">
         <v>11</v>
@@ -15754,11 +17419,11 @@
         <v>0</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="90"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="91"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15772,16 +17437,16 @@
       <c r="D12" s="42">
         <v>150</v>
       </c>
-      <c r="F12" s="91" t="s">
+      <c r="F12" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="81">
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="82">
         <f>SUM(B4:B15)</f>
         <v>35</v>
       </c>
-      <c r="J12" s="81"/>
+      <c r="J12" s="82"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
@@ -15794,11 +17459,11 @@
       <c r="D13" s="42">
         <v>20</v>
       </c>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -16067,29 +17732,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -16105,11 +17770,11 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
       <c r="K3" s="14"/>
       <c r="L3" s="46"/>
       <c r="M3" s="46"/>
@@ -16127,15 +17792,15 @@
         <v>0</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="92" t="s">
+      <c r="F4" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="93"/>
-      <c r="H4" s="98" t="s">
+      <c r="G4" s="94"/>
+      <c r="H4" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="99"/>
-      <c r="J4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="101"/>
       <c r="K4" s="1"/>
       <c r="L4" s="46"/>
       <c r="M4" s="46"/>
@@ -16153,11 +17818,11 @@
         <v>0</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="103"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="104"/>
       <c r="K5" s="1"/>
       <c r="L5" s="46"/>
       <c r="M5" s="46"/>
@@ -16175,11 +17840,11 @@
         <v>0</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="106"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="107"/>
       <c r="K6" s="1"/>
       <c r="L6" s="46"/>
       <c r="M6" s="46"/>
@@ -16197,19 +17862,19 @@
         <v>90</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="72" t="s">
+      <c r="F7" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="72">
+      <c r="G7" s="73">
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="76">
+      <c r="H7" s="77">
         <f>SUMIF(A4:A17,H4,B4:B17)</f>
         <v>2</v>
       </c>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
       <c r="K7" s="1"/>
       <c r="L7" s="46"/>
       <c r="M7" s="46"/>
@@ -16227,14 +17892,14 @@
         <v>30</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72">
+      <c r="F8" s="73"/>
+      <c r="G8" s="73">
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
       <c r="K8" s="1"/>
       <c r="L8" s="46"/>
       <c r="M8" s="46"/>
@@ -16269,16 +17934,16 @@
         <v>15</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="86" t="s">
+      <c r="F10" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="87">
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="88">
         <f>SUM(D4:D17)</f>
         <v>480</v>
       </c>
-      <c r="J10" s="88"/>
+      <c r="J10" s="89"/>
       <c r="K10" s="18"/>
       <c r="P10" s="19" t="s">
         <v>11</v>
@@ -16297,11 +17962,11 @@
         <v>0</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="90"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="91"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16316,16 +17981,16 @@
         <f>B12*150</f>
         <v>150</v>
       </c>
-      <c r="F12" s="91" t="s">
+      <c r="F12" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="81">
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="82">
         <f>SUM(B4:B17)</f>
         <v>41</v>
       </c>
-      <c r="J12" s="81"/>
+      <c r="J12" s="82"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
@@ -16339,11 +18004,11 @@
         <f>B13*5</f>
         <v>20</v>
       </c>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -16386,10 +18051,10 @@
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="109" t="s">
+      <c r="G15" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="109"/>
+      <c r="H15" s="110"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -16416,10 +18081,10 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="108">
+      <c r="G16" s="109">
         <v>0</v>
       </c>
-      <c r="H16" s="108"/>
+      <c r="H16" s="109"/>
       <c r="I16" s="19" t="s">
         <v>32</v>
       </c>
@@ -16638,29 +18303,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -16676,11 +18341,11 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
       <c r="K3" s="14"/>
       <c r="L3" s="46"/>
       <c r="M3" s="46"/>
@@ -16698,15 +18363,15 @@
         <v>0</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="92" t="s">
+      <c r="F4" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="93"/>
-      <c r="H4" s="98" t="s">
+      <c r="G4" s="94"/>
+      <c r="H4" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="99"/>
-      <c r="J4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="101"/>
       <c r="K4" s="1"/>
       <c r="L4" s="46"/>
       <c r="M4" s="46"/>
@@ -16724,11 +18389,11 @@
         <v>20</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="103"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="104"/>
       <c r="K5" s="1"/>
       <c r="L5" s="46"/>
       <c r="M5" s="46"/>
@@ -16746,11 +18411,11 @@
         <v>25</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="106"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="107"/>
       <c r="K6" s="1"/>
       <c r="L6" s="46"/>
       <c r="M6" s="46"/>
@@ -16768,19 +18433,19 @@
         <v>60</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="72" t="s">
+      <c r="F7" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="72">
+      <c r="G7" s="73">
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="76">
+      <c r="H7" s="77">
         <f>SUMIF(A4:A17,H4,B4:B17)</f>
         <v>2</v>
       </c>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
       <c r="K7" s="1"/>
       <c r="L7" s="46"/>
       <c r="M7" s="46"/>
@@ -16798,14 +18463,14 @@
         <v>10</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72">
+      <c r="F8" s="73"/>
+      <c r="G8" s="73">
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
       <c r="K8" s="1"/>
       <c r="L8" s="46"/>
       <c r="M8" s="46"/>
@@ -16840,16 +18505,16 @@
         <v>25</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="86" t="s">
+      <c r="F10" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="87">
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="88">
         <f>SUM(D4:D17)</f>
         <v>420</v>
       </c>
-      <c r="J10" s="88"/>
+      <c r="J10" s="89"/>
       <c r="K10" s="18"/>
       <c r="P10" s="19" t="s">
         <v>11</v>
@@ -16868,11 +18533,11 @@
         <v>0</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="90"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="91"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16886,16 +18551,16 @@
       <c r="D12" s="42">
         <v>50</v>
       </c>
-      <c r="F12" s="91" t="s">
+      <c r="F12" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="81">
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="82">
         <f>SUM(B4:B17)</f>
         <v>40</v>
       </c>
-      <c r="J12" s="81"/>
+      <c r="J12" s="82"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
@@ -16909,11 +18574,11 @@
         <f>B13*5</f>
         <v>0</v>
       </c>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -16956,10 +18621,10 @@
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="109" t="s">
+      <c r="G15" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="109"/>
+      <c r="H15" s="110"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -16986,10 +18651,10 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="108">
+      <c r="G16" s="109">
         <v>0</v>
       </c>
-      <c r="H16" s="108"/>
+      <c r="H16" s="109"/>
       <c r="I16" s="19" t="s">
         <v>32</v>
       </c>
@@ -17184,7 +18849,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A19"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17203,29 +18868,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -17241,11 +18906,11 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
       <c r="K3" s="14"/>
       <c r="L3" s="46"/>
       <c r="M3" s="46"/>
@@ -17262,15 +18927,15 @@
         <v>50</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="92" t="s">
+      <c r="F4" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="93"/>
-      <c r="H4" s="98" t="s">
+      <c r="G4" s="94"/>
+      <c r="H4" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="99"/>
-      <c r="J4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="101"/>
       <c r="K4" s="1"/>
       <c r="L4" s="46"/>
       <c r="M4" s="46"/>
@@ -17288,11 +18953,11 @@
         <v>5</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="103"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="104"/>
       <c r="K5" s="1"/>
       <c r="L5" s="46"/>
       <c r="M5" s="46"/>
@@ -17307,11 +18972,11 @@
       <c r="C6" s="38"/>
       <c r="D6" s="58"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="106"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="107"/>
       <c r="K6" s="1"/>
       <c r="L6" s="46"/>
       <c r="M6" s="46"/>
@@ -17329,19 +18994,19 @@
         <v>110</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="72" t="s">
+      <c r="F7" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="72">
+      <c r="G7" s="73">
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="76">
+      <c r="H7" s="77">
         <f>SUMIF(A4:A19,H4,B4:B19)</f>
         <v>6</v>
       </c>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
       <c r="K7" s="1"/>
       <c r="L7" s="46"/>
       <c r="M7" s="46"/>
@@ -17356,14 +19021,14 @@
       <c r="C8" s="38"/>
       <c r="D8" s="58"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72">
+      <c r="F8" s="73"/>
+      <c r="G8" s="73">
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
       <c r="K8" s="1"/>
       <c r="L8" s="46"/>
       <c r="M8" s="46"/>
@@ -17398,16 +19063,16 @@
         <v>15</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="86" t="s">
+      <c r="F10" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="87">
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="88">
         <f>SUM(D4:D19)</f>
         <v>655</v>
       </c>
-      <c r="J10" s="88"/>
+      <c r="J10" s="89"/>
       <c r="K10" s="18"/>
       <c r="P10" s="19" t="s">
         <v>11</v>
@@ -17423,11 +19088,11 @@
       <c r="C11" s="39"/>
       <c r="D11" s="37"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="90"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="91"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17441,16 +19106,16 @@
       <c r="D12" s="37">
         <v>120</v>
       </c>
-      <c r="F12" s="91" t="s">
+      <c r="F12" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="81">
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="82">
         <f>SUM(B4:B19)</f>
         <v>57</v>
       </c>
-      <c r="J12" s="81"/>
+      <c r="J12" s="82"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
@@ -17464,11 +19129,11 @@
         <f>B13*5</f>
         <v>15</v>
       </c>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -17506,10 +19171,10 @@
       <c r="D15" s="37"/>
       <c r="E15" s="8"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="109" t="s">
+      <c r="G15" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="109"/>
+      <c r="H15" s="110"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -17533,10 +19198,10 @@
       <c r="D16" s="58"/>
       <c r="E16" s="8"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="108">
+      <c r="G16" s="109">
         <v>0</v>
       </c>
-      <c r="H16" s="108"/>
+      <c r="H16" s="109"/>
       <c r="I16" s="19" t="s">
         <v>32</v>
       </c>
@@ -17745,8 +19410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95ECF128-5189-43C1-BDE1-B3CE13E9EDE7}">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17765,29 +19430,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -17803,11 +19468,11 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
       <c r="K3" s="14"/>
       <c r="L3" s="46"/>
       <c r="M3" s="46"/>
@@ -17822,15 +19487,15 @@
       <c r="C4" s="26"/>
       <c r="D4" s="58"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="92" t="s">
+      <c r="F4" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="93"/>
-      <c r="H4" s="98" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="99"/>
-      <c r="J4" s="100"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="99" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="100"/>
+      <c r="J4" s="101"/>
       <c r="K4" s="1"/>
       <c r="L4" s="46"/>
       <c r="M4" s="46"/>
@@ -17845,11 +19510,11 @@
       <c r="C5" s="40"/>
       <c r="D5" s="58"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="103"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="104"/>
       <c r="K5" s="1"/>
       <c r="L5" s="46"/>
       <c r="M5" s="46"/>
@@ -17864,11 +19529,11 @@
       <c r="C6" s="38"/>
       <c r="D6" s="58"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="106"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="107"/>
       <c r="K6" s="1"/>
       <c r="L6" s="46"/>
       <c r="M6" s="46"/>
@@ -17886,19 +19551,19 @@
         <v>20</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="72" t="s">
+      <c r="F7" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="72">
+      <c r="G7" s="73">
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="76">
-        <f>SUMIF(A4:A22,H4,B4:B22)</f>
-        <v>12</v>
-      </c>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
+      <c r="H7" s="77">
+        <f>SUMIF(A4:A23,H4,B4:B23)</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
       <c r="K7" s="1"/>
       <c r="L7" s="46"/>
       <c r="M7" s="46"/>
@@ -17913,14 +19578,14 @@
       <c r="C8" s="38"/>
       <c r="D8" s="58"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72">
+      <c r="F8" s="73"/>
+      <c r="G8" s="73">
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
       <c r="K8" s="1"/>
       <c r="L8" s="46"/>
       <c r="M8" s="46"/>
@@ -17930,12 +19595,12 @@
         <v>39</v>
       </c>
       <c r="B9" s="45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="39"/>
       <c r="D9" s="58">
         <f>B9*10</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E9" s="12"/>
       <c r="P9" s="19" t="s">
@@ -17955,16 +19620,16 @@
         <v>5</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="86" t="s">
+      <c r="F10" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="87">
-        <f>SUM(D4:D22)</f>
-        <v>220</v>
-      </c>
-      <c r="J10" s="88"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="88">
+        <f>SUM(D4:D23)</f>
+        <v>385</v>
+      </c>
+      <c r="J10" s="89"/>
       <c r="K10" s="18"/>
       <c r="P10" s="19" t="s">
         <v>11</v>
@@ -17983,11 +19648,11 @@
         <v>5</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="90"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="91"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17995,38 +19660,40 @@
         <v>35</v>
       </c>
       <c r="B12" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="38"/>
-      <c r="D12" s="37"/>
-      <c r="F12" s="91" t="s">
+      <c r="D12" s="37">
+        <v>100</v>
+      </c>
+      <c r="F12" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="81">
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="82">
         <f>SUM(B4:B22)</f>
-        <v>32</v>
-      </c>
-      <c r="J12" s="81"/>
+        <v>40</v>
+      </c>
+      <c r="J12" s="82"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="45">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="37">
         <f>B13*5</f>
-        <v>20</v>
-      </c>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
+        <v>35</v>
+      </c>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -18064,10 +19731,10 @@
       <c r="D15" s="37"/>
       <c r="E15" s="8"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="109" t="s">
+      <c r="G15" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="109"/>
+      <c r="H15" s="110"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -18094,10 +19761,10 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="108">
-        <v>10</v>
-      </c>
-      <c r="H16" s="108"/>
+      <c r="G16" s="109">
+        <v>0</v>
+      </c>
+      <c r="H16" s="109"/>
       <c r="I16" s="19" t="s">
         <v>32</v>
       </c>
@@ -18117,12 +19784,12 @@
         <v>66</v>
       </c>
       <c r="B17" s="45">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C17" s="45"/>
       <c r="D17" s="58">
         <f>B17*10</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="63"/>
@@ -18156,7 +19823,7 @@
       </c>
       <c r="H18" s="60">
         <f>I10/30</f>
-        <v>7.333333333333333</v>
+        <v>12.833333333333334</v>
       </c>
       <c r="I18" s="28"/>
       <c r="J18" s="8"/>
@@ -18175,10 +19842,13 @@
         <v>71</v>
       </c>
       <c r="B19" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="45"/>
-      <c r="D19" s="58"/>
+      <c r="D19" s="58">
+        <f>B19*10</f>
+        <v>10</v>
+      </c>
       <c r="E19" s="8"/>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
@@ -18240,9 +19910,7 @@
       </c>
       <c r="E21" s="43"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="19" t="s">
-        <v>25</v>
-      </c>
+      <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
@@ -18268,9 +19936,7 @@
       </c>
       <c r="E22" s="43"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="19" t="s">
-        <v>19</v>
-      </c>
+      <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
@@ -18283,9 +19949,17 @@
       <c r="S22" s="8"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="14"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="14"/>
+      <c r="A23" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="45">
+        <v>2</v>
+      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="37">
+        <f>B23*5</f>
+        <v>10</v>
+      </c>
       <c r="E23" s="14"/>
       <c r="I23" s="19" t="s">
         <v>11</v>
@@ -18312,7 +19986,7 @@
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:J6" xr:uid="{5D6BEB5A-6C5B-4E25-95EA-AD933D5CC0B3}">
-      <formula1>$A$4:$A$22</formula1>
+      <formula1>$A$4:$A$23</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Planilha_de_Negocios.xlsx
+++ b/Planilha_de_Negocios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Helena\Desktop\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79A026E-7459-4813-AEEC-F126E2B4516C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1707A422-674E-4885-8508-F05CE578995B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="9" xr2:uid="{B93EFE28-CC56-4C9F-AA0A-2D1B24DC53D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="10" xr2:uid="{B93EFE28-CC56-4C9F-AA0A-2D1B24DC53D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="80">
   <si>
     <t>PLANILHA DE NEGÓCIOS</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t>Caderneta</t>
+  </si>
+  <si>
+    <t>Banner</t>
   </si>
 </sst>
 </file>
@@ -743,7 +746,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -896,12 +899,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1047,6 +1063,15 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1071,12 +1096,6 @@
     <xf numFmtId="44" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1086,7 +1105,10 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="12" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1101,10 +1123,16 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1168,9 +1196,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1761,9 +1786,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Outubro - Cyber'!$A$4:$A$23</c:f>
+              <c:f>'Outubro - Cyber'!$A$4:$A$24</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>Logo</c:v>
                 </c:pt>
@@ -1823,16 +1848,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>Caderneta</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Banner</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Outubro - Cyber'!$B$4:$B$23</c:f>
+              <c:f>'Outubro - Cyber'!$B$4:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1843,13 +1871,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1873,7 +1901,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -1892,6 +1920,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13746,13 +13777,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14561,18 +14592,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
     </row>
     <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -14587,18 +14618,18 @@
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
       <c r="J3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -14613,19 +14644,19 @@
       <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="70">
+      <c r="F4" s="73">
         <f>SUMIF(A4:A13,"Caneca",B4:B13)</f>
         <v>10</v>
       </c>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="72">
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="75">
         <f>SUM(F4:I5)</f>
         <v>12</v>
       </c>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -14640,16 +14671,16 @@
       <c r="E5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="70">
+      <c r="F5" s="73">
         <f>SUMIF(A4:A13,"Toalha",B4:B13)</f>
         <v>2</v>
       </c>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -14661,8 +14692,8 @@
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -14677,8 +14708,8 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="8"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -14690,17 +14721,17 @@
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="73" t="s">
+      <c r="E8" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="74">
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="77">
         <v>120</v>
       </c>
-      <c r="I8" s="74"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
+      <c r="I8" s="77"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -14712,11 +14743,11 @@
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -14831,7 +14862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF070A3E-E571-4812-987A-C4A1A7260529}">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -14851,29 +14882,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -14889,11 +14920,11 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
       <c r="K3" s="14"/>
       <c r="L3" s="46"/>
       <c r="M3" s="46"/>
@@ -14908,15 +14939,15 @@
       <c r="C4" s="26"/>
       <c r="D4" s="58"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="93" t="s">
+      <c r="F4" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="94"/>
-      <c r="H4" s="99" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="100"/>
-      <c r="J4" s="101"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="103" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="104"/>
+      <c r="J4" s="105"/>
       <c r="K4" s="1"/>
       <c r="L4" s="46"/>
       <c r="M4" s="46"/>
@@ -14931,11 +14962,11 @@
       <c r="C5" s="40"/>
       <c r="D5" s="58"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="104"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="108"/>
       <c r="K5" s="1"/>
       <c r="L5" s="46"/>
       <c r="M5" s="46"/>
@@ -14950,11 +14981,11 @@
       <c r="C6" s="38"/>
       <c r="D6" s="58"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="107"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="111"/>
       <c r="K6" s="1"/>
       <c r="L6" s="46"/>
       <c r="M6" s="46"/>
@@ -14964,27 +14995,27 @@
         <v>44</v>
       </c>
       <c r="B7" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C7" s="39"/>
       <c r="D7" s="58">
         <f>B7*10</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="73">
+      <c r="G7" s="76">
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="77">
-        <f>SUMIF(A4:A23,H4,B4:B23)</f>
+      <c r="H7" s="78">
+        <f>SUMIF(A4:A24,H4,B4:B24)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
       <c r="K7" s="1"/>
       <c r="L7" s="46"/>
       <c r="M7" s="46"/>
@@ -14999,14 +15030,14 @@
       <c r="C8" s="38"/>
       <c r="D8" s="58"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73">
+      <c r="F8" s="76"/>
+      <c r="G8" s="76">
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
       <c r="K8" s="1"/>
       <c r="L8" s="46"/>
       <c r="M8" s="46"/>
@@ -15016,12 +15047,12 @@
         <v>39</v>
       </c>
       <c r="B9" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C9" s="39"/>
       <c r="D9" s="58">
         <f>B9*10</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E9" s="12"/>
       <c r="P9" s="19" t="s">
@@ -15041,16 +15072,16 @@
         <v>0</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="87" t="s">
+      <c r="F10" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="88">
-        <f>SUM(D4:D23)</f>
-        <v>10</v>
-      </c>
-      <c r="J10" s="89"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="92">
+        <f>SUM(D4:D24)</f>
+        <v>180</v>
+      </c>
+      <c r="J10" s="93"/>
       <c r="K10" s="18"/>
       <c r="P10" s="19" t="s">
         <v>11</v>
@@ -15069,11 +15100,11 @@
         <v>0</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="95"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15085,16 +15116,16 @@
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="37"/>
-      <c r="F12" s="92" t="s">
+      <c r="F12" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="82">
-        <f>SUM(B4:B22)</f>
-        <v>1</v>
-      </c>
-      <c r="J12" s="82"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="84">
+        <f>SUM(B4:B24)</f>
+        <v>15</v>
+      </c>
+      <c r="J12" s="84"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
@@ -15108,11 +15139,11 @@
         <f>B13*5</f>
         <v>0</v>
       </c>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -15150,10 +15181,10 @@
       <c r="D15" s="37"/>
       <c r="E15" s="8"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="110" t="s">
+      <c r="G15" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="110"/>
+      <c r="H15" s="113"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -15180,10 +15211,10 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="109">
-        <v>10</v>
-      </c>
-      <c r="H16" s="109"/>
+      <c r="G16" s="112">
+        <v>110</v>
+      </c>
+      <c r="H16" s="112"/>
       <c r="I16" s="19" t="s">
         <v>32</v>
       </c>
@@ -15203,12 +15234,12 @@
         <v>66</v>
       </c>
       <c r="B17" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17" s="45"/>
       <c r="D17" s="58">
         <f>B17*10</f>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="63"/>
@@ -15242,7 +15273,7 @@
       </c>
       <c r="H18" s="60">
         <f>I10/30</f>
-        <v>0.33333333333333331</v>
+        <v>6</v>
       </c>
       <c r="I18" s="28"/>
       <c r="J18" s="8"/>
@@ -15371,11 +15402,11 @@
       <c r="A23" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="67">
         <v>0</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="37">
+      <c r="C23" s="68"/>
+      <c r="D23" s="69">
         <f>B23*5</f>
         <v>0</v>
       </c>
@@ -15384,16 +15415,24 @@
         <v>11</v>
       </c>
     </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="38"/>
+      <c r="D24" s="69">
+        <f>B24*40</f>
+        <v>40</v>
+      </c>
+    </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J25" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F10:H11"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="F12:H13"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -15402,10 +15441,15 @@
     <mergeCell ref="H4:J6"/>
     <mergeCell ref="F7:G8"/>
     <mergeCell ref="H7:J8"/>
+    <mergeCell ref="F10:H11"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="F12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="G15:H15"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:J6" xr:uid="{0598E18A-59CC-4B94-AA94-DBED249E290B}">
-      <formula1>$A$4:$A$23</formula1>
+      <formula1>$A$4:$A$24</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -15418,8 +15462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7B6F8F-80EF-45A4-8662-DC3F0B83DB0E}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15432,10 +15476,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="111"/>
+      <c r="B1" s="114"/>
       <c r="D1" s="52" t="s">
         <v>59</v>
       </c>
@@ -15686,29 +15730,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -15724,14 +15768,14 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -15748,18 +15792,18 @@
         <v>20</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="77" t="s">
+      <c r="G4" s="76"/>
+      <c r="H4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -15776,14 +15820,14 @@
         <v>20</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -15800,22 +15844,22 @@
         <v>10</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="73" t="s">
+      <c r="F6" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="73">
+      <c r="G6" s="76">
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>4</v>
       </c>
-      <c r="H6" s="77">
+      <c r="H6" s="78">
         <f>SUMIF(A4:A11,H4,B4:B11)</f>
         <v>8</v>
       </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
       <c r="P6" s="19" t="s">
         <v>5</v>
       </c>
@@ -15835,17 +15879,17 @@
         <v>10</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73">
+      <c r="F7" s="76"/>
+      <c r="G7" s="76">
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>2</v>
       </c>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
       <c r="P7" s="19" t="s">
         <v>13</v>
       </c>
@@ -15884,16 +15928,16 @@
         <v>10</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="76">
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="82">
         <f>SUM(D4:D11)</f>
         <v>150</v>
       </c>
-      <c r="J9" s="76"/>
+      <c r="J9" s="82"/>
       <c r="K9" s="18"/>
       <c r="P9" s="19" t="s">
         <v>11</v>
@@ -15914,11 +15958,11 @@
         <v>10</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15935,23 +15979,23 @@
         <f>10*B11</f>
         <v>50</v>
       </c>
-      <c r="F11" s="73" t="s">
+      <c r="F11" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="77">
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="78">
         <f>SUM(B4:B11)</f>
         <v>18</v>
       </c>
-      <c r="J11" s="77"/>
+      <c r="J11" s="78"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
@@ -16077,6 +16121,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="L3:M7"/>
+    <mergeCell ref="F9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="H4:J5"/>
+    <mergeCell ref="H6:J7"/>
     <mergeCell ref="F11:H12"/>
     <mergeCell ref="I11:J12"/>
     <mergeCell ref="F2:J3"/>
@@ -16084,11 +16133,6 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F4:G5"/>
     <mergeCell ref="F6:G7"/>
-    <mergeCell ref="L3:M7"/>
-    <mergeCell ref="F9:H10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="H4:J5"/>
-    <mergeCell ref="H6:J7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4" xr:uid="{5D443FD3-8CE9-4AAE-8305-8CB39A6BEDA1}">
@@ -16124,29 +16168,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -16162,18 +16206,18 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="O3" s="83" t="s">
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="O3" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="84"/>
+      <c r="P3" s="86"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -16190,18 +16234,18 @@
         <v>60</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="77" t="s">
+      <c r="G4" s="76"/>
+      <c r="H4" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
       <c r="O4" s="21" t="s">
         <v>5</v>
       </c>
@@ -16224,14 +16268,14 @@
         <v>40</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
       <c r="O5" s="23" t="s">
         <v>25</v>
       </c>
@@ -16254,22 +16298,22 @@
         <v>100</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="73" t="s">
+      <c r="F6" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="73">
+      <c r="G6" s="76">
         <f>SUMIF(A4:A10,"Medidas",B4:B10)</f>
         <v>12</v>
       </c>
-      <c r="H6" s="77">
+      <c r="H6" s="78">
         <f>SUMIF(A4:A10,H4,B4:B10)</f>
         <v>1</v>
       </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
       <c r="O6" s="21" t="s">
         <v>19</v>
       </c>
@@ -16292,17 +16336,17 @@
         <v>10</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73">
+      <c r="F7" s="76"/>
+      <c r="G7" s="76">
         <f>SUMIF(A4:A10,"Taça",B4:B10)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
       <c r="O7" s="23" t="s">
         <v>11</v>
       </c>
@@ -16331,16 +16375,16 @@
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="12"/>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="81">
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="83">
         <f>SUM(D4:D10)</f>
         <v>220</v>
       </c>
-      <c r="J9" s="81"/>
+      <c r="J9" s="83"/>
       <c r="K9" s="18"/>
       <c r="P9" s="19" t="s">
         <v>11</v>
@@ -16352,11 +16396,11 @@
       <c r="C10" s="20"/>
       <c r="D10" s="27"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16364,27 +16408,27 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="F11" s="73" t="s">
+      <c r="F11" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="82">
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="84">
         <f>SUM(B4:B8)</f>
         <v>39</v>
       </c>
-      <c r="J11" s="82"/>
+      <c r="J11" s="84"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="20"/>
       <c r="C12" s="8"/>
       <c r="D12" s="28"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -16592,11 +16636,6 @@
     <sortCondition ref="I15:I19"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="F9:H10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="F11:H12"/>
-    <mergeCell ref="I11:J12"/>
-    <mergeCell ref="O3:P3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:J3"/>
@@ -16605,6 +16644,11 @@
     <mergeCell ref="H4:J5"/>
     <mergeCell ref="F6:G7"/>
     <mergeCell ref="H6:J7"/>
+    <mergeCell ref="F9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="F11:H12"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:J5" xr:uid="{1712CE09-04EB-4B0D-B24B-941F4E27AD59}">
@@ -16641,29 +16685,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -16679,20 +16723,20 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="O3" s="85" t="s">
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="O3" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -16706,18 +16750,18 @@
         <v>50</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="77" t="s">
+      <c r="G4" s="76"/>
+      <c r="H4" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
       <c r="O4" s="33" t="s">
         <v>5</v>
       </c>
@@ -16744,14 +16788,14 @@
         <v>60</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
       <c r="O5" s="30" t="s">
         <v>25</v>
       </c>
@@ -16770,22 +16814,22 @@
         <v>0</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="73" t="s">
+      <c r="F6" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="73">
+      <c r="G6" s="76">
         <f>SUMIF(A4:A10,"Medidas",B4:B10)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="77">
+      <c r="H6" s="78">
         <f>SUMIF(A4:A10,H4,B4:B10)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
       <c r="O6" s="33" t="s">
         <v>19</v>
       </c>
@@ -16806,17 +16850,17 @@
         <v>10</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73">
+      <c r="F7" s="76"/>
+      <c r="G7" s="76">
         <f>SUMIF(A4:A10,"Taça",B4:B10)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
       <c r="O7" s="30" t="s">
         <v>11</v>
       </c>
@@ -16854,16 +16898,16 @@
         <v>10</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="81">
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="83">
         <f>SUM(D4:D11)</f>
         <v>250</v>
       </c>
-      <c r="J9" s="81"/>
+      <c r="J9" s="83"/>
       <c r="K9" s="18"/>
       <c r="P9" s="19" t="s">
         <v>11</v>
@@ -16882,11 +16926,11 @@
         <v>5</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16900,27 +16944,27 @@
       <c r="D11" s="34">
         <v>100</v>
       </c>
-      <c r="F11" s="73" t="s">
+      <c r="F11" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="82">
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="84">
         <f>SUM(B4:B11)</f>
         <v>16</v>
       </c>
-      <c r="J11" s="82"/>
+      <c r="J11" s="84"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="20"/>
       <c r="C12" s="8"/>
       <c r="D12" s="28"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -17141,6 +17185,11 @@
     <sortCondition ref="I15:I22"/>
   </sortState>
   <mergeCells count="13">
+    <mergeCell ref="F9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="F11:H12"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="O3:R3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:J3"/>
@@ -17149,11 +17198,6 @@
     <mergeCell ref="H4:J5"/>
     <mergeCell ref="F6:G7"/>
     <mergeCell ref="H6:J7"/>
-    <mergeCell ref="F9:H10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="F11:H12"/>
-    <mergeCell ref="I11:J12"/>
-    <mergeCell ref="O3:R3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:J5" xr:uid="{EFDB1DE4-63DB-4F29-A62D-0BEC172F0B37}">
@@ -17189,29 +17233,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -17227,14 +17271,14 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -17249,18 +17293,18 @@
         <v>0</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="93" t="s">
+      <c r="F4" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="94"/>
-      <c r="H4" s="99" t="s">
+      <c r="G4" s="98"/>
+      <c r="H4" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="100"/>
-      <c r="J4" s="101"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="105"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
@@ -17275,14 +17319,14 @@
         <v>60</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="104"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="108"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
@@ -17297,14 +17341,14 @@
         <v>25</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="107"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="111"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
@@ -17319,22 +17363,22 @@
         <v>0</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="73">
+      <c r="G7" s="76">
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="77">
+      <c r="H7" s="78">
         <f>SUMIF(A4:A15,H4,B4:B15)</f>
         <v>3</v>
       </c>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
@@ -17349,17 +17393,17 @@
         <v>15</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73">
+      <c r="F8" s="76"/>
+      <c r="G8" s="76">
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
@@ -17391,16 +17435,16 @@
         <v>45</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="87" t="s">
+      <c r="F10" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="88">
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="92">
         <f>SUM(D4:D15)</f>
         <v>390</v>
       </c>
-      <c r="J10" s="89"/>
+      <c r="J10" s="93"/>
       <c r="K10" s="18"/>
       <c r="P10" s="19" t="s">
         <v>11</v>
@@ -17419,11 +17463,11 @@
         <v>0</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="95"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17437,16 +17481,16 @@
       <c r="D12" s="42">
         <v>150</v>
       </c>
-      <c r="F12" s="92" t="s">
+      <c r="F12" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="82">
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="84">
         <f>SUM(B4:B15)</f>
         <v>35</v>
       </c>
-      <c r="J12" s="82"/>
+      <c r="J12" s="84"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
@@ -17459,11 +17503,11 @@
       <c r="D13" s="42">
         <v>20</v>
       </c>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -17685,18 +17729,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F10:H11"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="F12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="F4:G6"/>
+    <mergeCell ref="H4:J6"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:J3"/>
     <mergeCell ref="L3:M8"/>
     <mergeCell ref="F7:G8"/>
     <mergeCell ref="H7:J8"/>
-    <mergeCell ref="F10:H11"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="F12:H13"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="F4:G6"/>
-    <mergeCell ref="H4:J6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:J6" xr:uid="{FF44085E-1C04-4ECF-B70C-29C4C7DECF28}">
@@ -17732,29 +17776,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -17770,11 +17814,11 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
       <c r="K3" s="14"/>
       <c r="L3" s="46"/>
       <c r="M3" s="46"/>
@@ -17792,15 +17836,15 @@
         <v>0</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="93" t="s">
+      <c r="F4" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="94"/>
-      <c r="H4" s="99" t="s">
+      <c r="G4" s="98"/>
+      <c r="H4" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="100"/>
-      <c r="J4" s="101"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="105"/>
       <c r="K4" s="1"/>
       <c r="L4" s="46"/>
       <c r="M4" s="46"/>
@@ -17818,11 +17862,11 @@
         <v>0</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="104"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="108"/>
       <c r="K5" s="1"/>
       <c r="L5" s="46"/>
       <c r="M5" s="46"/>
@@ -17840,11 +17884,11 @@
         <v>0</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="107"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="111"/>
       <c r="K6" s="1"/>
       <c r="L6" s="46"/>
       <c r="M6" s="46"/>
@@ -17862,19 +17906,19 @@
         <v>90</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="73">
+      <c r="G7" s="76">
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="77">
+      <c r="H7" s="78">
         <f>SUMIF(A4:A17,H4,B4:B17)</f>
         <v>2</v>
       </c>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
       <c r="K7" s="1"/>
       <c r="L7" s="46"/>
       <c r="M7" s="46"/>
@@ -17892,14 +17936,14 @@
         <v>30</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73">
+      <c r="F8" s="76"/>
+      <c r="G8" s="76">
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
       <c r="K8" s="1"/>
       <c r="L8" s="46"/>
       <c r="M8" s="46"/>
@@ -17934,16 +17978,16 @@
         <v>15</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="87" t="s">
+      <c r="F10" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="88">
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="92">
         <f>SUM(D4:D17)</f>
         <v>480</v>
       </c>
-      <c r="J10" s="89"/>
+      <c r="J10" s="93"/>
       <c r="K10" s="18"/>
       <c r="P10" s="19" t="s">
         <v>11</v>
@@ -17962,11 +18006,11 @@
         <v>0</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="95"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17981,16 +18025,16 @@
         <f>B12*150</f>
         <v>150</v>
       </c>
-      <c r="F12" s="92" t="s">
+      <c r="F12" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="82">
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="84">
         <f>SUM(B4:B17)</f>
         <v>41</v>
       </c>
-      <c r="J12" s="82"/>
+      <c r="J12" s="84"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
@@ -18004,11 +18048,11 @@
         <f>B13*5</f>
         <v>20</v>
       </c>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -18051,10 +18095,10 @@
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="110" t="s">
+      <c r="G15" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="110"/>
+      <c r="H15" s="113"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -18081,10 +18125,10 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="109">
+      <c r="G16" s="112">
         <v>0</v>
       </c>
-      <c r="H16" s="109"/>
+      <c r="H16" s="112"/>
       <c r="I16" s="19" t="s">
         <v>32</v>
       </c>
@@ -18252,6 +18296,11 @@
     <sortCondition ref="A4:A16"/>
   </sortState>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:J3"/>
+    <mergeCell ref="F4:G6"/>
+    <mergeCell ref="H4:J6"/>
     <mergeCell ref="F7:G8"/>
     <mergeCell ref="H7:J8"/>
     <mergeCell ref="G16:H16"/>
@@ -18260,11 +18309,6 @@
     <mergeCell ref="F12:H13"/>
     <mergeCell ref="I12:J13"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:J3"/>
-    <mergeCell ref="F4:G6"/>
-    <mergeCell ref="H4:J6"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:J6" xr:uid="{8B3E2138-7F7E-4A6D-8305-90FC4044B8AA}">
@@ -18303,29 +18347,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -18341,11 +18385,11 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
       <c r="K3" s="14"/>
       <c r="L3" s="46"/>
       <c r="M3" s="46"/>
@@ -18363,15 +18407,15 @@
         <v>0</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="93" t="s">
+      <c r="F4" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="94"/>
-      <c r="H4" s="99" t="s">
+      <c r="G4" s="98"/>
+      <c r="H4" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="100"/>
-      <c r="J4" s="101"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="105"/>
       <c r="K4" s="1"/>
       <c r="L4" s="46"/>
       <c r="M4" s="46"/>
@@ -18389,11 +18433,11 @@
         <v>20</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="104"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="108"/>
       <c r="K5" s="1"/>
       <c r="L5" s="46"/>
       <c r="M5" s="46"/>
@@ -18411,11 +18455,11 @@
         <v>25</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="107"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="111"/>
       <c r="K6" s="1"/>
       <c r="L6" s="46"/>
       <c r="M6" s="46"/>
@@ -18433,19 +18477,19 @@
         <v>60</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="73">
+      <c r="G7" s="76">
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="77">
+      <c r="H7" s="78">
         <f>SUMIF(A4:A17,H4,B4:B17)</f>
         <v>2</v>
       </c>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
       <c r="K7" s="1"/>
       <c r="L7" s="46"/>
       <c r="M7" s="46"/>
@@ -18463,14 +18507,14 @@
         <v>10</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73">
+      <c r="F8" s="76"/>
+      <c r="G8" s="76">
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
       <c r="K8" s="1"/>
       <c r="L8" s="46"/>
       <c r="M8" s="46"/>
@@ -18505,16 +18549,16 @@
         <v>25</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="87" t="s">
+      <c r="F10" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="88">
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="92">
         <f>SUM(D4:D17)</f>
         <v>420</v>
       </c>
-      <c r="J10" s="89"/>
+      <c r="J10" s="93"/>
       <c r="K10" s="18"/>
       <c r="P10" s="19" t="s">
         <v>11</v>
@@ -18533,11 +18577,11 @@
         <v>0</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="95"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18551,16 +18595,16 @@
       <c r="D12" s="42">
         <v>50</v>
       </c>
-      <c r="F12" s="92" t="s">
+      <c r="F12" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="82">
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="84">
         <f>SUM(B4:B17)</f>
         <v>40</v>
       </c>
-      <c r="J12" s="82"/>
+      <c r="J12" s="84"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
@@ -18574,11 +18618,11 @@
         <f>B13*5</f>
         <v>0</v>
       </c>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -18621,10 +18665,10 @@
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="110" t="s">
+      <c r="G15" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="110"/>
+      <c r="H15" s="113"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -18651,10 +18695,10 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="109">
+      <c r="G16" s="112">
         <v>0</v>
       </c>
-      <c r="H16" s="109"/>
+      <c r="H16" s="112"/>
       <c r="I16" s="19" t="s">
         <v>32</v>
       </c>
@@ -18868,29 +18912,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -18906,11 +18950,11 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
       <c r="K3" s="14"/>
       <c r="L3" s="46"/>
       <c r="M3" s="46"/>
@@ -18927,15 +18971,15 @@
         <v>50</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="93" t="s">
+      <c r="F4" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="94"/>
-      <c r="H4" s="99" t="s">
+      <c r="G4" s="98"/>
+      <c r="H4" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="100"/>
-      <c r="J4" s="101"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="105"/>
       <c r="K4" s="1"/>
       <c r="L4" s="46"/>
       <c r="M4" s="46"/>
@@ -18953,11 +18997,11 @@
         <v>5</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="104"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="108"/>
       <c r="K5" s="1"/>
       <c r="L5" s="46"/>
       <c r="M5" s="46"/>
@@ -18972,11 +19016,11 @@
       <c r="C6" s="38"/>
       <c r="D6" s="58"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="107"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="111"/>
       <c r="K6" s="1"/>
       <c r="L6" s="46"/>
       <c r="M6" s="46"/>
@@ -18994,19 +19038,19 @@
         <v>110</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="73">
+      <c r="G7" s="76">
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="77">
+      <c r="H7" s="78">
         <f>SUMIF(A4:A19,H4,B4:B19)</f>
         <v>6</v>
       </c>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
       <c r="K7" s="1"/>
       <c r="L7" s="46"/>
       <c r="M7" s="46"/>
@@ -19021,14 +19065,14 @@
       <c r="C8" s="38"/>
       <c r="D8" s="58"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73">
+      <c r="F8" s="76"/>
+      <c r="G8" s="76">
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
       <c r="K8" s="1"/>
       <c r="L8" s="46"/>
       <c r="M8" s="46"/>
@@ -19063,16 +19107,16 @@
         <v>15</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="87" t="s">
+      <c r="F10" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="88">
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="92">
         <f>SUM(D4:D19)</f>
         <v>655</v>
       </c>
-      <c r="J10" s="89"/>
+      <c r="J10" s="93"/>
       <c r="K10" s="18"/>
       <c r="P10" s="19" t="s">
         <v>11</v>
@@ -19088,11 +19132,11 @@
       <c r="C11" s="39"/>
       <c r="D11" s="37"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="95"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19106,16 +19150,16 @@
       <c r="D12" s="37">
         <v>120</v>
       </c>
-      <c r="F12" s="92" t="s">
+      <c r="F12" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="82">
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="84">
         <f>SUM(B4:B19)</f>
         <v>57</v>
       </c>
-      <c r="J12" s="82"/>
+      <c r="J12" s="84"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
@@ -19129,11 +19173,11 @@
         <f>B13*5</f>
         <v>15</v>
       </c>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -19171,10 +19215,10 @@
       <c r="D15" s="37"/>
       <c r="E15" s="8"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="110" t="s">
+      <c r="G15" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="110"/>
+      <c r="H15" s="113"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -19198,10 +19242,10 @@
       <c r="D16" s="58"/>
       <c r="E16" s="8"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="109">
+      <c r="G16" s="112">
         <v>0</v>
       </c>
-      <c r="H16" s="109"/>
+      <c r="H16" s="112"/>
       <c r="I16" s="19" t="s">
         <v>32</v>
       </c>
@@ -19430,29 +19474,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
     </row>
     <row r="3" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -19468,11 +19512,11 @@
         <v>20</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
       <c r="K3" s="14"/>
       <c r="L3" s="46"/>
       <c r="M3" s="46"/>
@@ -19487,15 +19531,15 @@
       <c r="C4" s="26"/>
       <c r="D4" s="58"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="93" t="s">
+      <c r="F4" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="94"/>
-      <c r="H4" s="99" t="s">
+      <c r="G4" s="98"/>
+      <c r="H4" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="100"/>
-      <c r="J4" s="101"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="105"/>
       <c r="K4" s="1"/>
       <c r="L4" s="46"/>
       <c r="M4" s="46"/>
@@ -19510,11 +19554,11 @@
       <c r="C5" s="40"/>
       <c r="D5" s="58"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="104"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="108"/>
       <c r="K5" s="1"/>
       <c r="L5" s="46"/>
       <c r="M5" s="46"/>
@@ -19529,11 +19573,11 @@
       <c r="C6" s="38"/>
       <c r="D6" s="58"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="107"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="111"/>
       <c r="K6" s="1"/>
       <c r="L6" s="46"/>
       <c r="M6" s="46"/>
@@ -19551,19 +19595,19 @@
         <v>20</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="73">
+      <c r="G7" s="76">
         <f>SUMIF(A4:A11,"Medidas",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="77">
+      <c r="H7" s="78">
         <f>SUMIF(A4:A23,H4,B4:B23)</f>
         <v>1</v>
       </c>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
       <c r="K7" s="1"/>
       <c r="L7" s="46"/>
       <c r="M7" s="46"/>
@@ -19578,14 +19622,14 @@
       <c r="C8" s="38"/>
       <c r="D8" s="58"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73">
+      <c r="F8" s="76"/>
+      <c r="G8" s="76">
         <f>SUMIF(A4:A11,"Taça",B4:B11)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
       <c r="K8" s="1"/>
       <c r="L8" s="46"/>
       <c r="M8" s="46"/>
@@ -19620,16 +19664,16 @@
         <v>5</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="87" t="s">
+      <c r="F10" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="88">
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="92">
         <f>SUM(D4:D23)</f>
         <v>385</v>
       </c>
-      <c r="J10" s="89"/>
+      <c r="J10" s="93"/>
       <c r="K10" s="18"/>
       <c r="P10" s="19" t="s">
         <v>11</v>
@@ -19648,11 +19692,11 @@
         <v>5</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="95"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19666,16 +19710,16 @@
       <c r="D12" s="37">
         <v>100</v>
       </c>
-      <c r="F12" s="92" t="s">
+      <c r="F12" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="82">
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="84">
         <f>SUM(B4:B22)</f>
         <v>40</v>
       </c>
-      <c r="J12" s="82"/>
+      <c r="J12" s="84"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
@@ -19689,11 +19733,11 @@
         <f>B13*5</f>
         <v>35</v>
       </c>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -19731,10 +19775,10 @@
       <c r="D15" s="37"/>
       <c r="E15" s="8"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="110" t="s">
+      <c r="G15" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="110"/>
+      <c r="H15" s="113"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -19761,10 +19805,10 @@
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="109">
+      <c r="G16" s="112">
         <v>0</v>
       </c>
-      <c r="H16" s="109"/>
+      <c r="H16" s="112"/>
       <c r="I16" s="19" t="s">
         <v>32</v>
       </c>
